--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -4,10 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="目次" sheetId="1" r:id="rId1"/>
+    <sheet name="プレイヤー" sheetId="2" r:id="rId2"/>
+    <sheet name="アイテム" sheetId="14" r:id="rId3"/>
+    <sheet name="スキル" sheetId="15" r:id="rId4"/>
+    <sheet name="エネミー" sheetId="17" r:id="rId5"/>
+    <sheet name="マップ" sheetId="18" r:id="rId6"/>
+    <sheet name="ショップ" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,26 +24,415 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+  <si>
+    <t>オンライン利用技術</t>
+    <rPh sb="5" eb="7">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ギジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル同士の当たり判定</t>
+    <rPh sb="3" eb="5">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジュアルモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルの種類</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ゲーム概要</t>
+    <rPh sb="3" eb="5">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>タイトルからの一連の流れ</t>
+    <rPh sb="7" eb="9">
+      <t>イチレン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>タイトル仕様</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>タイトル画面の操作、概要</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ゲームクリア仕様</t>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ゲームをクリアした時の画面、挙動など</t>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ゲーム挙動</t>
+  </si>
+  <si>
+    <t>UIの見た目、仕様など</t>
+  </si>
+  <si>
+    <t>コピー能力仕様</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>主に吸収する際の仕様、挙動など。</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>コピー能力詳細</t>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>コピー能力の種類、挙動など。</t>
+    <rPh sb="6" eb="8">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>エネミー仕様</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>エネミーの種類、挙動など</t>
+  </si>
+  <si>
+    <t>プレイヤー仕様</t>
+  </si>
+  <si>
+    <t>プレイヤーの挙動、操作方法など</t>
+  </si>
+  <si>
+    <t>ステージ構成</t>
+  </si>
+  <si>
+    <t>ステージの形状、数など</t>
+  </si>
+  <si>
+    <t>チュートリアル仕様</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>チュートリアルの内容、挙動など</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ゲーム挙動</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>アイテム仕様</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>アイテムの効果、種類など</t>
+    <rPh sb="5" eb="7">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ゲーム挙動</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>セーブ仕様</t>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ゲーム中のセーブに関する挙動</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>システム</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ロードの見た目、数、挙動など</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>オンライン</t>
+    <phoneticPr fontId="6"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HGSｺﾞｼｯｸM"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HGSｺﾞｼｯｸM"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -45,17 +440,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -69,7 +703,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +748,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +783,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +965,764 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="15.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="2:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="17"/>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="17"/>
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="17"/>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="17"/>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B14" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="A1:V1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B3:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B3:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B3:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B3:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B3:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
     <sheet name="プレイヤー" sheetId="2" r:id="rId2"/>
     <sheet name="アイテム" sheetId="14" r:id="rId3"/>
-    <sheet name="スキル" sheetId="15" r:id="rId4"/>
-    <sheet name="エネミー" sheetId="17" r:id="rId5"/>
-    <sheet name="マップ" sheetId="18" r:id="rId6"/>
-    <sheet name="ショップ" sheetId="19" r:id="rId7"/>
+    <sheet name="状態" sheetId="20" r:id="rId4"/>
+    <sheet name="スキル" sheetId="15" r:id="rId5"/>
+    <sheet name="エネミー" sheetId="17" r:id="rId6"/>
+    <sheet name="マップ" sheetId="18" r:id="rId7"/>
+    <sheet name="ショップ" sheetId="19" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>オンライン利用技術</t>
     <rPh sb="5" eb="7">
@@ -316,13 +317,49 @@
   <si>
     <t>オンライン</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>必要クラス</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CItemModel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CItemData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CItemManager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムのデータとモデルの原本の保存。</t>
+    <rPh sb="13" eb="15">
+      <t>ゲンポン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +430,28 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -602,8 +661,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -612,69 +731,40 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -967,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -978,260 +1068,278 @@
   <sheetData>
     <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="10"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
       <c r="L3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="17"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
       <c r="L4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="15" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="17"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="17"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
       <c r="L6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="17"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
       <c r="L7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="17"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="17"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="17"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="17"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="17"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="17"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="17"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="17"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="C15:E15"/>
@@ -1242,33 +1350,15 @@
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:J13"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1279,72 +1369,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="4" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+    </row>
+    <row r="5" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B4:L5"/>
     <mergeCell ref="A1:V1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
@@ -1354,73 +1444,125 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B13" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B16" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="19" spans="2:2" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B19" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B11:L12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1429,75 +1571,60 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="A1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B3:L4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1508,64 +1635,64 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="A1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1583,64 +1710,64 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1658,64 +1785,139 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B3:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -684,6 +684,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -694,27 +715,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1071,35 +1071,35 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="14" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="17"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
       <c r="L3" t="s">
         <v>0</v>
       </c>
@@ -1108,18 +1108,18 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
       <c r="L4" t="s">
         <v>1</v>
       </c>
@@ -1128,18 +1128,18 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -1148,18 +1148,18 @@
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
       <c r="L6" t="s">
         <v>3</v>
       </c>
@@ -1168,18 +1168,18 @@
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
       <c r="L7" t="s">
         <v>4</v>
       </c>
@@ -1188,158 +1188,140 @@
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="C15:E15"/>
@@ -1350,6 +1332,24 @@
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:J13"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
@@ -1371,7 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
@@ -1860,7 +1860,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="915" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
     <sheet name="プレイヤー" sheetId="2" r:id="rId2"/>
     <sheet name="アイテム" sheetId="14" r:id="rId3"/>
-    <sheet name="状態" sheetId="20" r:id="rId4"/>
-    <sheet name="スキル" sheetId="15" r:id="rId5"/>
-    <sheet name="エネミー" sheetId="17" r:id="rId6"/>
-    <sheet name="マップ" sheetId="18" r:id="rId7"/>
-    <sheet name="ショップ" sheetId="19" r:id="rId8"/>
+    <sheet name="キャラクター" sheetId="32" r:id="rId4"/>
+    <sheet name="状態" sheetId="20" r:id="rId5"/>
+    <sheet name="スキル" sheetId="15" r:id="rId6"/>
+    <sheet name="エネミー" sheetId="17" r:id="rId7"/>
+    <sheet name="マップ" sheetId="18" r:id="rId8"/>
+    <sheet name="ショップ" sheetId="19" r:id="rId9"/>
+    <sheet name="ステータス" sheetId="31" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="167">
   <si>
     <t>オンライン利用技術</t>
     <rPh sb="5" eb="7">
@@ -351,6 +353,1348 @@
     <t>状態</t>
     <rPh sb="0" eb="2">
       <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーは4キャラ存在しており、それぞれが別の通常攻撃と、スキルを3種類ずつ持っている。</t>
+    <rPh sb="10" eb="12">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ツウジョウコウゲキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数人でプレイする際、同じキャラを選択することももちろん可能。</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウニン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター別で使用するスキル。キャラクターごとに3種類ずつスキルがある。</t>
+    <rPh sb="6" eb="7">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それに加えてゲーム内でスキルとしては扱わないが、通常攻撃もSkillの処理内で処理される。</t>
+    <rPh sb="3" eb="4">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム無敵確率 + バフ無敵確率</t>
+    <rPh sb="4" eb="6">
+      <t>ムテキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ムテキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定の確率でダメージを無効にする確率、初期は0</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　● ダメージを無効化にする確率</t>
+    <rPh sb="8" eb="11">
+      <t>ムコウカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎回復時間 - (基礎回復時間 * バフ速度倍率 * アイテム速度倍率)</t>
+    <rPh sb="0" eb="6">
+      <t>キソカイフクジカン</t>
+    </rPh>
+    <rPh sb="10" eb="16">
+      <t>キソカイフクジカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力が自動回復する速度</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　● 自動回復</t>
+    <rPh sb="3" eb="7">
+      <t>ジドウカイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリアの回復するまでの時間</t>
+    <rPh sb="4" eb="6">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　● バリア回復時間</t>
+    <rPh sb="6" eb="10">
+      <t>カイフクジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存HPをバリアに変化して得るバリアと、追加体力として得るバリアがある。</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定時間ダメージを受けていないと急速に回復する体力</t>
+    <rPh sb="0" eb="4">
+      <t>イッテイジカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キュウソク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　● バリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一時HPの減る速度</t>
+    <rPh sb="0" eb="2">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　● 一時HPの減少値</t>
+    <rPh sb="3" eb="5">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ゲンショウアタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一時HPのステータスに様々な方法で加算される。</t>
+    <rPh sb="0" eb="2">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一時的に得られるHP</t>
+    <rPh sb="0" eb="3">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　● 一時HP</t>
+    <rPh sb="3" eb="5">
+      <t>イチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元のリキャスト時間 - (元のリキャスト時間 * (アイテム倍率 * バフ倍率)) - 固定値リキャスト減少値</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>コテイチ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルを打った際のクールダウンの時間</t>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　● クールダウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー基礎ジャンプ回数 + アイテムジャンプ回数 + バフジャンプ回数</t>
+    <rPh sb="5" eb="7">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプできる回数</t>
+    <rPh sb="7" eb="9">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　● 跳躍数</t>
+    <rPh sb="3" eb="6">
+      <t>チョウヤクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度 * (基礎スプリント速度 * (アイテム倍率 + バフ倍率) )  = スプリント速度</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走っている状態のプレイヤーの速度、初期は1.5倍</t>
+    <rPh sb="0" eb="1">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　● スプリント中の移動速度割合</t>
+    <rPh sb="8" eb="9">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎移動速度 * (アイテム倍率 + バフ倍率)</t>
+    <rPh sb="0" eb="2">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリントをしていない状態でのプレイヤーの移動速度</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　● 移動速度</t>
+    <rPh sb="3" eb="7">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎倍率+アイテム倍率+バフ倍率 = クリティカル倍率</t>
+    <rPh sb="0" eb="4">
+      <t>キソバイリツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎確率+アイテム確率+バフ確率 = クリティカル確率</t>
+    <rPh sb="0" eb="2">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定確率で敵に与えるダメージがX倍(初期2倍)になる。</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　● クリティカル値</t>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(基礎防御力+アイテム防御力+バフ防御力)*バフ防御割合*アイテム防御割合</t>
+    <rPh sb="1" eb="6">
+      <t>キソボウギョリョク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ワリアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵からのダメージを固定値減少させる。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コテイチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　● 防御力</t>
+    <rPh sb="3" eb="6">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(基礎攻撃力＋アイテム攻撃力＋バフ攻撃力)＊バフ攻撃割合＊アイテム攻撃割合＊技の倍率</t>
+    <rPh sb="3" eb="6">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ワリアイ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>コウゲキワリアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に与えることができるダメージの値。敵にダメージを与えるタイミングは別で処理する(クリティカル値などまだ倍率がかかるため）</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　● 攻撃力</t>
+    <rPh sb="3" eb="6">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int型で管理する。</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0になると、ゲームを終了する。徐々に回復していく。</t>
+    <rPh sb="10" eb="12">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　● 体力</t>
+    <rPh sb="3" eb="5">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状態による追加割合</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状態による追加値</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　● アイテムによる追加割合</t>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　● アイテムによる追加値</t>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　● 基礎値</t>
+    <rPh sb="3" eb="6">
+      <t>キソアタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひとつのステータス要素に必要な情報</t>
+    <rPh sb="9" eb="11">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下へ</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上へ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>目次</t>
+    <rPh sb="0" eb="2">
+      <t>モクジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>スキル</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>▼プレイヤーフローチャート</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>▼プレイヤーの行動のフローチャート</t>
+    <rPh sb="7" eb="9">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>キャラクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCharacter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPlayer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの設定クラス。Ccharacterを継承する。</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cenemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミーの設定クラス。Ccharacterを継承する。</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターの基礎情報を保存するクラス</t>
+    <rPh sb="7" eb="9">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCharacterで宣言する変数</t>
+    <rPh sb="11" eb="13">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターのステータスに使用する変数</t>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計値</t>
+    <rPh sb="0" eb="3">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ回数</t>
+    <rPh sb="4" eb="6">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ量</t>
+    <rPh sb="4" eb="5">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリティカル率</t>
+    <rPh sb="6" eb="7">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一時体力</t>
+    <rPh sb="0" eb="4">
+      <t>イチジタイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一時体力の減少量</t>
+    <rPh sb="0" eb="4">
+      <t>イチジタイリョク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ゲンショウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリア量</t>
+    <rPh sb="3" eb="4">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリア回復速度</t>
+    <rPh sb="3" eb="5">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎値</t>
+    <rPh sb="0" eb="3">
+      <t>キソチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム加算値</t>
+    <rPh sb="4" eb="6">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バフ加算値</t>
+    <rPh sb="2" eb="5">
+      <t>カサンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム乗算値</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウザン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バフ乗算値</t>
+    <rPh sb="2" eb="5">
+      <t>ジョウザンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス早見表</t>
+    <rPh sb="5" eb="7">
+      <t>ハヤミ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇のついてる変数を実装してください。</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡状態</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動状態</t>
+    <rPh sb="0" eb="4">
+      <t>イドウジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ状態</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃状態</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプしている状態、モーションあり</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃している状態、モーションあり</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターが移動している状態、移動量がなくなって数秒で解除</t>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>イドウリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>スウビョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターが死亡した状態</t>
+    <rPh sb="7" eb="9">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターの行動状態を管理する</t>
+    <rPh sb="7" eb="9">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機状態</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記の状態ではないとき</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCharacterで宣言する関数</t>
+    <rPh sb="11" eb="13">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターの行動に関連する関数</t>
+    <rPh sb="7" eb="9">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動関数</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ関数</t>
+    <rPh sb="4" eb="6">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動する</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃関数</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡関数</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターを死亡状態にする処理、死亡時間が一定以上でオブジェクトを削除する。</t>
+    <rPh sb="7" eb="9">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>シボウジカン</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>イッテイイジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃する、スキルを呼び出す</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -359,7 +1703,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,8 +1796,113 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,8 +1939,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -657,11 +2112,262 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -684,6 +2390,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -717,11 +2439,47 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -732,11 +2490,85 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="58">
     <dxf>
       <fill>
         <patternFill>
@@ -779,6 +2611,351 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -790,6 +2967,1445 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>26173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>640938</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="フローチャート: 代替処理 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="1397773"/>
+          <a:ext cx="1311498" cy="494968"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ゲーム開始</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>153962</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504092</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>77194</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="フローチャート: 代替処理 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2158608" y="1371600"/>
+          <a:ext cx="1686561" cy="534394"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>最初は待機状態なので</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E(PAD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>なら</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>でスタート</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>329027</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>77194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>330433</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>203088</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3001889" y="1905994"/>
+          <a:ext cx="1406" cy="125894"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>346238</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>203088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314628</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="フローチャート: 代替処理 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2350884" y="2031888"/>
+          <a:ext cx="1304821" cy="490330"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージ攻略</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>640938</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>153962</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>45057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1977369" y="1638797"/>
+          <a:ext cx="181239" cy="6460"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>449195</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>334106</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>144371</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="フローチャート: 代替処理 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="449195" y="3429915"/>
+          <a:ext cx="1889557" cy="600656"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボタンのどれかを使用し</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>スキルを使う</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57543</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>144371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>64132</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107672</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="2"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1393974" y="4030571"/>
+          <a:ext cx="6589" cy="191901"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>128265</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52754</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="フローチャート: 代替処理 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="668215" y="4222472"/>
+          <a:ext cx="1464696" cy="630882"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>対応したスキルが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>発動する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>627184</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>224139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>183821</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>97912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="フローチャート: 代替処理 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="627184" y="5024739"/>
+          <a:ext cx="1561283" cy="559573"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>スキルのモーション中は</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ほかの行動ができない</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>64132</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>71395</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>224139</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="43" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400563" y="4853354"/>
+          <a:ext cx="7263" cy="171385"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>617779</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>29306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>58282</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>193429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="フローチャート: 代替処理 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617779" y="5744306"/>
+          <a:ext cx="1445149" cy="621323"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>体力が</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>になっている</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>611689</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>131628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>52192</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="フローチャート: 代替処理 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="611689" y="6532428"/>
+          <a:ext cx="1445149" cy="427383"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>死亡状態になる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666049</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>193429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3923</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>131628</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="2"/>
+          <a:endCxn id="76" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1334264" y="6365629"/>
+          <a:ext cx="6090" cy="166799"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666049</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>668215</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>11722</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線矢印コネクタ 78"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="2"/>
+          <a:endCxn id="122" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1334264" y="6959811"/>
+          <a:ext cx="2166" cy="138511"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19878</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>194195</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109662</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="フローチャート: 代替処理 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4697386" y="3429000"/>
+          <a:ext cx="1510747" cy="338262"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ダメージ受けた時</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107037</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>108032</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>112644</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="直線矢印コネクタ 105"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="2"/>
+          <a:endCxn id="107" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5452760" y="3767262"/>
+          <a:ext cx="995" cy="231582"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>134510</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>112644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>81553</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>213692</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="フローチャート: 代替処理 106"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4812018" y="3998844"/>
+          <a:ext cx="1283473" cy="329648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ダメージ状態になる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>108032</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>213692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>112007</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185531</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="直線矢印コネクタ 107"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="107" idx="2"/>
+          <a:endCxn id="109" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5453755" y="4328492"/>
+          <a:ext cx="3975" cy="200439"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>224014</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="フローチャート: 代替処理 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4677508" y="4528931"/>
+          <a:ext cx="1560444" cy="552947"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ダメージを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>一時的に受けなくなる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>111368</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>11722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556845</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="フローチャート: 判断 121"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="111368" y="7098322"/>
+          <a:ext cx="2450123" cy="902677"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
+            <a:t>ほかプレイヤーが生存している</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556845</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>222738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>199292</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>5861</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直線矢印コネクタ 135"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="122" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2561491" y="7537938"/>
+          <a:ext cx="310663" cy="11723"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>668215</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>216877</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="直線矢印コネクタ 152"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="122" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1336430" y="8000999"/>
+          <a:ext cx="1" cy="216878"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B22:H33" totalsRowShown="0" dataDxfId="57" tableBorderDxfId="56">
+  <autoFilter ref="B22:H33"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="ステータス名"/>
+    <tableColumn id="2" name="合計値" dataDxfId="55"/>
+    <tableColumn id="3" name="基礎値" dataDxfId="54"/>
+    <tableColumn id="4" name="アイテム加算値" dataDxfId="53"/>
+    <tableColumn id="5" name="バフ加算値" dataDxfId="52"/>
+    <tableColumn id="6" name="アイテム乗算値" dataDxfId="51"/>
+    <tableColumn id="7" name="バフ乗算値" dataDxfId="50"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1057,9 +4673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:J5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1071,35 +4685,35 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="13"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
       <c r="L3" t="s">
         <v>0</v>
       </c>
@@ -1108,18 +4722,18 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
       <c r="L4" t="s">
         <v>1</v>
       </c>
@@ -1128,18 +4742,18 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="18" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -1148,18 +4762,18 @@
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
       <c r="L6" t="s">
         <v>3</v>
       </c>
@@ -1168,18 +4782,18 @@
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
       <c r="L7" t="s">
         <v>4</v>
       </c>
@@ -1188,137 +4802,137 @@
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -1353,12 +4967,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1367,78 +4981,782 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V55"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="8.69921875" customWidth="1"/>
+    <col min="3" max="3" width="8.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+    </row>
+    <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+    </row>
+    <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+    </row>
+    <row r="7" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+    </row>
+    <row r="8" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+    </row>
+    <row r="13" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="7"/>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="7"/>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="7"/>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="7"/>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="7"/>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="7"/>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="7"/>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="7"/>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="7"/>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="7"/>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+    </row>
+    <row r="42" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="7"/>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+    </row>
+    <row r="45" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="7"/>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+    </row>
+    <row r="48" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="7"/>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+    </row>
+    <row r="51" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="7"/>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+    </row>
+    <row r="54" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="7"/>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B11:L12"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B1:B4 B13 H21:H26 H28:H34 B19 B22 B26 B32 B47 B50 B35 B38 B41 B44 B53 B55:B1048576">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B12">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2" display="　● 状態による追加値"/>
+    <hyperlink ref="L1" location="ステータス!A2" display="上へ"/>
+    <hyperlink ref="J1" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B4" s="21" t="s">
+      <c r="A1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+    </row>
+    <row r="3" spans="1:22" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+    </row>
+    <row r="4" spans="1:22" s="49" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="12" spans="1:22" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+    </row>
+    <row r="13" spans="1:22" s="49" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B42" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-    </row>
-    <row r="5" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+    </row>
+    <row r="43" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+    </row>
+    <row r="44" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="48" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="39"/>
+    </row>
+    <row r="49" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="42"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="31"/>
+    </row>
+    <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B51" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:L5"/>
-    <mergeCell ref="A1:V1"/>
+  <mergeCells count="7">
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="B12:K13"/>
+    <mergeCell ref="B50:L50"/>
+    <mergeCell ref="B51:L51"/>
+    <mergeCell ref="B42:L43"/>
+    <mergeCell ref="B48:L48"/>
+    <mergeCell ref="B49:L49"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B49:L49" location="スキル!A1" display="スキル"/>
+    <hyperlink ref="B51:L51" location="目次!A1" display="目次"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1447,93 +5765,93 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
     </row>
     <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B13" s="9" t="s">
@@ -1571,6 +5889,811 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" customWidth="1"/>
+    <col min="8" max="8" width="12.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B3" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+    </row>
+    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B5" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+    </row>
+    <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B8" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B11" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B14" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+    </row>
+    <row r="17" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B17" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G18" s="57"/>
+    </row>
+    <row r="19" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B22" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B23" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B24" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B25" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B27" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B28" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B29" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B30" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B31" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B32" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B33" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" s="62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+    </row>
+    <row r="35" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="2:12" ht="22.8" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B36" s="63"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+    </row>
+    <row r="37" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="68"/>
+    </row>
+    <row r="38" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="71"/>
+    </row>
+    <row r="39" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="74"/>
+    </row>
+    <row r="40" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B40" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="71"/>
+    </row>
+    <row r="41" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B41" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="77"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B43" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+    </row>
+    <row r="44" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+    </row>
+    <row r="46" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B46" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+    </row>
+    <row r="47" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="48" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B48" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="68"/>
+    </row>
+    <row r="49" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B49" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="71"/>
+    </row>
+    <row r="50" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B50" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="74"/>
+    </row>
+    <row r="51" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B51" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="B43:L44"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B14:L15"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C37:H37"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B19:B20">
+    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="15" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B10">
+    <cfRule type="cellIs" dxfId="43" priority="29" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="30" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="31" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B12">
+    <cfRule type="cellIs" dxfId="39" priority="25" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="27" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B15">
+    <cfRule type="cellIs" dxfId="35" priority="21" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="22" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B18">
+    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="18" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B36">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:B44">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1581,30 +6704,30 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1612,16 +6735,16 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1629,145 +6752,80 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B3:L4"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-    </row>
-    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+    </row>
+    <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="16" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1785,64 +6843,64 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1860,64 +6918,139 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B3" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B3:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="915" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
     <sheet name="プレイヤー" sheetId="2" r:id="rId2"/>
     <sheet name="アイテム" sheetId="14" r:id="rId3"/>
     <sheet name="キャラクター" sheetId="32" r:id="rId4"/>
-    <sheet name="状態" sheetId="20" r:id="rId5"/>
-    <sheet name="スキル" sheetId="15" r:id="rId6"/>
-    <sheet name="エネミー" sheetId="17" r:id="rId7"/>
-    <sheet name="マップ" sheetId="18" r:id="rId8"/>
-    <sheet name="ショップ" sheetId="19" r:id="rId9"/>
-    <sheet name="ステータス" sheetId="31" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="33" r:id="rId5"/>
+    <sheet name="状態" sheetId="20" r:id="rId6"/>
+    <sheet name="スキル" sheetId="15" r:id="rId7"/>
+    <sheet name="エネミー" sheetId="17" r:id="rId8"/>
+    <sheet name="マップ" sheetId="18" r:id="rId9"/>
+    <sheet name="ショップ" sheetId="19" r:id="rId10"/>
+    <sheet name="ステータス" sheetId="31" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="186">
   <si>
     <t>オンライン利用技術</t>
     <rPh sb="5" eb="7">
@@ -1218,10 +1219,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>▼プレイヤーフローチャート</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>▼プレイヤーの行動のフローチャート</t>
     <rPh sb="7" eb="9">
       <t>コウドウ</t>
@@ -1664,28 +1661,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キャラクターを死亡状態にする処理、死亡時間が一定以上でオブジェクトを削除する。</t>
-    <rPh sb="7" eb="9">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="17" eb="21">
-      <t>シボウジカン</t>
-    </rPh>
-    <rPh sb="22" eb="26">
-      <t>イッテイイジョウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>攻撃する、スキルを呼び出す</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
@@ -1695,6 +1670,192 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターを死亡状態にする処理、死亡時間が一定以上でオブジェクトを削除する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション関数</t>
+    <rPh sb="5" eb="7">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーションを呼び出す関数</t>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターの変数</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmotionを宣言する変数</t>
+    <rPh sb="8" eb="10">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション管理番号</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今ついているモーションが何番かを保存する変数</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナンバン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持状況&amp;個数状況</t>
+    <rPh sb="0" eb="2">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>コスウジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何のアイテムを持っているか、そのアイテムを何個持ってるかの変数</t>
+    <rPh sb="0" eb="1">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナンコ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイアブルキャラクターの名前のクラス、Cplayerを継承する。予定では4つ必要。</t>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前方宣言</t>
+    <rPh sb="0" eb="4">
+      <t>ゼンポウセンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cskill</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルを使うためのクラス。</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmotion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーションを使用するためのクラス。</t>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cskillを宣言する変数</t>
+    <rPh sb="7" eb="9">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼死亡状態のフローチャート</t>
+    <rPh sb="1" eb="3">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CPlayerで宣言する変数</t>
+    <rPh sb="8" eb="10">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1703,7 +1864,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1901,6 +2062,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.59999389629810485"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1946,7 +2114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2362,12 +2530,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2406,6 +2600,45 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2427,17 +2660,11 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2490,6 +2717,33 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2499,68 +2753,27 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2568,7 +2781,287 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="98">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2975,13 +3468,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>26173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>640938</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>63941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3041,13 +3534,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>153962</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>504092</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>77194</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3147,13 +3640,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>329027</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>77194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>330433</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>203088</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3197,13 +3690,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>346238</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>203088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314628</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>7618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3263,13 +3756,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>640938</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>153962</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>45057</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3313,13 +3806,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>449195</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>334106</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>144371</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3403,13 +3896,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57543</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>144371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>64132</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>107672</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3453,13 +3946,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>107672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>128265</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>52754</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3535,13 +4028,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>627184</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>224139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>183821</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>97912</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3617,13 +4110,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>64132</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>52754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>71395</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>224139</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3666,15 +4159,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>617779</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>29306</xdr:rowOff>
+      <xdr:colOff>230917</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>184051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>58282</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>193429</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>339635</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>119574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3683,12 +4176,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="617779" y="5744306"/>
-          <a:ext cx="1445149" cy="621323"/>
+          <a:off x="230917" y="11614051"/>
+          <a:ext cx="1449838" cy="621323"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3755,16 +4251,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>611689</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>131628</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>640996</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>40188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>52192</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>101811</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>81499</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>10371</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3773,12 +4269,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="611689" y="6532428"/>
-          <a:ext cx="1445149" cy="427383"/>
+          <a:off x="1982116" y="11698788"/>
+          <a:ext cx="1452183" cy="427383"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3821,29 +4320,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>666049</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>193429</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>339635</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3923</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>131628</xdr:rowOff>
+      <xdr:colOff>640996</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>37513</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="78" name="直線矢印コネクタ 77"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="74" idx="2"/>
-          <a:endCxn id="76" idx="0"/>
+          <a:stCxn id="74" idx="3"/>
+          <a:endCxn id="76" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1334264" y="6365629"/>
-          <a:ext cx="6090" cy="166799"/>
+        <a:xfrm flipV="1">
+          <a:off x="1680755" y="11912480"/>
+          <a:ext cx="301361" cy="12233"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3871,16 +4370,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>666049</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>101811</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>27140</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>10371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>668215</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>11722</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>35167</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>148882</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3892,8 +4391,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1334264" y="6959811"/>
-          <a:ext cx="2166" cy="138511"/>
+          <a:off x="2709380" y="12126171"/>
+          <a:ext cx="8027" cy="138511"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3921,15 +4420,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19878</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>488801</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>194195</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>663117</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>109662</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3939,12 +4438,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4697386" y="3429000"/>
+          <a:off x="2493447" y="3429000"/>
           <a:ext cx="1510747" cy="338262"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3987,15 +4491,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>107037</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>575959</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>109662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>108032</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>576954</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>112644</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4008,7 +4512,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5452760" y="3767262"/>
+          <a:off x="3248821" y="3767262"/>
           <a:ext cx="995" cy="231582"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4037,15 +4541,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>134510</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>603433</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>112644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>81553</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>550475</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>213692</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4055,12 +4559,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4812018" y="3998844"/>
+          <a:off x="2608079" y="3998844"/>
           <a:ext cx="1283473" cy="329648"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4103,15 +4612,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>108032</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>576954</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>213692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>112007</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>580929</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>185531</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4124,7 +4633,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5453755" y="4328492"/>
+          <a:off x="3249816" y="4328492"/>
           <a:ext cx="3975" cy="200439"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4153,15 +4662,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>468923</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>185531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>224014</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24721</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>52678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4171,12 +4680,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4677508" y="4528931"/>
+          <a:off x="2473569" y="4528931"/>
           <a:ext cx="1560444" cy="552947"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4235,16 +4749,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>111368</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>11722</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146536</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>148882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>556845</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>592013</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>137159</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4253,8 +4767,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="111368" y="7098322"/>
-          <a:ext cx="2450123" cy="902677"/>
+          <a:off x="1487656" y="12264682"/>
+          <a:ext cx="2457157" cy="902677"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -4293,28 +4807,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>556845</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>222738</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>592013</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>199292</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>5861</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>211016</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>143021</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="136" name="直線矢印コネクタ 135"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="122" idx="3"/>
+          <a:endCxn id="28" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2561491" y="7537938"/>
-          <a:ext cx="310663" cy="11723"/>
+          <a:off x="3944813" y="12706975"/>
+          <a:ext cx="289563" cy="9046"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4342,28 +4857,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>668215</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19190</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>137159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>216877</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>35167</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="153" name="直線矢印コネクタ 152"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="122" idx="2"/>
+          <a:endCxn id="27" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1336430" y="8000999"/>
-          <a:ext cx="1" cy="216878"/>
+        <a:xfrm flipH="1">
+          <a:off x="2701430" y="13167359"/>
+          <a:ext cx="15977" cy="228601"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4389,20 +4905,844 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>105507</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>101991</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="387094" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2787747" y="13132191"/>
+          <a:ext cx="387094" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>486508</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>96129</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="369140" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3839308" y="12440529"/>
+          <a:ext cx="369140" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>633046</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>73549</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>107343</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="フローチャート: 代替処理 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1974166" y="13395960"/>
+          <a:ext cx="1452183" cy="427383"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>観戦状態になる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>211016</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>148883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>319734</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>119066</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="フローチャート: 代替処理 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4234376" y="12493283"/>
+          <a:ext cx="1449838" cy="427383"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リザルト画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>369278</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>509955</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>143456</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="フローチャート: 代替処理 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4378570" y="3429000"/>
+          <a:ext cx="1477108" cy="600656"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ジャンプキーを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>押す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>439616</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>143456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>106757</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="47" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5117124" y="4029656"/>
+          <a:ext cx="7659" cy="191901"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>383143</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>106757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>511408</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>51839</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="フローチャート: 代替処理 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4392435" y="4221557"/>
+          <a:ext cx="1464696" cy="630882"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ジャンプする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447275</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>51839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>216878</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="2"/>
+          <a:endCxn id="52" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124783" y="4852439"/>
+          <a:ext cx="9925" cy="165039"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>216878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>246184</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>146540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="フローチャート: 判断 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4009293" y="5017478"/>
+          <a:ext cx="2250829" cy="615462"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
+            <a:t>ジャンプ回数が最大</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>146540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>470528</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>41031</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="2"/>
+          <a:endCxn id="70" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5134708" y="5632940"/>
+          <a:ext cx="13328" cy="123091"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>246184</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>55685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>468923</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>67409</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="3"/>
+          <a:endCxn id="65" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6260122" y="5313485"/>
+          <a:ext cx="222739" cy="11724"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>468923</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>93785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>140677</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>17585</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="フローチャート: 代替処理 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6482861" y="4894385"/>
+          <a:ext cx="1676401" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ジャンプができなくなり</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自由落下</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>416169</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>41031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>524887</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>11214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="フローチャート: 代替処理 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4425461" y="5756031"/>
+          <a:ext cx="1445149" cy="427383"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>もう一度ジャンプ可能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B22:H33" totalsRowShown="0" dataDxfId="57" tableBorderDxfId="56">
-  <autoFilter ref="B22:H33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B33:H44" totalsRowShown="0" dataDxfId="97" tableBorderDxfId="96">
+  <autoFilter ref="B33:H44"/>
   <tableColumns count="7">
     <tableColumn id="1" name="ステータス名"/>
-    <tableColumn id="2" name="合計値" dataDxfId="55"/>
-    <tableColumn id="3" name="基礎値" dataDxfId="54"/>
-    <tableColumn id="4" name="アイテム加算値" dataDxfId="53"/>
-    <tableColumn id="5" name="バフ加算値" dataDxfId="52"/>
-    <tableColumn id="6" name="アイテム乗算値" dataDxfId="51"/>
-    <tableColumn id="7" name="バフ乗算値" dataDxfId="50"/>
+    <tableColumn id="2" name="合計値" dataDxfId="95"/>
+    <tableColumn id="3" name="基礎値" dataDxfId="94"/>
+    <tableColumn id="4" name="アイテム加算値" dataDxfId="93"/>
+    <tableColumn id="5" name="バフ加算値" dataDxfId="92"/>
+    <tableColumn id="6" name="アイテム乗算値" dataDxfId="91"/>
+    <tableColumn id="7" name="バフ乗算値" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4685,35 +6025,35 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="21"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
       <c r="L3" t="s">
         <v>0</v>
       </c>
@@ -4722,18 +6062,18 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="39"/>
       <c r="L4" t="s">
         <v>1</v>
       </c>
@@ -4742,18 +6082,18 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="26" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -4762,18 +6102,18 @@
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
       <c r="L6" t="s">
         <v>3</v>
       </c>
@@ -4782,18 +6122,18 @@
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
       <c r="L7" t="s">
         <v>4</v>
       </c>
@@ -4802,140 +6142,158 @@
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="39"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26" t="s">
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="27"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26" t="s">
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26" t="s">
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="27"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="C15:E15"/>
@@ -4946,33 +6304,15 @@
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:J13"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="1" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="2" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4982,6 +6322,81 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B3" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B3:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V55"/>
   <sheetViews>
@@ -5030,100 +6445,100 @@
       <c r="V1" s="12"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
     </row>
     <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
     </row>
     <row r="7" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
     </row>
     <row r="8" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
     </row>
     <row r="9" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
     </row>
     <row r="12" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
     </row>
     <row r="13" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
@@ -5556,14 +6971,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="18.59765625" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="15" t="s">
@@ -5591,169 +7010,550 @@
       <c r="U1" s="15"/>
       <c r="V1" s="15"/>
     </row>
-    <row r="3" spans="1:22" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="50" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B3" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+    </row>
+    <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B8" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+    </row>
+    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B11" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B14" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+    </row>
+    <row r="18" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+    </row>
+    <row r="19" spans="1:14" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+    </row>
+    <row r="23" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A29" s="18"/>
+      <c r="B29" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-    </row>
-    <row r="4" spans="1:22" s="49" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="12" spans="1:22" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-    </row>
-    <row r="13" spans="1:22" s="49" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B42" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-    </row>
-    <row r="43" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-    </row>
-    <row r="44" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="48" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="37" t="s">
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+    </row>
+    <row r="30" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="18"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+    </row>
+    <row r="32" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A45" s="18"/>
+      <c r="B45" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+    </row>
+    <row r="46" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="18"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B59" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
+    </row>
+    <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B60" s="66"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="66"/>
+    </row>
+    <row r="62" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+    </row>
+    <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+    </row>
+    <row r="64" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B64" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="68"/>
+    </row>
+    <row r="65" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B65" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="70"/>
+    </row>
+    <row r="66" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B66" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="82"/>
+    </row>
+    <row r="67" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B67" s="85" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="D67" s="86"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="H67" s="87"/>
+    </row>
+    <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B72" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="39"/>
-    </row>
-    <row r="49" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="40" t="s">
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="60"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B73" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="42"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="31"/>
-    </row>
-    <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B51" s="32" t="s">
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="62"/>
+      <c r="K73" s="62"/>
+      <c r="L73" s="63"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B74" s="50"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="52"/>
+    </row>
+    <row r="75" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B75" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="34"/>
-    </row>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="55"/>
+    </row>
+    <row r="76" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="B12:K13"/>
-    <mergeCell ref="B50:L50"/>
-    <mergeCell ref="B51:L51"/>
-    <mergeCell ref="B42:L43"/>
-    <mergeCell ref="B48:L48"/>
-    <mergeCell ref="B49:L49"/>
+  <mergeCells count="15">
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B17:L18"/>
+    <mergeCell ref="B45:K46"/>
+    <mergeCell ref="B20:L21"/>
+    <mergeCell ref="B29:K30"/>
+    <mergeCell ref="B74:L74"/>
+    <mergeCell ref="B75:L75"/>
+    <mergeCell ref="B72:L72"/>
+    <mergeCell ref="B73:L73"/>
+    <mergeCell ref="B59:L60"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B19 B10:B13">
+    <cfRule type="cellIs" dxfId="87" priority="25" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="26" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="27" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="28" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B16">
+    <cfRule type="cellIs" dxfId="83" priority="17" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="18" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="19" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="20" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="4" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:B60">
+    <cfRule type="cellIs" dxfId="75" priority="9" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="10" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="11" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="12" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B49:L49" location="スキル!A1" display="スキル"/>
-    <hyperlink ref="B51:L51" location="目次!A1" display="目次"/>
+    <hyperlink ref="B73:L73" location="スキル!A1" display="スキル"/>
+    <hyperlink ref="B75:L75" location="目次!A1" display="目次"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5764,94 +7564,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
     </row>
     <row r="12" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
     </row>
     <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B13" s="9" t="s">
@@ -5889,11 +7689,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5907,7 +7707,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -5932,56 +7732,56 @@
       <c r="V1" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
     </row>
     <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
-      <c r="B5" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
+      <c r="B5" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
-      <c r="B8" s="54" t="s">
-        <v>113</v>
+      <c r="B8" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -5996,15 +7796,15 @@
     </row>
     <row r="9" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
-      <c r="B11" s="54" t="s">
-        <v>115</v>
+      <c r="B11" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -6019,496 +7819,450 @@
     </row>
     <row r="12" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+    </row>
+    <row r="16" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B17" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B20" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B25" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+    </row>
+    <row r="26" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+    </row>
+    <row r="28" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B28" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-    </row>
-    <row r="17" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B17" s="55" t="s">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B33" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="G18" s="57"/>
-    </row>
-    <row r="19" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B22" s="61" t="s">
+      <c r="D33" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B34" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B35" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="H22" s="61" t="s">
+      <c r="C35" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="29" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B23" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="62" t="s">
+      <c r="F35" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B36" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="E36" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B37" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B38" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B39" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" s="62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B24" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="62" t="s">
+      <c r="D39" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="G24" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="H24" s="62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B25" s="61" t="s">
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B40" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C40" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="62" t="s">
+      <c r="D40" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B41" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B26" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="62" t="s">
+      <c r="H41" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B42" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" s="62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B27" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="62" t="s">
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B43" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="H27" s="62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B28" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B29" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="E29" s="62" t="s">
+      <c r="E43" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="62" t="s">
+      <c r="G43" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B44" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B30" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="H30" s="62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B31" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="H31" s="62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B32" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="D32" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B33" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="H33" s="62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-    </row>
-    <row r="35" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-    </row>
-    <row r="36" spans="2:12" ht="22.8" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B36" s="63"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-    </row>
-    <row r="37" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="68"/>
-    </row>
-    <row r="38" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="71"/>
-    </row>
-    <row r="39" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="73" t="s">
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+    </row>
+    <row r="46" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+    </row>
+    <row r="47" spans="2:12" ht="22.8" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B47" s="30"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+    </row>
+    <row r="48" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B48" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="67" t="s">
         <v>151</v>
-      </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="74"/>
-    </row>
-    <row r="40" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="C40" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="71"/>
-    </row>
-    <row r="41" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="76" t="s">
-        <v>156</v>
-      </c>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="77"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B43" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-    </row>
-    <row r="44" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-    </row>
-    <row r="46" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B46" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-    </row>
-    <row r="47" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="48" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="C48" s="67" t="s">
-        <v>162</v>
       </c>
       <c r="D48" s="67"/>
       <c r="E48" s="67"/>
@@ -6516,91 +8270,361 @@
       <c r="G48" s="67"/>
       <c r="H48" s="68"/>
     </row>
-    <row r="49" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B49" s="69" t="s">
+    <row r="49" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B49" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="70"/>
+    </row>
+    <row r="50" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B50" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="72"/>
+    </row>
+    <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B51" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="70"/>
+    </row>
+    <row r="52" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B52" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="74"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="75"/>
+    </row>
+    <row r="54" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+    </row>
+    <row r="55" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+    </row>
+    <row r="56" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B56" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="68"/>
+    </row>
+    <row r="57" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B57" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="70"/>
+    </row>
+    <row r="58" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B58" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="82"/>
+    </row>
+    <row r="59" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B59" s="85" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="87"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B61" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65"/>
+    </row>
+    <row r="62" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="66"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="66"/>
+    </row>
+    <row r="64" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B64" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+    </row>
+    <row r="65" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="66" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B66" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="68"/>
+    </row>
+    <row r="67" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B67" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="71"/>
-    </row>
-    <row r="50" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B50" s="72" t="s">
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="70"/>
+    </row>
+    <row r="68" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B68" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="72"/>
+    </row>
+    <row r="69" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B69" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="C50" s="73" t="s">
+      <c r="C69" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="70"/>
+    </row>
+    <row r="70" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B70" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="74"/>
-    </row>
-    <row r="51" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B51" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="C51" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="80"/>
+      <c r="C70" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="73"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="74"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C71" s="79"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C48:H48"/>
+  <mergeCells count="20">
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B25:L26"/>
     <mergeCell ref="C49:H49"/>
     <mergeCell ref="C50:H50"/>
     <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="B43:L44"/>
-    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="C48:H48"/>
     <mergeCell ref="B14:L15"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="B61:L62"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C58:H58"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B19:B20">
-    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
+  <conditionalFormatting sqref="B30:B31">
+    <cfRule type="cellIs" dxfId="59" priority="29" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="30" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="31" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="32" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B10">
-    <cfRule type="cellIs" dxfId="43" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="46" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="48" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
+    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B26">
+    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B29">
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:B47">
     <cfRule type="cellIs" dxfId="39" priority="25" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
@@ -6614,63 +8638,63 @@
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B15">
-    <cfRule type="cellIs" dxfId="35" priority="21" operator="equal">
+  <conditionalFormatting sqref="B64">
+    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:B62">
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
-      <formula>"デザイン"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="18" operator="equal">
-      <formula>"システム"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
-      <formula>"全体"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
-      <formula>"ゲーム挙動"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
-      <formula>"デザイン"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
-      <formula>"システム"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
-      <formula>"全体"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
-      <formula>"ゲーム挙動"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
-      <formula>"デザイン"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
-      <formula>"システム"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
-      <formula>"全体"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
-      <formula>"ゲーム挙動"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:B44">
     <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
@@ -6684,6 +8708,20 @@
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B21">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -6693,6 +8731,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1"/>
   <sheetViews>
@@ -6704,30 +8755,30 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6752,7 +8803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V6"/>
   <sheetViews>
@@ -6764,58 +8815,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="7" t="s">
@@ -6826,81 +8877,6 @@
       <c r="B6" s="16" t="s">
         <v>53</v>
       </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B3:L4"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-    </row>
-    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6918,64 +8894,64 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6993,64 +8969,64 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
+      <c r="A1" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="208">
   <si>
     <t>オンライン利用技術</t>
     <rPh sb="5" eb="7">
@@ -1518,16 +1518,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃している状態、モーションあり</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キャラクターが移動している状態、移動量がなくなって数秒で解除</t>
     <rPh sb="7" eb="9">
       <t>イドウ</t>
@@ -1661,19 +1651,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃する、スキルを呼び出す</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キャラクターを死亡状態にする処理、死亡時間が一定以上でオブジェクトを削除する。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1856,6 +1833,255 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリントアイテム倍率</t>
+    <rPh sb="9" eb="11">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリントバフ倍率</t>
+    <rPh sb="7" eb="9">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリント合計値</t>
+    <rPh sb="5" eb="8">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリント倍率の合計値</t>
+    <rPh sb="5" eb="7">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリント基礎値</t>
+    <rPh sb="5" eb="7">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリントした際の移動速度の倍率の基礎値</t>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>キソチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリント倍率にアイテムの倍率を足した数</t>
+    <rPh sb="5" eb="7">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリント倍率にバフの倍率を足した数</t>
+    <rPh sb="5" eb="7">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリントの変数</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリントしているか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool型</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPlayerで宣言する関数</t>
+    <rPh sb="8" eb="10">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリント状態</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが走るときの状態、なぜかキャラクターにあるが仕方ない。</t>
+    <rPh sb="6" eb="7">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリント状態に移行する処理、移動速度に倍率がかかる。</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃している状態。</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃する、Cskillを介して攻撃する。</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー入力で移動する。移動量が0になってから数秒で待機状態へ。</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>スウビョウ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>タイキジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー入力で攻撃、スキルを行う。</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー入力でジャンプする。ジャンプ回数が0になったら飛べない。</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2114,7 +2340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -2539,6 +2765,39 @@
         <color theme="9" tint="0.39994506668294322"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color theme="9" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
@@ -2556,12 +2815,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2627,18 +2923,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2659,6 +2948,60 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2684,12 +3027,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2708,25 +3045,37 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2735,10 +3084,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2753,35 +3102,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="98">
+  <dxfs count="90">
     <dxf>
       <fill>
         <patternFill>
@@ -2809,6 +3135,99 @@
           <bgColor rgb="FFFFCCFF"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3300,155 +3719,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3468,13 +3738,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>26173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>640938</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>63941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3534,13 +3804,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>153962</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>504092</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>77194</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3640,13 +3910,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>329027</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>77194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>330433</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>203088</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3690,13 +3960,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>346238</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>203088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314628</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>7618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3756,13 +4026,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>640938</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>38597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>153962</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>45057</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3804,15 +4074,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>449195</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>334106</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>144371</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3822,8 +4092,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="449195" y="3429915"/>
-          <a:ext cx="1889557" cy="600656"/>
+          <a:off x="693420" y="7537095"/>
+          <a:ext cx="2834640" cy="600656"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -3894,15 +4164,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>57543</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1440180</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>144371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>64132</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1447801</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>107672</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3915,8 +4185,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1393974" y="4030571"/>
-          <a:ext cx="6589" cy="191901"/>
+          <a:off x="2110740" y="8137751"/>
+          <a:ext cx="7621" cy="191901"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3945,14 +4215,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>107672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>128265</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:colOff>30481</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>52754</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3962,8 +4232,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="668215" y="4222472"/>
-          <a:ext cx="1464696" cy="630882"/>
+          <a:off x="708661" y="8329652"/>
+          <a:ext cx="2819400" cy="630882"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -4026,15 +4296,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>627184</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30481</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>224139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>183821</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:colOff>22861</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>97912</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4044,8 +4314,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="627184" y="5024739"/>
-          <a:ext cx="1561283" cy="559573"/>
+          <a:off x="701041" y="9131919"/>
+          <a:ext cx="2819400" cy="559573"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -4108,15 +4378,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>64132</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1440181</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>52754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>71395</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1447801</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>224139</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4128,9 +4398,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1400563" y="4853354"/>
-          <a:ext cx="7263" cy="171385"/>
+        <a:xfrm flipH="1">
+          <a:off x="2110741" y="8960534"/>
+          <a:ext cx="7620" cy="171385"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4158,15 +4428,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>230917</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>184051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>339635</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:colOff>339634</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>119574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4176,8 +4446,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="230917" y="11614051"/>
-          <a:ext cx="1449838" cy="621323"/>
+          <a:off x="701040" y="11156851"/>
+          <a:ext cx="1962694" cy="621323"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -4253,13 +4523,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>640996</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>40188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>81499</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>10371</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4321,14 +4591,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>339635</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:colOff>339634</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>25280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>640996</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>37513</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4341,8 +4611,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1680755" y="11912480"/>
-          <a:ext cx="301361" cy="12233"/>
+          <a:off x="2663734" y="11455280"/>
+          <a:ext cx="301362" cy="12233"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4372,13 +4642,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>27140</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>10371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>35167</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>148882</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4422,13 +4692,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>488801</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>663117</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>109662</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4493,13 +4763,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>575959</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>109662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>576954</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>112644</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4543,13 +4813,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>603433</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>112644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>550475</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>213692</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4614,13 +4884,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>576954</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>213692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>580929</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>185531</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4664,13 +4934,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>468923</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>185531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>24721</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>52678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4751,13 +5021,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>146536</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>148882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>592013</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>137159</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4809,13 +5079,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>592013</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>133975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>211016</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>143021</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4859,13 +5129,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19190</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>137159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>35167</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4909,7 +5179,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>105507</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>101991</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="387094" cy="264560"/>
@@ -4962,7 +5232,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>486508</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>96129</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="369140" cy="264560"/>
@@ -5015,13 +5285,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>633046</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>73549</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>107343</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5086,13 +5356,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>211016</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>148883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>319734</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>119066</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5158,13 +5428,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>369278</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>509955</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>143456</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5245,13 +5515,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>439616</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>143456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447275</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>106757</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5295,13 +5565,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>383143</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>106757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>511408</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>51839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5366,13 +5636,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447275</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>51839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>216878</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5416,13 +5686,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>216878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>246184</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>146540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5474,13 +5744,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>146540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>470528</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>41031</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5524,13 +5794,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>246184</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>55685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>468923</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>67409</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5574,13 +5844,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>468923</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>93785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>140677</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>17585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5662,13 +5932,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>416169</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>41031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>524887</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>11214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5733,16 +6003,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B33:H44" totalsRowShown="0" dataDxfId="97" tableBorderDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B33:H44" totalsRowShown="0" dataDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="B33:H44"/>
   <tableColumns count="7">
     <tableColumn id="1" name="ステータス名"/>
-    <tableColumn id="2" name="合計値" dataDxfId="95"/>
-    <tableColumn id="3" name="基礎値" dataDxfId="94"/>
-    <tableColumn id="4" name="アイテム加算値" dataDxfId="93"/>
-    <tableColumn id="5" name="バフ加算値" dataDxfId="92"/>
-    <tableColumn id="6" name="アイテム乗算値" dataDxfId="91"/>
-    <tableColumn id="7" name="バフ乗算値" dataDxfId="90"/>
+    <tableColumn id="2" name="合計値" dataDxfId="17"/>
+    <tableColumn id="3" name="基礎値" dataDxfId="16"/>
+    <tableColumn id="4" name="アイテム加算値" dataDxfId="15"/>
+    <tableColumn id="5" name="バフ加算値" dataDxfId="14"/>
+    <tableColumn id="6" name="アイテム乗算値" dataDxfId="13"/>
+    <tableColumn id="7" name="バフ乗算値" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6025,35 +6295,35 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="41" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="44"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
       <c r="L3" t="s">
         <v>0</v>
       </c>
@@ -6062,18 +6332,18 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
       <c r="L4" t="s">
         <v>1</v>
       </c>
@@ -6082,18 +6352,18 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="38" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -6102,18 +6372,18 @@
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38" t="s">
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
       <c r="L6" t="s">
         <v>3</v>
       </c>
@@ -6122,18 +6392,18 @@
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
       <c r="L7" t="s">
         <v>4</v>
       </c>
@@ -6142,158 +6412,140 @@
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38" t="s">
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38" t="s">
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="39"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38" t="s">
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="C15:E15"/>
@@ -6304,6 +6556,24 @@
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:J13"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
@@ -6333,58 +6603,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6445,100 +6715,100 @@
       <c r="V1" s="12"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
     </row>
     <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
     </row>
     <row r="7" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
     </row>
     <row r="8" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
     </row>
     <row r="9" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
     </row>
     <row r="12" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
     </row>
     <row r="13" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
@@ -6971,16 +7241,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L65" sqref="L65"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="18.59765625" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" customWidth="1"/>
     <col min="3" max="3" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7011,32 +7281,32 @@
       <c r="V1" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="17" t="s">
@@ -7049,32 +7319,32 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
     </row>
     <row r="9" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
     </row>
     <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B11" s="21" t="s">
@@ -7101,7 +7371,7 @@
     </row>
     <row r="14" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B14" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -7116,444 +7386,552 @@
     </row>
     <row r="15" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-    </row>
-    <row r="18" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-    </row>
-    <row r="19" spans="1:14" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-    </row>
-    <row r="21" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-    </row>
-    <row r="23" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-    </row>
-    <row r="24" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A29" s="18"/>
-      <c r="B29" s="48" t="s">
+    <row r="17" spans="1:14" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+    </row>
+    <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+    </row>
+    <row r="21" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A27" s="18"/>
+      <c r="B27" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-    </row>
-    <row r="30" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="18"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-    </row>
-    <row r="32" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-    </row>
-    <row r="33" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A45" s="18"/>
-      <c r="B45" s="48" t="s">
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+    </row>
+    <row r="28" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="18"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="30" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A43" s="18"/>
+      <c r="B43" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+    </row>
+    <row r="44" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="18"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B57" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+    </row>
+    <row r="58" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+    </row>
+    <row r="60" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+    </row>
+    <row r="61" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+    </row>
+    <row r="62" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B62" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="57"/>
+    </row>
+    <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B63" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="82"/>
+    </row>
+    <row r="64" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B64" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="85"/>
+    </row>
+    <row r="65" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B65" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" s="86" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" s="86"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="H65" s="87"/>
+    </row>
+    <row r="66" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="40"/>
+      <c r="B66" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66" s="88"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="40"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B68" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="63"/>
+      <c r="L68" s="63"/>
+    </row>
+    <row r="69" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="64"/>
+    </row>
+    <row r="70" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="40"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+    </row>
+    <row r="71" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B71" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-    </row>
-    <row r="46" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="18"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B59" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="65"/>
-    </row>
-    <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="66"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="66"/>
-    </row>
-    <row r="62" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-    </row>
-    <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-    </row>
-    <row r="64" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B64" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="C64" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="68"/>
-    </row>
-    <row r="65" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B65" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C65" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="70"/>
-    </row>
-    <row r="66" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B66" s="83" t="s">
-        <v>182</v>
-      </c>
-      <c r="C66" s="84" t="s">
-        <v>183</v>
-      </c>
-      <c r="D66" s="81"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="81"/>
-      <c r="H66" s="82"/>
-    </row>
-    <row r="67" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B67" s="85" t="s">
-        <v>173</v>
-      </c>
-      <c r="C67" s="86" t="s">
-        <v>174</v>
-      </c>
-      <c r="D67" s="86"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="87"/>
-    </row>
-    <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B72" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72" s="59"/>
+      <c r="C71" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="57"/>
+    </row>
+    <row r="72" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B72" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="58" t="s">
+        <v>206</v>
+      </c>
       <c r="D72" s="59"/>
       <c r="E72" s="59"/>
       <c r="F72" s="59"/>
       <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="60"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B73" s="61" t="s">
+      <c r="H72" s="60"/>
+    </row>
+    <row r="73" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B73" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="62"/>
+    </row>
+    <row r="74" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B74" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="55"/>
+    </row>
+    <row r="75" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B76" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="76"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="76"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="76"/>
+      <c r="K76" s="76"/>
+      <c r="L76" s="77"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B77" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="62"/>
-      <c r="K73" s="62"/>
-      <c r="L73" s="63"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B74" s="50"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="51"/>
-      <c r="I74" s="51"/>
-      <c r="J74" s="51"/>
-      <c r="K74" s="51"/>
-      <c r="L74" s="52"/>
-    </row>
-    <row r="75" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B75" s="53" t="s">
+      <c r="C77" s="79"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="79"/>
+      <c r="H77" s="79"/>
+      <c r="I77" s="79"/>
+      <c r="J77" s="79"/>
+      <c r="K77" s="79"/>
+      <c r="L77" s="80"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B78" s="69"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="70"/>
+      <c r="J78" s="70"/>
+      <c r="K78" s="70"/>
+      <c r="L78" s="71"/>
+    </row>
+    <row r="79" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B79" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="C75" s="54"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="55"/>
-    </row>
-    <row r="76" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="73"/>
+      <c r="E79" s="73"/>
+      <c r="F79" s="73"/>
+      <c r="G79" s="73"/>
+      <c r="H79" s="73"/>
+      <c r="I79" s="73"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="73"/>
+      <c r="L79" s="74"/>
+    </row>
+    <row r="80" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="B17:L18"/>
-    <mergeCell ref="B45:K46"/>
-    <mergeCell ref="B20:L21"/>
-    <mergeCell ref="B29:K30"/>
-    <mergeCell ref="B74:L74"/>
-    <mergeCell ref="B75:L75"/>
-    <mergeCell ref="B72:L72"/>
-    <mergeCell ref="B73:L73"/>
-    <mergeCell ref="B59:L60"/>
+  <mergeCells count="20">
+    <mergeCell ref="B78:L78"/>
+    <mergeCell ref="B79:L79"/>
+    <mergeCell ref="B76:L76"/>
+    <mergeCell ref="B77:L77"/>
+    <mergeCell ref="B57:L58"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
     <mergeCell ref="C64:H64"/>
     <mergeCell ref="C65:H65"/>
     <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B43:K44"/>
+    <mergeCell ref="B18:L19"/>
+    <mergeCell ref="B27:K28"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="B68:L69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B19 B10:B13">
-    <cfRule type="cellIs" dxfId="87" priority="25" operator="equal">
+  <conditionalFormatting sqref="B17 B10:B13">
+    <cfRule type="cellIs" dxfId="87" priority="37" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="38" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="39" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="40" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16">
-    <cfRule type="cellIs" dxfId="83" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="29" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="30" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="31" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="32" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
+  <conditionalFormatting sqref="B60">
+    <cfRule type="cellIs" dxfId="79" priority="13" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="14" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="15" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="16" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:B60">
-    <cfRule type="cellIs" dxfId="75" priority="9" operator="equal">
+  <conditionalFormatting sqref="B57:B58">
+    <cfRule type="cellIs" dxfId="75" priority="21" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="22" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="23" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="24" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:B69">
+    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="6" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B73:L73" location="スキル!A1" display="スキル"/>
-    <hyperlink ref="B75:L75" location="目次!A1" display="目次"/>
+    <hyperlink ref="B77:L77" location="スキル!A1" display="スキル"/>
+    <hyperlink ref="B79:L79" location="目次!A1" display="目次"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7572,86 +7950,86 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
     </row>
     <row r="12" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
     </row>
     <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B13" s="9" t="s">
@@ -7689,11 +8067,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54:XFD59"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7732,32 +8110,32 @@
       <c r="V1" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B5" s="19" t="s">
@@ -7823,39 +8201,39 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B14" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
+      <c r="B14" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
     </row>
     <row r="15" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="7"/>
     </row>
     <row r="17" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B17" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -7870,12 +8248,12 @@
     </row>
     <row r="18" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B20" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -7890,36 +8268,36 @@
     </row>
     <row r="21" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
     </row>
     <row r="26" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
     </row>
     <row r="28" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B28" s="22" t="s">
@@ -8231,7 +8609,7 @@
     </row>
     <row r="46" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -8261,130 +8639,130 @@
       <c r="B48" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="68"/>
+      <c r="C48" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="57"/>
     </row>
     <row r="49" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="69" t="s">
+      <c r="C49" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="70"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="82"/>
     </row>
     <row r="50" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="72"/>
+      <c r="C50" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="93"/>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="70"/>
+      <c r="C51" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="82"/>
     </row>
     <row r="52" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" s="91" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="92"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="92"/>
+      <c r="H52" s="93"/>
+    </row>
+    <row r="53" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B53" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="74"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-    </row>
-    <row r="54" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="25" t="s">
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="87"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+    </row>
+    <row r="55" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+    </row>
+    <row r="56" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+    </row>
+    <row r="57" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B57" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-    </row>
-    <row r="55" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-    </row>
-    <row r="56" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="33" t="s">
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="57"/>
+    </row>
+    <row r="58" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B58" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="C56" s="67" t="s">
+      <c r="C58" s="81" t="s">
         <v>170</v>
-      </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="68"/>
-    </row>
-    <row r="57" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C57" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="70"/>
-    </row>
-    <row r="58" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="83" t="s">
-        <v>182</v>
-      </c>
-      <c r="C58" s="84" t="s">
-        <v>183</v>
       </c>
       <c r="D58" s="81"/>
       <c r="E58" s="81"/>
@@ -8393,147 +8771,166 @@
       <c r="H58" s="82"/>
     </row>
     <row r="59" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B59" s="85" t="s">
-        <v>173</v>
-      </c>
-      <c r="C59" s="86" t="s">
-        <v>174</v>
-      </c>
-      <c r="D59" s="86"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="87"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
+      <c r="B59" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="85"/>
+    </row>
+    <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B60" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" s="86"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="86"/>
+      <c r="G60" s="86"/>
+      <c r="H60" s="87"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B61" s="65" t="s">
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B62" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="63"/>
+    </row>
+    <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
+    </row>
+    <row r="65" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B65" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="65"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="65"/>
-    </row>
-    <row r="62" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B62" s="66"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="66"/>
-      <c r="L62" s="66"/>
-    </row>
-    <row r="64" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B64" s="22" t="s">
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+    </row>
+    <row r="66" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="67" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B67" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-    </row>
-    <row r="65" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="66" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B66" s="33" t="s">
+      <c r="C67" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="57"/>
+    </row>
+    <row r="68" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B68" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="67" t="s">
+      <c r="C68" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="82"/>
+    </row>
+    <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B69" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="68"/>
-    </row>
-    <row r="67" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B67" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="D67" s="69"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="70"/>
-    </row>
-    <row r="68" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B68" s="35" t="s">
+      <c r="C69" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" s="92"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="92"/>
+      <c r="H69" s="93"/>
+    </row>
+    <row r="70" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B70" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="C68" s="71" t="s">
+      <c r="C70" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="82"/>
+    </row>
+    <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B71" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="D68" s="71"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="72"/>
-    </row>
-    <row r="69" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B69" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="C69" s="80" t="s">
+      <c r="C71" s="88" t="s">
         <v>165</v>
       </c>
-      <c r="D69" s="69"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="70"/>
-    </row>
-    <row r="70" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B70" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="C70" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="D70" s="73"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="74"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C71" s="79"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="79"/>
+      <c r="D71" s="88"/>
+      <c r="E71" s="88"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="88"/>
+      <c r="H71" s="89"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="94"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C70:H70"/>
+  <mergeCells count="21">
+    <mergeCell ref="B62:L63"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C52:H52"/>
     <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
     <mergeCell ref="B3:L4"/>
     <mergeCell ref="B25:L26"/>
     <mergeCell ref="C49:H49"/>
@@ -8541,184 +8938,179 @@
     <mergeCell ref="C51:H51"/>
     <mergeCell ref="C48:H48"/>
     <mergeCell ref="B14:L15"/>
-    <mergeCell ref="C66:H66"/>
     <mergeCell ref="C67:H67"/>
     <mergeCell ref="C68:H68"/>
     <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C70:H70"/>
     <mergeCell ref="C53:H53"/>
-    <mergeCell ref="B61:L62"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C54:H54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="cellIs" dxfId="59" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="29" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="30" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="31" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B10">
-    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="45" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="46" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="47" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="48" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="41" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="42" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="43" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="44" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B26">
-    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="37" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="38" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="39" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="40" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="33" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="cellIs" dxfId="39" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="26" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="27" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
+  <conditionalFormatting sqref="B65">
+    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61:B62">
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+  <conditionalFormatting sqref="B62:B63">
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="23" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="24" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+  <conditionalFormatting sqref="B55">
+    <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8755,30 +9147,30 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8815,58 +9207,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="7" t="s">
@@ -8900,58 +9292,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8975,58 +9367,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -2928,6 +2928,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2948,66 +2960,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3045,6 +2997,18 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3070,6 +3034,42 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4690,335 +4690,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>488801</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>663117</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>109662</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="フローチャート: 代替処理 104"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2493447" y="3429000"/>
-          <a:ext cx="1510747" cy="338262"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartAlternateProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ダメージ受けた時</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>575959</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>109662</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>576954</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>112644</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="106" name="直線矢印コネクタ 105"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="105" idx="2"/>
-          <a:endCxn id="107" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3248821" y="3767262"/>
-          <a:ext cx="995" cy="231582"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>603433</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>112644</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>550475</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>213692</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="フローチャート: 代替処理 106"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2608079" y="3998844"/>
-          <a:ext cx="1283473" cy="329648"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartAlternateProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ダメージ状態になる</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>576954</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>213692</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>580929</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>185531</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="108" name="直線矢印コネクタ 107"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="107" idx="2"/>
-          <a:endCxn id="109" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3249816" y="4328492"/>
-          <a:ext cx="3975" cy="200439"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>468923</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>185531</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>24721</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>52678</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="フローチャート: 代替処理 108"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2473569" y="4528931"/>
-          <a:ext cx="1560444" cy="552947"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartAlternateProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ダメージを</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>一時的に受けなくなる</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>146536</xdr:colOff>
       <xdr:row>47</xdr:row>
@@ -5426,14 +5097,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>369278</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>453098</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>509955</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>593775</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>143456</xdr:rowOff>
     </xdr:to>
@@ -5444,8 +5115,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4378570" y="3429000"/>
-          <a:ext cx="1477108" cy="600656"/>
+          <a:off x="3950678" y="7536180"/>
+          <a:ext cx="1481797" cy="600656"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -5513,14 +5184,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>439616</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523436</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>143456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>447275</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>531095</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>106757</xdr:rowOff>
     </xdr:to>
@@ -5534,7 +5205,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5117124" y="4029656"/>
+          <a:off x="4691576" y="8136836"/>
           <a:ext cx="7659" cy="191901"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5563,14 +5234,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>383143</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466963</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>106757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>511408</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>595228</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>51839</xdr:rowOff>
     </xdr:to>
@@ -5581,8 +5252,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4392435" y="4221557"/>
-          <a:ext cx="1464696" cy="630882"/>
+          <a:off x="3964543" y="8328737"/>
+          <a:ext cx="1469385" cy="630882"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -5634,14 +5305,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>447275</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>531095</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>51839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>216878</xdr:rowOff>
     </xdr:to>
@@ -5655,7 +5326,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5124783" y="4852439"/>
+          <a:off x="4699235" y="8959619"/>
           <a:ext cx="9925" cy="165039"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5684,14 +5355,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83821</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>216878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>246184</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330004</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>146540</xdr:rowOff>
     </xdr:to>
@@ -5702,8 +5373,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4009293" y="5017478"/>
-          <a:ext cx="2250829" cy="615462"/>
+          <a:off x="3581401" y="9124658"/>
+          <a:ext cx="2257863" cy="615462"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -5742,14 +5413,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>146540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>470528</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>554348</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>41031</xdr:rowOff>
     </xdr:to>
@@ -5763,7 +5434,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5134708" y="5632940"/>
+          <a:off x="4709160" y="9740120"/>
           <a:ext cx="13328" cy="123091"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5792,14 +5463,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>246184</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330004</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>55685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>468923</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552743</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>67409</xdr:rowOff>
     </xdr:to>
@@ -5813,7 +5484,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6260122" y="5313485"/>
+          <a:off x="5839264" y="9420665"/>
           <a:ext cx="222739" cy="11724"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5842,14 +5513,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>468923</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552743</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>93785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>140677</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>224497</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>17585</xdr:rowOff>
     </xdr:to>
@@ -5860,8 +5531,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6482861" y="4894385"/>
-          <a:ext cx="1676401" cy="838200"/>
+          <a:off x="6062003" y="9001565"/>
+          <a:ext cx="1683434" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -5930,14 +5601,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>416169</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>499989</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>41031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>524887</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>608707</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>11214</xdr:rowOff>
     </xdr:to>
@@ -5948,8 +5619,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4425461" y="5756031"/>
-          <a:ext cx="1445149" cy="427383"/>
+          <a:off x="3997569" y="9863211"/>
+          <a:ext cx="1449838" cy="427383"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -6295,35 +5966,35 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="42" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="45"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
       <c r="L3" t="s">
         <v>0</v>
       </c>
@@ -6332,18 +6003,18 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
       <c r="L4" t="s">
         <v>1</v>
       </c>
@@ -6352,18 +6023,18 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="50" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -6372,18 +6043,18 @@
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="44"/>
       <c r="L6" t="s">
         <v>3</v>
       </c>
@@ -6392,18 +6063,18 @@
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="51"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
       <c r="L7" t="s">
         <v>4</v>
       </c>
@@ -6412,140 +6083,158 @@
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50" t="s">
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50" t="s">
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50" t="s">
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50" t="s">
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50" t="s">
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="C15:E15"/>
@@ -6556,24 +6245,6 @@
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:J13"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
@@ -6629,32 +6300,32 @@
       <c r="V1" s="90"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6715,32 +6386,32 @@
       <c r="V1" s="12"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="97" t="s">
@@ -6783,32 +6454,32 @@
       <c r="E9" s="99"/>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
     </row>
     <row r="12" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
     </row>
     <row r="13" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
@@ -7244,8 +6915,8 @@
   <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7281,32 +6952,32 @@
       <c r="V1" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="17" t="s">
@@ -7319,32 +6990,32 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
     </row>
     <row r="9" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
     </row>
     <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B11" s="21" t="s">
@@ -7396,32 +7067,32 @@
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
     </row>
     <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
     </row>
     <row r="21" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21"/>
@@ -7457,34 +7128,34 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="18"/>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="18"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
@@ -7523,65 +7194,65 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="18"/>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
     </row>
     <row r="44" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="18"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="81"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
       <c r="N44" s="18"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B57" s="63" t="s">
+      <c r="B57" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="63"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
     </row>
     <row r="58" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="64"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="64"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="66"/>
     </row>
     <row r="60" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="25" t="s">
@@ -7610,67 +7281,67 @@
       <c r="B62" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="C62" s="56" t="s">
+      <c r="C62" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="57"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="68"/>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B63" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="81" t="s">
+      <c r="C63" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="82"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="70"/>
     </row>
     <row r="64" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B64" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="83" t="s">
+      <c r="C64" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="84"/>
-      <c r="H64" s="85"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="73"/>
     </row>
     <row r="65" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B65" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="C65" s="86" t="s">
+      <c r="C65" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="D65" s="86"/>
-      <c r="E65" s="86"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="86"/>
-      <c r="H65" s="87"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="75"/>
     </row>
     <row r="66" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="40"/>
       <c r="B66" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="88" t="s">
+      <c r="C66" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="D66" s="88"/>
-      <c r="E66" s="88"/>
-      <c r="F66" s="88"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="89"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="77"/>
       <c r="I66" s="40"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.45">
@@ -7685,32 +7356,32 @@
       <c r="I67" s="40"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B68" s="63" t="s">
+      <c r="B68" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="63"/>
-      <c r="K68" s="63"/>
-      <c r="L68" s="63"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="65"/>
     </row>
     <row r="69" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="64"/>
-      <c r="J69" s="64"/>
-      <c r="K69" s="64"/>
-      <c r="L69" s="64"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="66"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="66"/>
+      <c r="L69" s="66"/>
     </row>
     <row r="70" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="40"/>
@@ -7727,116 +7398,121 @@
       <c r="B71" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="57"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="68"/>
     </row>
     <row r="72" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B72" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="C72" s="58" t="s">
+      <c r="C72" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="60"/>
+      <c r="D72" s="86"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="86"/>
+      <c r="G72" s="86"/>
+      <c r="H72" s="87"/>
     </row>
     <row r="73" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B73" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="C73" s="61" t="s">
+      <c r="C73" s="88" t="s">
         <v>205</v>
       </c>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="62"/>
+      <c r="D73" s="88"/>
+      <c r="E73" s="88"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="88"/>
+      <c r="H73" s="89"/>
     </row>
     <row r="74" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B74" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="C74" s="53" t="s">
+      <c r="C74" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="55"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="83"/>
+      <c r="H74" s="84"/>
     </row>
     <row r="75" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="76" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B76" s="75" t="s">
+      <c r="B76" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C76" s="76"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="76"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="76"/>
-      <c r="K76" s="76"/>
-      <c r="L76" s="77"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="60"/>
+      <c r="L76" s="61"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B77" s="78" t="s">
+      <c r="B77" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="79"/>
-      <c r="D77" s="79"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="79"/>
-      <c r="H77" s="79"/>
-      <c r="I77" s="79"/>
-      <c r="J77" s="79"/>
-      <c r="K77" s="79"/>
-      <c r="L77" s="80"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="64"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B78" s="69"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
-      <c r="K78" s="70"/>
-      <c r="L78" s="71"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="55"/>
     </row>
     <row r="79" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B79" s="72" t="s">
+      <c r="B79" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="73"/>
-      <c r="D79" s="73"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="73"/>
-      <c r="G79" s="73"/>
-      <c r="H79" s="73"/>
-      <c r="I79" s="73"/>
-      <c r="J79" s="73"/>
-      <c r="K79" s="73"/>
-      <c r="L79" s="74"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="58"/>
     </row>
     <row r="80" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B43:K44"/>
+    <mergeCell ref="B18:L19"/>
+    <mergeCell ref="B27:K28"/>
     <mergeCell ref="B78:L78"/>
     <mergeCell ref="B79:L79"/>
     <mergeCell ref="B76:L76"/>
@@ -7847,11 +7523,6 @@
     <mergeCell ref="C64:H64"/>
     <mergeCell ref="C65:H65"/>
     <mergeCell ref="C66:H66"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="B43:K44"/>
-    <mergeCell ref="B18:L19"/>
-    <mergeCell ref="B27:K28"/>
     <mergeCell ref="C74:H74"/>
     <mergeCell ref="C71:H71"/>
     <mergeCell ref="C72:H72"/>
@@ -7976,60 +7647,60 @@
       <c r="V1" s="90"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
     </row>
     <row r="12" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
     </row>
     <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B13" s="9" t="s">
@@ -8110,32 +7781,32 @@
       <c r="V1" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
     </row>
     <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B5" s="19" t="s">
@@ -8201,32 +7872,32 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
     </row>
     <row r="15" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
     </row>
     <row r="16" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="7"/>
@@ -8272,32 +7943,32 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
     </row>
     <row r="26" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="28" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B28" s="22" t="s">
@@ -8639,27 +8310,27 @@
       <c r="B48" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="57"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="68"/>
     </row>
     <row r="49" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="81" t="s">
+      <c r="C49" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="82"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="70"/>
     </row>
     <row r="50" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="35" t="s">
@@ -8678,14 +8349,14 @@
       <c r="B51" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="81" t="s">
+      <c r="C51" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="82"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="70"/>
     </row>
     <row r="52" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B52" s="41" t="s">
@@ -8704,14 +8375,14 @@
       <c r="B53" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="86" t="s">
+      <c r="C53" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="87"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="75"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C54" s="96"/>
@@ -8748,53 +8419,53 @@
       <c r="B57" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="57"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="68"/>
     </row>
     <row r="58" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="C58" s="81" t="s">
+      <c r="C58" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="82"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="70"/>
     </row>
     <row r="59" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B59" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="83" t="s">
+      <c r="C59" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="85"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="73"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B60" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C60" s="86" t="s">
+      <c r="C60" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="D60" s="86"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="86"/>
-      <c r="H60" s="87"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="75"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C61" s="32"/>
@@ -8805,32 +8476,32 @@
       <c r="H61" s="32"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B62" s="63" t="s">
+      <c r="B62" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="63"/>
-      <c r="K62" s="63"/>
-      <c r="L62" s="63"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65"/>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="64"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="64"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="66"/>
+      <c r="L63" s="66"/>
     </row>
     <row r="65" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B65" s="22" t="s">
@@ -8852,27 +8523,27 @@
       <c r="B67" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="57"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="68"/>
     </row>
     <row r="68" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="81" t="s">
+      <c r="C68" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="82"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="70"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B69" s="35" t="s">
@@ -8894,24 +8565,24 @@
       <c r="C70" s="95" t="s">
         <v>163</v>
       </c>
-      <c r="D70" s="81"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="81"/>
-      <c r="H70" s="82"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="70"/>
     </row>
     <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B71" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C71" s="88" t="s">
+      <c r="C71" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="D71" s="88"/>
-      <c r="E71" s="88"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="88"/>
-      <c r="H71" s="89"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="77"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C72" s="94"/>
@@ -8923,11 +8594,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B62:L63"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C59:H59"/>
     <mergeCell ref="C52:H52"/>
     <mergeCell ref="C71:H71"/>
     <mergeCell ref="C72:H72"/>
@@ -8944,6 +8610,11 @@
     <mergeCell ref="C70:H70"/>
     <mergeCell ref="C53:H53"/>
     <mergeCell ref="C54:H54"/>
+    <mergeCell ref="B62:L63"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C59:H59"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B30:B31">
@@ -9233,32 +8904,32 @@
       <c r="V1" s="90"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="7" t="s">
@@ -9318,32 +8989,32 @@
       <c r="V1" s="90"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9393,32 +9064,32 @@
       <c r="V1" s="90"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="219">
   <si>
     <t>オンライン利用技術</t>
     <rPh sb="5" eb="7">
@@ -1620,17 +1620,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジャンプする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動する</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>攻撃関数</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
@@ -1651,10 +1640,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キャラクターを死亡状態にする処理、死亡時間が一定以上でオブジェクトを削除する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>モーション関数</t>
     <rPh sb="5" eb="7">
       <t>カンスウ</t>
@@ -1662,19 +1647,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>モーションを呼び出す関数</t>
-    <rPh sb="6" eb="7">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キャラクターの変数</t>
     <rPh sb="7" eb="9">
       <t>ヘンスウ</t>
@@ -1975,10 +1947,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジャンプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スプリント状態</t>
     <rPh sb="5" eb="7">
       <t>ジョウタイ</t>
@@ -2031,13 +1999,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃する、Cskillを介して攻撃する。</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キー入力で移動する。移動量が0になってから数秒で待機状態へ。</t>
     <rPh sb="2" eb="4">
       <t>ニュウリョク</t>
@@ -2060,28 +2021,258 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キー入力で攻撃、スキルを行う。</t>
+    <t>行動の関数</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃とスキル発動のキー入力4種類を内包する。</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー入力でジャンプする。ジャンプ回数が0になったら飛べない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡したときに入る関数</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほかプレイヤーがいた場合、観戦状態に移動する。</t>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数の詳しい説明</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリント関数</t>
+    <rPh sb="5" eb="7">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡した際に呼び出される関数。ほかプレイヤーがいなかった時、数秒経ったらリザルト画面に行く。</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>スウビョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリント状態に移行し、移動速度が150%上昇する。</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリント状態の間は移動とジャンプ以外の行動ができない。</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動関数</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
     <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なにもなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なにもなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なにもなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動状態に移行する。WASDなどで操作する。いつもの移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
     </rPh>
     <rPh sb="5" eb="7">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃状態に移行する。通常攻撃とスキル1,2,3を発動できるようにする。</t>
+    <rPh sb="0" eb="2">
       <t>コウゲキ</t>
     </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ状態に移行する。高く跳ね上がる。空中にいる間は滞空モーションを行う</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イコウ</t>
+    </rPh>
     <rPh sb="12" eb="13">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タイクウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
       <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キー入力でジャンプする。ジャンプ回数が0になったら飛べない。</t>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2090,7 +2281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2293,6 +2484,15 @@
       <color theme="9" tint="0.59999389629810485"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2857,7 +3057,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2923,23 +3123,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2960,6 +3147,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3036,27 +3247,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3102,12 +3292,26 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="118">
     <dxf>
       <fill>
         <patternFill>
@@ -3189,6 +3393,692 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3228,496 +4118,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5674,16 +6074,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B33:H44" totalsRowShown="0" dataDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B33:H44" totalsRowShown="0" dataDxfId="117" tableBorderDxfId="116">
   <autoFilter ref="B33:H44"/>
   <tableColumns count="7">
     <tableColumn id="1" name="ステータス名"/>
-    <tableColumn id="2" name="合計値" dataDxfId="17"/>
-    <tableColumn id="3" name="基礎値" dataDxfId="16"/>
-    <tableColumn id="4" name="アイテム加算値" dataDxfId="15"/>
-    <tableColumn id="5" name="バフ加算値" dataDxfId="14"/>
-    <tableColumn id="6" name="アイテム乗算値" dataDxfId="13"/>
-    <tableColumn id="7" name="バフ乗算値" dataDxfId="12"/>
+    <tableColumn id="2" name="合計値" dataDxfId="115"/>
+    <tableColumn id="3" name="基礎値" dataDxfId="114"/>
+    <tableColumn id="4" name="アイテム加算値" dataDxfId="113"/>
+    <tableColumn id="5" name="バフ加算値" dataDxfId="112"/>
+    <tableColumn id="6" name="アイテム乗算値" dataDxfId="111"/>
+    <tableColumn id="7" name="バフ乗算値" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5966,35 +6366,35 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="46" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="49"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
       <c r="L3" t="s">
         <v>0</v>
       </c>
@@ -6003,18 +6403,18 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
       <c r="L4" t="s">
         <v>1</v>
       </c>
@@ -6023,18 +6423,18 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="43" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -6043,18 +6443,18 @@
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="50"/>
       <c r="L6" t="s">
         <v>3</v>
       </c>
@@ -6063,18 +6463,18 @@
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
       <c r="L7" t="s">
         <v>4</v>
       </c>
@@ -6083,158 +6483,140 @@
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43" t="s">
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43" t="s">
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43" t="s">
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43" t="s">
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43" t="s">
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43" t="s">
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="C15:E15"/>
@@ -6245,15 +6627,33 @@
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:J13"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
-    <cfRule type="cellIs" dxfId="89" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="1" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
-    <cfRule type="cellIs" dxfId="88" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="2" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6274,58 +6674,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6386,100 +6786,100 @@
       <c r="V1" s="12"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
     </row>
     <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
     </row>
     <row r="7" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
     </row>
     <row r="8" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
     </row>
     <row r="9" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
     </row>
     <row r="12" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
     </row>
     <row r="13" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
@@ -6912,11 +7312,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6952,32 +7352,32 @@
       <c r="V1" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="17" t="s">
@@ -6990,32 +7390,32 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
     </row>
     <row r="9" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
     </row>
     <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B11" s="21" t="s">
@@ -7042,7 +7442,7 @@
     </row>
     <row r="14" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B14" s="21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -7057,7 +7457,7 @@
     </row>
     <row r="15" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
@@ -7067,32 +7467,32 @@
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
+      <c r="B18" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
     </row>
     <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
     </row>
     <row r="21" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21"/>
@@ -7128,34 +7528,34 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="18"/>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="18"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
@@ -7194,69 +7594,69 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="18"/>
-      <c r="B43" s="80" t="s">
-        <v>182</v>
-      </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
+      <c r="B43" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
     </row>
     <row r="44" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="18"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
       <c r="N44" s="18"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B57" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
+      <c r="B57" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
     </row>
     <row r="58" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="66"/>
-      <c r="I58" s="66"/>
-      <c r="J58" s="66"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="66"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="69"/>
     </row>
     <row r="60" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -7279,330 +7679,625 @@
     </row>
     <row r="62" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B62" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="C62" s="67" t="s">
-        <v>190</v>
-      </c>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="68"/>
+        <v>185</v>
+      </c>
+      <c r="C62" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="71"/>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B63" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="73"/>
+    </row>
+    <row r="64" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B64" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="69" t="s">
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="76"/>
+    </row>
+    <row r="65" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B65" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="D63" s="69"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="70"/>
-    </row>
-    <row r="64" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B64" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C64" s="71" t="s">
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="78"/>
+    </row>
+    <row r="66" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="39"/>
+      <c r="B66" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="73"/>
-    </row>
-    <row r="65" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B65" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" s="74" t="s">
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="80"/>
+      <c r="I66" s="39"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B68" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="75"/>
-    </row>
-    <row r="66" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="40"/>
-      <c r="B66" s="36" t="s">
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="68"/>
+      <c r="L68" s="68"/>
+    </row>
+    <row r="69" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="69"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+    </row>
+    <row r="71" spans="1:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+    </row>
+    <row r="72" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+    </row>
+    <row r="73" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B73" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="71"/>
+    </row>
+    <row r="74" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B74" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" s="82"/>
+      <c r="E74" s="82"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="82"/>
+      <c r="H74" s="83"/>
+    </row>
+    <row r="75" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B75" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="40"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B68" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="65"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="65"/>
-    </row>
-    <row r="69" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B69" s="66"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="66"/>
-      <c r="L69" s="66"/>
-    </row>
-    <row r="70" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="40"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-    </row>
-    <row r="71" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B71" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="C71" s="67" t="s">
+      <c r="C75" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="84"/>
+      <c r="H75" s="85"/>
+    </row>
+    <row r="76" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B76" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="68"/>
-    </row>
-    <row r="72" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B72" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="C72" s="85" t="s">
+      <c r="C76" s="97" t="s">
+        <v>203</v>
+      </c>
+      <c r="D76" s="98"/>
+      <c r="E76" s="98"/>
+      <c r="F76" s="98"/>
+      <c r="G76" s="98"/>
+      <c r="H76" s="99"/>
+    </row>
+    <row r="77" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B77" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" s="100" t="s">
+        <v>205</v>
+      </c>
+      <c r="D77" s="79"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="79"/>
+      <c r="H77" s="80"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B79" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="68"/>
+      <c r="H79" s="68"/>
+      <c r="I79" s="68"/>
+      <c r="J79" s="68"/>
+      <c r="K79" s="68"/>
+      <c r="L79" s="68"/>
+    </row>
+    <row r="80" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="69"/>
+      <c r="J80" s="69"/>
+      <c r="K80" s="69"/>
+      <c r="L80" s="69"/>
+    </row>
+    <row r="82" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
+      <c r="B82" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+    </row>
+    <row r="84" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D72" s="86"/>
-      <c r="E72" s="86"/>
-      <c r="F72" s="86"/>
-      <c r="G72" s="86"/>
-      <c r="H72" s="87"/>
-    </row>
-    <row r="73" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B73" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="C73" s="88" t="s">
-        <v>205</v>
-      </c>
-      <c r="D73" s="88"/>
-      <c r="E73" s="88"/>
-      <c r="F73" s="88"/>
-      <c r="G73" s="88"/>
-      <c r="H73" s="89"/>
-    </row>
-    <row r="74" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B74" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="C74" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="84"/>
-    </row>
-    <row r="75" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B76" s="59" t="s">
+    </row>
+    <row r="86" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="17"/>
+    </row>
+    <row r="87" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
+      <c r="B87" s="101" t="s">
+        <v>208</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+    </row>
+    <row r="89" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="17"/>
+    </row>
+    <row r="92" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
+      <c r="B92" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+    </row>
+    <row r="94" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" s="17"/>
+    </row>
+    <row r="96" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
+      <c r="B96" s="101" t="s">
+        <v>212</v>
+      </c>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+    </row>
+    <row r="98" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99" s="17"/>
+    </row>
+    <row r="100" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
+      <c r="B100" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+    </row>
+    <row r="101" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101" s="17"/>
+    </row>
+    <row r="102" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103" s="17"/>
+    </row>
+    <row r="104" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B105" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
-      <c r="I76" s="60"/>
-      <c r="J76" s="60"/>
-      <c r="K76" s="60"/>
-      <c r="L76" s="61"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B77" s="62" t="s">
+      <c r="C105" s="63"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="63"/>
+      <c r="J105" s="63"/>
+      <c r="K105" s="63"/>
+      <c r="L105" s="64"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B106" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="63"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="63"/>
-      <c r="I77" s="63"/>
-      <c r="J77" s="63"/>
-      <c r="K77" s="63"/>
-      <c r="L77" s="64"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B78" s="53"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="54"/>
-      <c r="L78" s="55"/>
-    </row>
-    <row r="79" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B79" s="56" t="s">
+      <c r="C106" s="66"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="66"/>
+      <c r="H106" s="66"/>
+      <c r="I106" s="66"/>
+      <c r="J106" s="66"/>
+      <c r="K106" s="66"/>
+      <c r="L106" s="67"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B107" s="56"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="57"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="57"/>
+      <c r="J107" s="57"/>
+      <c r="K107" s="57"/>
+      <c r="L107" s="58"/>
+    </row>
+    <row r="108" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B108" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="58"/>
-    </row>
-    <row r="80" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="C108" s="60"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="60"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="60"/>
+      <c r="J108" s="60"/>
+      <c r="K108" s="60"/>
+      <c r="L108" s="61"/>
+    </row>
+    <row r="109" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="B43:K44"/>
-    <mergeCell ref="B18:L19"/>
-    <mergeCell ref="B27:K28"/>
-    <mergeCell ref="B78:L78"/>
-    <mergeCell ref="B79:L79"/>
-    <mergeCell ref="B76:L76"/>
-    <mergeCell ref="B77:L77"/>
+  <mergeCells count="22">
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="B107:L107"/>
+    <mergeCell ref="B108:L108"/>
+    <mergeCell ref="B105:L105"/>
+    <mergeCell ref="B106:L106"/>
     <mergeCell ref="B57:L58"/>
     <mergeCell ref="C62:H62"/>
     <mergeCell ref="C63:H63"/>
     <mergeCell ref="C64:H64"/>
     <mergeCell ref="C65:H65"/>
     <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C73:H73"/>
     <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C75:H75"/>
     <mergeCell ref="B68:L69"/>
+    <mergeCell ref="B79:L80"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B43:K44"/>
+    <mergeCell ref="B18:L19"/>
+    <mergeCell ref="B27:K28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B17 B10:B13">
-    <cfRule type="cellIs" dxfId="87" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="69" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="70" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="71" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="72" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16">
-    <cfRule type="cellIs" dxfId="83" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="61" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="62" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="63" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="64" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="79" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="45" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="46" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="47" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="48" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B58">
-    <cfRule type="cellIs" dxfId="75" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="53" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="54" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="55" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="56" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:B69">
-    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="37" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="38" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="39" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="40" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79:B80">
+    <cfRule type="cellIs" dxfId="87" priority="29" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="30" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="31" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="32" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="cellIs" dxfId="83" priority="25" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="26" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="27" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="28" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="cellIs" dxfId="79" priority="17" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="18" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="19" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="20" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87">
+    <cfRule type="cellIs" dxfId="75" priority="13" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="14" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="15" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="16" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92">
+    <cfRule type="cellIs" dxfId="71" priority="9" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="10" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="12" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96">
+    <cfRule type="cellIs" dxfId="67" priority="5" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="6" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="7" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="8" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B77:L77" location="スキル!A1" display="スキル"/>
-    <hyperlink ref="B79:L79" location="目次!A1" display="目次"/>
+    <hyperlink ref="B106:L106" location="スキル!A1" display="スキル"/>
+    <hyperlink ref="B108:L108" location="目次!A1" display="目次"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7621,86 +8316,86 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
     </row>
     <row r="12" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
     </row>
     <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B13" s="9" t="s">
@@ -7741,8 +8436,8 @@
   <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71:H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7781,32 +8476,32 @@
       <c r="V1" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B5" s="19" t="s">
@@ -7872,39 +8567,39 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B14" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
+      <c r="B14" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="7"/>
     </row>
     <row r="17" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B17" s="21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -7919,12 +8614,12 @@
     </row>
     <row r="18" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B20" s="21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -7939,36 +8634,36 @@
     </row>
     <row r="21" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
     </row>
     <row r="26" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
     </row>
     <row r="28" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B28" s="22" t="s">
@@ -8310,91 +9005,91 @@
       <c r="B48" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="68"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="71"/>
     </row>
     <row r="49" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="69" t="s">
+      <c r="C49" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="70"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="73"/>
     </row>
     <row r="50" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="92" t="s">
-        <v>203</v>
-      </c>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="93"/>
+      <c r="C50" s="88" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="89"/>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="69" t="s">
+      <c r="C51" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="70"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="73"/>
     </row>
     <row r="52" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B52" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="C52" s="91" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="93"/>
+      <c r="B52" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="87" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="89"/>
     </row>
     <row r="53" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="74" t="s">
+      <c r="C53" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="75"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="78"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C54" s="96"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="96"/>
-      <c r="H54" s="96"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="92"/>
     </row>
     <row r="55" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="25" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -8417,55 +9112,55 @@
     </row>
     <row r="57" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B57" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="68"/>
+        <v>163</v>
+      </c>
+      <c r="C57" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="71"/>
     </row>
     <row r="58" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="D58" s="69"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="70"/>
+        <v>165</v>
+      </c>
+      <c r="C58" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="73"/>
     </row>
     <row r="59" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B59" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="C59" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="73"/>
+      <c r="B59" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="75"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="76"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="C60" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="75"/>
+      <c r="B60" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="78"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C61" s="32"/>
@@ -8476,32 +9171,32 @@
       <c r="H61" s="32"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="65"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="68"/>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B63" s="66"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="66"/>
-      <c r="L63" s="66"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
     </row>
     <row r="65" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B65" s="22" t="s">
@@ -8523,77 +9218,82 @@
       <c r="B67" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C67" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="68"/>
+      <c r="C67" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="71"/>
     </row>
     <row r="68" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="D68" s="69"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="70"/>
+      <c r="C68" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="83"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B69" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C69" s="92" t="s">
-        <v>204</v>
-      </c>
-      <c r="D69" s="92"/>
-      <c r="E69" s="92"/>
-      <c r="F69" s="92"/>
-      <c r="G69" s="92"/>
-      <c r="H69" s="93"/>
+        <v>159</v>
+      </c>
+      <c r="C69" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="H69" s="85"/>
     </row>
     <row r="70" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B70" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="C70" s="95" t="s">
-        <v>163</v>
-      </c>
-      <c r="D70" s="69"/>
-      <c r="E70" s="69"/>
-      <c r="F70" s="69"/>
-      <c r="G70" s="69"/>
-      <c r="H70" s="70"/>
+        <v>160</v>
+      </c>
+      <c r="C70" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="73"/>
     </row>
     <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B71" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" s="76" t="s">
-        <v>165</v>
-      </c>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="76"/>
-      <c r="H71" s="77"/>
+        <v>161</v>
+      </c>
+      <c r="C71" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="D71" s="79"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="80"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="94"/>
+      <c r="C72" s="90"/>
+      <c r="D72" s="90"/>
+      <c r="E72" s="90"/>
+      <c r="F72" s="90"/>
+      <c r="G72" s="90"/>
+      <c r="H72" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B62:L63"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C59:H59"/>
     <mergeCell ref="C52:H52"/>
     <mergeCell ref="C71:H71"/>
     <mergeCell ref="C72:H72"/>
@@ -8610,178 +9310,173 @@
     <mergeCell ref="C70:H70"/>
     <mergeCell ref="C53:H53"/>
     <mergeCell ref="C54:H54"/>
-    <mergeCell ref="B62:L63"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C59:H59"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="cellIs" dxfId="67" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="29" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="30" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="31" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="32" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B10">
-    <cfRule type="cellIs" dxfId="63" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="46" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="48" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="cellIs" dxfId="59" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B26">
-    <cfRule type="cellIs" dxfId="55" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="cellIs" dxfId="51" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="25" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="27" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:B63">
-    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8818,30 +9513,30 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8878,58 +9573,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="7" t="s">
@@ -8963,58 +9658,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9038,58 +9733,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="915" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="228">
   <si>
     <t>オンライン利用技術</t>
     <rPh sb="5" eb="7">
@@ -2193,18 +2193,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>なにもなし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なにもなし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なにもなし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>移動状態に移行する。WASDなどで操作する。いつもの移動</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
@@ -2273,6 +2261,153 @@
     </rPh>
     <rPh sb="35" eb="36">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それに対応したCskillを設定して呼び出す。</t>
+    <rPh sb="3" eb="5">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を倒した際にたまに出るアイテム。集めることでプレイヤーを強くすることができる。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム取得関数</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動するときに使う関数</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプするときに使う関数</t>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃に使う関数</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡する関数</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーションする関数</t>
+    <rPh sb="7" eb="9">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムを取得する関数</t>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eキーで落ちているアイテムを取得する処理。</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得した際、全ステータスを再計算して保存する。</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>サイケイサン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2540,7 +2675,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -3052,12 +3187,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3274,9 +3485,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3306,12 +3514,60 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="118">
+  <dxfs count="122">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6074,16 +6330,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B33:H44" totalsRowShown="0" dataDxfId="117" tableBorderDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B33:H44" totalsRowShown="0" dataDxfId="121" tableBorderDxfId="120">
   <autoFilter ref="B33:H44"/>
   <tableColumns count="7">
     <tableColumn id="1" name="ステータス名"/>
-    <tableColumn id="2" name="合計値" dataDxfId="115"/>
-    <tableColumn id="3" name="基礎値" dataDxfId="114"/>
-    <tableColumn id="4" name="アイテム加算値" dataDxfId="113"/>
-    <tableColumn id="5" name="バフ加算値" dataDxfId="112"/>
-    <tableColumn id="6" name="アイテム乗算値" dataDxfId="111"/>
-    <tableColumn id="7" name="バフ乗算値" dataDxfId="110"/>
+    <tableColumn id="2" name="合計値" dataDxfId="119"/>
+    <tableColumn id="3" name="基礎値" dataDxfId="118"/>
+    <tableColumn id="4" name="アイテム加算値" dataDxfId="117"/>
+    <tableColumn id="5" name="バフ加算値" dataDxfId="116"/>
+    <tableColumn id="6" name="アイテム乗算値" dataDxfId="115"/>
+    <tableColumn id="7" name="バフ乗算値" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6648,12 +6904,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
-    <cfRule type="cellIs" dxfId="109" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="1" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
-    <cfRule type="cellIs" dxfId="108" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="2" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6814,44 +7070,44 @@
       <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
     </row>
     <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
     </row>
     <row r="7" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
     </row>
     <row r="8" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
     </row>
     <row r="9" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="68" t="s">
@@ -7272,30 +7528,30 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B4 B13 H21:H26 H28:H34 B19 B22 B26 B32 B47 B50 B35 B38 B41 B44 B53 B55:B1048576">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7312,11 +7568,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7860,23 +8116,23 @@
       <c r="H75" s="85"/>
     </row>
     <row r="76" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B76" s="96" t="s">
+      <c r="B76" s="95" t="s">
         <v>202</v>
       </c>
-      <c r="C76" s="97" t="s">
+      <c r="C76" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="D76" s="98"/>
-      <c r="E76" s="98"/>
-      <c r="F76" s="98"/>
-      <c r="G76" s="98"/>
-      <c r="H76" s="99"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="97"/>
+      <c r="F76" s="97"/>
+      <c r="G76" s="97"/>
+      <c r="H76" s="98"/>
     </row>
     <row r="77" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B77" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="C77" s="100" t="s">
+      <c r="C77" s="99" t="s">
         <v>205</v>
       </c>
       <c r="D77" s="79"/>
@@ -7914,7 +8170,7 @@
       <c r="L80" s="69"/>
     </row>
     <row r="82" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="B82" s="101" t="s">
+      <c r="B82" s="100" t="s">
         <v>160</v>
       </c>
       <c r="C82" s="10"/>
@@ -7942,7 +8198,7 @@
       <c r="B86" s="17"/>
     </row>
     <row r="87" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="B87" s="101" t="s">
+      <c r="B87" s="100" t="s">
         <v>208</v>
       </c>
       <c r="C87" s="10"/>
@@ -7970,7 +8226,7 @@
       <c r="B91" s="17"/>
     </row>
     <row r="92" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="B92" s="101" t="s">
+      <c r="B92" s="100" t="s">
         <v>158</v>
       </c>
       <c r="C92" s="10"/>
@@ -7986,14 +8242,14 @@
     </row>
     <row r="94" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="95" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="17"/>
     </row>
     <row r="96" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="B96" s="101" t="s">
+      <c r="B96" s="100" t="s">
         <v>212</v>
       </c>
       <c r="C96" s="10"/>
@@ -8009,14 +8265,14 @@
     </row>
     <row r="98" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="17" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="17"/>
     </row>
     <row r="100" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="B100" s="101" t="s">
+      <c r="B100" s="100" t="s">
         <v>159</v>
       </c>
       <c r="C100" s="10"/>
@@ -8035,79 +8291,109 @@
     </row>
     <row r="102" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B103" s="17"/>
-    </row>
-    <row r="104" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B105" s="62" t="s">
+      <c r="B103" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
+      <c r="B105" s="100" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+    </row>
+    <row r="106" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B106" s="17"/>
+    </row>
+    <row r="107" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B107" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B108" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B111" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C105" s="63"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="63"/>
-      <c r="F105" s="63"/>
-      <c r="G105" s="63"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="63"/>
-      <c r="J105" s="63"/>
-      <c r="K105" s="63"/>
-      <c r="L105" s="64"/>
-    </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B106" s="65" t="s">
+      <c r="C111" s="63"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="63"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="63"/>
+      <c r="J111" s="63"/>
+      <c r="K111" s="63"/>
+      <c r="L111" s="64"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B112" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="C106" s="66"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="66"/>
-      <c r="H106" s="66"/>
-      <c r="I106" s="66"/>
-      <c r="J106" s="66"/>
-      <c r="K106" s="66"/>
-      <c r="L106" s="67"/>
-    </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B107" s="56"/>
-      <c r="C107" s="57"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="57"/>
-      <c r="I107" s="57"/>
-      <c r="J107" s="57"/>
-      <c r="K107" s="57"/>
-      <c r="L107" s="58"/>
-    </row>
-    <row r="108" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B108" s="59" t="s">
+      <c r="C112" s="66"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="66"/>
+      <c r="F112" s="66"/>
+      <c r="G112" s="66"/>
+      <c r="H112" s="66"/>
+      <c r="I112" s="66"/>
+      <c r="J112" s="66"/>
+      <c r="K112" s="66"/>
+      <c r="L112" s="67"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B113" s="56"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="57"/>
+      <c r="E113" s="57"/>
+      <c r="F113" s="57"/>
+      <c r="G113" s="57"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="57"/>
+      <c r="J113" s="57"/>
+      <c r="K113" s="57"/>
+      <c r="L113" s="58"/>
+    </row>
+    <row r="114" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B114" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C108" s="60"/>
-      <c r="D108" s="60"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="60"/>
-      <c r="G108" s="60"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="60"/>
-      <c r="J108" s="60"/>
-      <c r="K108" s="60"/>
-      <c r="L108" s="61"/>
-    </row>
-    <row r="109" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="C114" s="60"/>
+      <c r="D114" s="60"/>
+      <c r="E114" s="60"/>
+      <c r="F114" s="60"/>
+      <c r="G114" s="60"/>
+      <c r="H114" s="60"/>
+      <c r="I114" s="60"/>
+      <c r="J114" s="60"/>
+      <c r="K114" s="60"/>
+      <c r="L114" s="61"/>
+    </row>
+    <row r="115" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="C76:H76"/>
-    <mergeCell ref="B107:L107"/>
-    <mergeCell ref="B108:L108"/>
-    <mergeCell ref="B105:L105"/>
-    <mergeCell ref="B106:L106"/>
+    <mergeCell ref="B113:L113"/>
+    <mergeCell ref="B114:L114"/>
+    <mergeCell ref="B111:L111"/>
+    <mergeCell ref="B112:L112"/>
     <mergeCell ref="B57:L58"/>
     <mergeCell ref="C62:H62"/>
     <mergeCell ref="C63:H63"/>
@@ -8128,76 +8414,90 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B17 B10:B13">
-    <cfRule type="cellIs" dxfId="107" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="73" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="74" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="75" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="76" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16">
-    <cfRule type="cellIs" dxfId="103" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="65" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="66" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="67" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="68" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="99" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="49" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="50" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="51" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="52" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B58">
-    <cfRule type="cellIs" dxfId="95" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="57" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="58" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="59" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="60" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:B69">
-    <cfRule type="cellIs" dxfId="91" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="41" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="42" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="43" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="44" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:B80">
+    <cfRule type="cellIs" dxfId="91" priority="33" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="34" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="35" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="36" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
     <cfRule type="cellIs" dxfId="87" priority="29" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
@@ -8211,21 +8511,21 @@
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="83" priority="25" operator="equal">
+  <conditionalFormatting sqref="B82">
+    <cfRule type="cellIs" dxfId="83" priority="21" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="22" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="23" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="24" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
+  <conditionalFormatting sqref="B87">
     <cfRule type="cellIs" dxfId="79" priority="17" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
@@ -8239,7 +8539,7 @@
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B87">
+  <conditionalFormatting sqref="B92">
     <cfRule type="cellIs" dxfId="75" priority="13" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
@@ -8253,7 +8553,7 @@
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B92">
+  <conditionalFormatting sqref="B96">
     <cfRule type="cellIs" dxfId="71" priority="9" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
@@ -8267,7 +8567,7 @@
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B96">
+  <conditionalFormatting sqref="B100">
     <cfRule type="cellIs" dxfId="67" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
@@ -8281,23 +8581,23 @@
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
-    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+  <conditionalFormatting sqref="B105">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B106:L106" location="スキル!A1" display="スキル"/>
-    <hyperlink ref="B108:L108" location="目次!A1" display="目次"/>
+    <hyperlink ref="B112:L112" location="スキル!A1" display="スキル"/>
+    <hyperlink ref="B114:L114" location="目次!A1" display="目次"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8308,9 +8608,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8369,6 +8669,16 @@
       <c r="K4" s="69"/>
       <c r="L4" s="69"/>
     </row>
+    <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B11" s="68" t="s">
         <v>43</v>
@@ -8436,8 +8746,8 @@
   <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71:H71"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67:H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9080,12 +9390,12 @@
       <c r="H53" s="78"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="92"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
     </row>
     <row r="55" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="25" t="s">
@@ -9219,7 +9529,7 @@
         <v>157</v>
       </c>
       <c r="C67" s="70" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D67" s="70"/>
       <c r="E67" s="70"/>
@@ -9232,7 +9542,7 @@
         <v>158</v>
       </c>
       <c r="C68" s="81" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D68" s="82"/>
       <c r="E68" s="82"/>
@@ -9245,7 +9555,7 @@
         <v>159</v>
       </c>
       <c r="C69" s="84" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D69" s="84"/>
       <c r="E69" s="84"/>
@@ -9257,8 +9567,8 @@
       <c r="B70" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C70" s="91" t="s">
-        <v>214</v>
+      <c r="C70" s="90" t="s">
+        <v>223</v>
       </c>
       <c r="D70" s="72"/>
       <c r="E70" s="72"/>
@@ -9267,25 +9577,30 @@
       <c r="H70" s="73"/>
     </row>
     <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="C71" s="100" t="s">
-        <v>215</v>
-      </c>
-      <c r="D71" s="79"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="80"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C72" s="90"/>
-      <c r="D72" s="90"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="90"/>
-      <c r="G72" s="90"/>
-      <c r="H72" s="90"/>
+      <c r="C71" s="102" t="s">
+        <v>224</v>
+      </c>
+      <c r="D71" s="103"/>
+      <c r="E71" s="103"/>
+      <c r="F71" s="103"/>
+      <c r="G71" s="103"/>
+      <c r="H71" s="104"/>
+    </row>
+    <row r="72" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B72" s="105" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" s="106" t="s">
+        <v>225</v>
+      </c>
+      <c r="D72" s="107"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="107"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9313,170 +9628,170 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="cellIs" dxfId="59" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="29" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="30" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="31" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="32" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B10">
-    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="45" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="46" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="41" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="42" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="43" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="44" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B26">
-    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="37" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="38" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="39" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="33" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="34" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="35" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="cellIs" dxfId="39" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="25" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="26" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="27" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="28" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="17" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="18" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="20" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:B63">
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="21" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="22" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9544,16 +9859,16 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="915" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="915" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="282">
   <si>
     <t>オンライン利用技術</t>
     <rPh sb="5" eb="7">
@@ -334,10 +334,6 @@
   </si>
   <si>
     <t>CItemData</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CItemManager</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1753,10 +1749,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cskill</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スキルを使うためのクラス。</t>
     <rPh sb="4" eb="5">
       <t>ツカ</t>
@@ -2303,10 +2295,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーの</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテム取得関数</t>
     <rPh sb="4" eb="6">
       <t>シュトク</t>
@@ -2407,6 +2395,507 @@
       <t>サイケイサン</t>
     </rPh>
     <rPh sb="18" eb="20">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CItemManager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルを管理するクラス。これから↓を生み出す。</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cskill</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フローチャート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSkillで宣言する変数</t>
+    <rPh sb="7" eb="9">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UIなど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSkillEntitiyで宣言する変数</t>
+    <rPh sb="14" eb="16">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSkillEntity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CTask</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSkill</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親クラス。</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ccharacter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cskillで行う前方宣言</t>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ゼンポウセンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSkillDatabase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルの実体を持つクラス。データベースから呼び出した判定と効果を持つ。Objectの継承。</t>
+    <rPh sb="4" eb="6">
+      <t>ジッタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定情報と効果情報を持つ。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターを管理するクラス。スキルを生成したキャラクターを持つ。</t>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSkillEntityで行う前方宣言</t>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ゼンポウセンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーションを管理するクラス。</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラから受け取ったスキルのID</t>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クールダウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルの配列数を持つ。</t>
+    <rPh sb="4" eb="7">
+      <t>ハイレツスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター情報</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルを使用したキャラクター情報</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルがキャラから受け取ったスキルのID</t>
+    <rPh sb="9" eb="10">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルを使用したキャラクター情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ保存用</t>
+    <rPh sb="3" eb="5">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSkillDatabaseで宣言する変数</t>
+    <rPh sb="15" eb="17">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースから受け取った情報を保存する。ユーザー定義変数</t>
+    <rPh sb="8" eb="9">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルにIDを割り振る、普通に配列</t>
+    <rPh sb="7" eb="8">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定用</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コリジョンを使うための変数</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果を変数にしたやつ</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数ポインター</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルの持続時間</t>
+    <rPh sb="4" eb="6">
+      <t>ジゾク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルの継続時間</t>
+    <rPh sb="4" eb="8">
+      <t>ケイゾクジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルのCT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルのクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルのダメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルのダメージ量</t>
+    <rPh sb="8" eb="9">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルのノクバ量</t>
+    <rPh sb="7" eb="8">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルのノックバックの量</t>
+    <rPh sb="11" eb="12">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルの状態異常</t>
+    <rPh sb="4" eb="8">
+      <t>ジョウタイイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態異常を使うかみたいなよくわからん</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウタイイジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル発動</t>
+    <rPh sb="3" eb="5">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CTを減らす処理、Updateで行う</t>
+    <rPh sb="3" eb="4">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CT減少(update)</t>
+    <rPh sb="2" eb="4">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSkillでやること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSkillEntityでやること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SkillEntityからIDを回収する処理、CTチェックもこの中で行う</t>
+    <rPh sb="16" eb="18">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル設定</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル発生</t>
+    <rPh sb="3" eb="5">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cskillから渡されたIDに対応した関数をdatabaseから取り出し発動する。</t>
+    <rPh sb="8" eb="9">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果、演出、モーション、当たり判定、CT、スタックを保存する。</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
       <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2416,7 +2905,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2630,6 +3119,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2675,7 +3171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -3263,12 +3759,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3338,6 +3884,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3359,29 +3921,14 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3458,6 +4005,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3473,6 +4023,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3483,6 +4045,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3500,38 +4080,29 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3539,7 +4110,371 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="122">
+  <dxfs count="174">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4394,14 +5329,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>26173</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>71893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>640938</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>63941</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>109661</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4410,8 +5345,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="670560" y="1397773"/>
-          <a:ext cx="1311498" cy="494968"/>
+          <a:off x="670560" y="6693673"/>
+          <a:ext cx="2294478" cy="494968"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -4460,14 +5395,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>153962</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>504092</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>77194</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>122914</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4476,8 +5411,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2158608" y="1371600"/>
-          <a:ext cx="1686561" cy="534394"/>
+          <a:off x="3651542" y="6210300"/>
+          <a:ext cx="1691250" cy="534394"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -4566,14 +5501,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>329027</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>77194</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>122914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>330433</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>203088</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>20208</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4585,7 +5520,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3001889" y="1905994"/>
+          <a:off x="4497167" y="6744694"/>
           <a:ext cx="1406" cy="125894"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4616,14 +5551,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>346238</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>203088</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>20208</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>314628</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7618</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53338</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4632,8 +5567,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2350884" y="2031888"/>
-          <a:ext cx="1304821" cy="490330"/>
+          <a:off x="3843818" y="6870588"/>
+          <a:ext cx="1309510" cy="490330"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -4682,14 +5617,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>640938</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38597</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>84317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>153962</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>45057</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90777</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4701,8 +5636,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1977369" y="1638797"/>
-          <a:ext cx="181239" cy="6460"/>
+          <a:off x="2965038" y="6477497"/>
+          <a:ext cx="686504" cy="6460"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4732,13 +5667,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>144371</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4822,13 +5757,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1440180</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>144371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1447801</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>107672</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4872,13 +5807,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>107672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>30481</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>52754</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4954,13 +5889,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>30481</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>224139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>22861</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>97912</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5036,13 +5971,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1440181</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>52754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1447801</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>224139</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5086,13 +6021,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>184051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>339634</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>119574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5179,13 +6114,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>640996</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>40188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>81499</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>10371</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5248,13 +6183,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>339634</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>25280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>640996</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>37513</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5298,13 +6233,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>27140</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>10371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>35167</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>148882</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5348,13 +6283,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>146536</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>148882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>592013</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>137159</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5406,13 +6341,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>592013</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>133975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>211016</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>143021</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5456,13 +6391,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19190</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>137159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>35167</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5506,7 +6441,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>105507</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>101991</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="387094" cy="264560"/>
@@ -5559,7 +6494,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>486508</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>96129</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="369140" cy="264560"/>
@@ -5612,13 +6547,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>633046</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>73549</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>107343</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5683,13 +6618,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>211016</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>148883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>319734</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>119066</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5755,13 +6690,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>453098</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>593775</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>143456</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5842,13 +6777,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>523436</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>143456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>531095</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>106757</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5892,13 +6827,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>466963</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>106757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>595228</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>51839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5963,13 +6898,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>531095</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>51839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>216878</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6013,13 +6948,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>83821</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>216878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>330004</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>146540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6071,13 +7006,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>146540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>554348</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>41031</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6121,13 +7056,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>330004</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>55685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>552743</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>67409</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6171,13 +7106,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>552743</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>93785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>224497</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>17585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6259,13 +7194,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>499989</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>41031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>608707</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>11214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6329,17 +7264,1261 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 判断 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2446020" y="11605260"/>
+          <a:ext cx="2796540" cy="960120"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>キャラクターが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>スキル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>を使用する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3177540" y="10820400"/>
+          <a:ext cx="1310640" cy="662940"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>キャラクターが</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CSkill</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を持つ</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="5745480"/>
+          <a:ext cx="11430" cy="121920"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3554730" y="10119360"/>
+          <a:ext cx="0" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2948940" y="12740640"/>
+          <a:ext cx="1790700" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>スキル実体を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>生成する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="113" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419600" y="6347460"/>
+          <a:ext cx="556260" cy="11430"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="412421" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="テキスト ボックス 92"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="12451080"/>
+          <a:ext cx="412421" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="390107" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="テキスト ボックス 93"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5273040" y="11833860"/>
+          <a:ext cx="390107" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直線矢印コネクタ 97"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="105" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3554730" y="10942320"/>
+          <a:ext cx="0" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2849880" y="14645640"/>
+          <a:ext cx="1988820" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>スキル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リキャストタイムを設定</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="直線矢印コネクタ 110"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="2"/>
+          <a:endCxn id="159" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3554730" y="12839700"/>
+          <a:ext cx="11430" cy="708660"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="正方形/長方形 112"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5798820" y="11910060"/>
+          <a:ext cx="1562100" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>なんもなし</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="フローチャート: 論理積ゲート 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3954780" y="15346680"/>
+          <a:ext cx="2987040" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDelay">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>クールダウンが終わるまで</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>対応スキルを使えないようにする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="角丸四角形 158"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2994660" y="15994380"/>
+          <a:ext cx="1722120" cy="662940"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>スキル実体を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>演出終了後、削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="正方形/長方形 169"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="13517880"/>
+          <a:ext cx="1988820" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>実体がデータベースから</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>スキル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の情報を持ってくる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="正方形/長方形 172"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3177540" y="14241780"/>
+          <a:ext cx="1409700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>スキル発動！</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="181" name="直線矢印コネクタ 180"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4739640" y="13064490"/>
+          <a:ext cx="259080" cy="11430"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B33:H44" totalsRowShown="0" dataDxfId="121" tableBorderDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B33:H44" totalsRowShown="0" dataDxfId="173" tableBorderDxfId="172">
   <autoFilter ref="B33:H44"/>
   <tableColumns count="7">
     <tableColumn id="1" name="ステータス名"/>
-    <tableColumn id="2" name="合計値" dataDxfId="119"/>
-    <tableColumn id="3" name="基礎値" dataDxfId="118"/>
-    <tableColumn id="4" name="アイテム加算値" dataDxfId="117"/>
-    <tableColumn id="5" name="バフ加算値" dataDxfId="116"/>
-    <tableColumn id="6" name="アイテム乗算値" dataDxfId="115"/>
-    <tableColumn id="7" name="バフ乗算値" dataDxfId="114"/>
+    <tableColumn id="2" name="合計値" dataDxfId="171"/>
+    <tableColumn id="3" name="基礎値" dataDxfId="170"/>
+    <tableColumn id="4" name="アイテム加算値" dataDxfId="169"/>
+    <tableColumn id="5" name="バフ加算値" dataDxfId="168"/>
+    <tableColumn id="6" name="アイテム乗算値" dataDxfId="167"/>
+    <tableColumn id="7" name="バフ乗算値" dataDxfId="166"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6622,35 +8801,35 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="41" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="44"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55"/>
       <c r="L3" t="s">
         <v>0</v>
       </c>
@@ -6659,18 +8838,18 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
       <c r="L4" t="s">
         <v>1</v>
       </c>
@@ -6679,18 +8858,18 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="49" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -6699,18 +8878,18 @@
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
       <c r="L6" t="s">
         <v>3</v>
       </c>
@@ -6719,18 +8898,18 @@
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
       <c r="L7" t="s">
         <v>4</v>
       </c>
@@ -6739,140 +8918,158 @@
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49" t="s">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49" t="s">
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49" t="s">
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49" t="s">
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="C15:E15"/>
@@ -6883,33 +9080,15 @@
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:J13"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
-    <cfRule type="cellIs" dxfId="113" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="1" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
-    <cfRule type="cellIs" dxfId="112" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="2" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6930,58 +9109,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7011,7 +9190,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -7022,14 +9201,14 @@
       <c r="H1" s="15"/>
       <c r="I1" s="12"/>
       <c r="J1" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K1" s="13"/>
       <c r="L1" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
@@ -7042,104 +9221,104 @@
       <c r="V1" s="12"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="B3" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
     </row>
     <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="B6" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
+      <c r="B7" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
+      <c r="B8" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
     </row>
     <row r="9" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
+      <c r="B9" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
+      <c r="B11" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
     </row>
     <row r="12" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
     </row>
     <row r="13" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -7156,17 +9335,17 @@
     <row r="14" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="7"/>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -7183,17 +9362,17 @@
     <row r="17" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="7"/>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -7210,17 +9389,17 @@
     <row r="20" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="7"/>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -7237,22 +9416,22 @@
     <row r="23" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="7"/>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -7269,18 +9448,18 @@
     <row r="27" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="7"/>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="7"/>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -7297,17 +9476,17 @@
     <row r="30" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="7"/>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -7324,17 +9503,17 @@
     <row r="33" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="7"/>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -7351,17 +9530,17 @@
     <row r="36" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="7"/>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -7378,17 +9557,17 @@
     <row r="39" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="7"/>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -7405,12 +9584,12 @@
     <row r="42" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="7"/>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -7427,17 +9606,17 @@
     <row r="45" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="7"/>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -7454,17 +9633,17 @@
     <row r="48" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="7"/>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -7481,17 +9660,17 @@
     <row r="51" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="7"/>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -7508,12 +9687,12 @@
     <row r="54" spans="2:13" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="7"/>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -7528,30 +9707,30 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B4 B13 H21:H26 H28:H34 B19 B22 B26 B32 B47 B50 B35 B38 B41 B44 B53 B55:B1048576">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7568,11 +9747,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V115"/>
+  <dimension ref="A1:V119"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I118" sqref="I118"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7583,7 +9762,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -7608,74 +9787,74 @@
       <c r="V1" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
     </row>
     <row r="9" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
     </row>
     <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B11" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -7690,7 +9869,7 @@
     </row>
     <row r="12" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
@@ -7698,7 +9877,7 @@
     </row>
     <row r="14" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B14" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -7713,7 +9892,7 @@
     </row>
     <row r="15" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
@@ -7723,534 +9902,555 @@
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
+      <c r="B18" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
     </row>
     <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-    </row>
-    <row r="21" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-    </row>
-    <row r="22" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A27" s="18"/>
-      <c r="B27" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-    </row>
-    <row r="28" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="18"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-    </row>
-    <row r="30" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-    </row>
-    <row r="31" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A43" s="18"/>
-      <c r="B43" s="54" t="s">
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+    </row>
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="90" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+    </row>
+    <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+    </row>
+    <row r="24" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A31" s="18"/>
+      <c r="B31" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+    </row>
+    <row r="32" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="18"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+    </row>
+    <row r="34" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A47" s="18"/>
+      <c r="B47" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="92"/>
+      <c r="K47" s="92"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+    </row>
+    <row r="48" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="18"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B61" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="71"/>
+    </row>
+    <row r="62" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
+    </row>
+    <row r="64" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+    </row>
+    <row r="65" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+    </row>
+    <row r="66" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B66" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="74"/>
+    </row>
+    <row r="67" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B67" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="76"/>
+    </row>
+    <row r="68" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B68" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="79"/>
+    </row>
+    <row r="69" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B69" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="81"/>
+    </row>
+    <row r="70" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="39"/>
+      <c r="B70" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="83"/>
+      <c r="I70" s="39"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B72" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="71"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="71"/>
+      <c r="J72" s="71"/>
+      <c r="K72" s="71"/>
+      <c r="L72" s="71"/>
+    </row>
+    <row r="73" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B73" s="72"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
+      <c r="K73" s="72"/>
+      <c r="L73" s="72"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+    </row>
+    <row r="75" spans="1:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+    </row>
+    <row r="76" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+    </row>
+    <row r="77" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B77" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-    </row>
-    <row r="44" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="18"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B57" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-    </row>
-    <row r="58" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="69"/>
-    </row>
-    <row r="60" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-    </row>
-    <row r="61" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-    </row>
-    <row r="62" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B62" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C62" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="71"/>
-    </row>
-    <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B63" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="C63" s="72" t="s">
-        <v>184</v>
-      </c>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="73"/>
-    </row>
-    <row r="64" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B64" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="C64" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="76"/>
-    </row>
-    <row r="65" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B65" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="C65" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="77"/>
-      <c r="H65" s="78"/>
-    </row>
-    <row r="66" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="39"/>
-      <c r="B66" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="C66" s="79" t="s">
+      <c r="C77" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77" s="73"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="73"/>
+      <c r="H77" s="74"/>
+    </row>
+    <row r="78" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B78" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="39"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B68" s="68" t="s">
+      <c r="C78" s="85" t="s">
+        <v>199</v>
+      </c>
+      <c r="D78" s="86"/>
+      <c r="E78" s="86"/>
+      <c r="F78" s="86"/>
+      <c r="G78" s="86"/>
+      <c r="H78" s="87"/>
+    </row>
+    <row r="79" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B79" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C68" s="68"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="68"/>
-    </row>
-    <row r="69" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B69" s="69"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="69"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="69"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A70" s="39"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-    </row>
-    <row r="71" spans="1:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="25" t="s">
+      <c r="C79" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="88"/>
+      <c r="E79" s="88"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="88"/>
+      <c r="H79" s="89"/>
+    </row>
+    <row r="80" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B80" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-    </row>
-    <row r="72" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-    </row>
-    <row r="73" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B73" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="C73" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="71"/>
-    </row>
-    <row r="74" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B74" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C74" s="81" t="s">
+      <c r="C80" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="D74" s="82"/>
-      <c r="E74" s="82"/>
-      <c r="F74" s="82"/>
-      <c r="G74" s="82"/>
-      <c r="H74" s="83"/>
-    </row>
-    <row r="75" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B75" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="C75" s="84" t="s">
-        <v>199</v>
-      </c>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84"/>
-      <c r="H75" s="85"/>
-    </row>
-    <row r="76" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B76" s="95" t="s">
+      <c r="D80" s="57"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="58"/>
+    </row>
+    <row r="81" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B81" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="C76" s="96" t="s">
+      <c r="C81" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="D76" s="97"/>
-      <c r="E76" s="97"/>
-      <c r="F76" s="97"/>
-      <c r="G76" s="97"/>
-      <c r="H76" s="98"/>
-    </row>
-    <row r="77" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B77" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="C77" s="99" t="s">
+      <c r="D81" s="82"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="82"/>
+      <c r="H81" s="83"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B83" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="D77" s="79"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="79"/>
-      <c r="H77" s="80"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B79" s="68" t="s">
+      <c r="C83" s="71"/>
+      <c r="D83" s="71"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="71"/>
+      <c r="H83" s="71"/>
+      <c r="I83" s="71"/>
+      <c r="J83" s="71"/>
+      <c r="K83" s="71"/>
+      <c r="L83" s="71"/>
+    </row>
+    <row r="84" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B84" s="72"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="72"/>
+      <c r="H84" s="72"/>
+      <c r="I84" s="72"/>
+      <c r="J84" s="72"/>
+      <c r="K84" s="72"/>
+      <c r="L84" s="72"/>
+    </row>
+    <row r="86" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
+      <c r="B86" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+    </row>
+    <row r="88" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C79" s="68"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="68"/>
-      <c r="H79" s="68"/>
-      <c r="I79" s="68"/>
-      <c r="J79" s="68"/>
-      <c r="K79" s="68"/>
-      <c r="L79" s="68"/>
-    </row>
-    <row r="80" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B80" s="69"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="69"/>
-      <c r="G80" s="69"/>
-      <c r="H80" s="69"/>
-      <c r="I80" s="69"/>
-      <c r="J80" s="69"/>
-      <c r="K80" s="69"/>
-      <c r="L80" s="69"/>
-    </row>
-    <row r="82" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="B82" s="100" t="s">
-        <v>160</v>
-      </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-    </row>
-    <row r="84" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85" s="17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B86" s="17"/>
-    </row>
-    <row r="87" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="B87" s="100" t="s">
-        <v>208</v>
-      </c>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
     </row>
     <row r="89" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="17" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B90" s="17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="17"/>
-    </row>
-    <row r="92" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="B92" s="100" t="s">
-        <v>158</v>
-      </c>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
+      <c r="B90" s="17"/>
+    </row>
+    <row r="91" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
+      <c r="B91" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+    </row>
+    <row r="93" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="17" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="94" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="17" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="17"/>
     </row>
     <row r="96" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="B96" s="100" t="s">
-        <v>212</v>
+      <c r="B96" s="42" t="s">
+        <v>157</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
@@ -8272,8 +10472,8 @@
       <c r="B99" s="17"/>
     </row>
     <row r="100" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="B100" s="100" t="s">
-        <v>159</v>
+      <c r="B100" s="42" t="s">
+        <v>210</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -8286,318 +10486,342 @@
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
     </row>
-    <row r="101" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B101" s="17"/>
-    </row>
     <row r="102" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B103" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="105" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
-      <c r="B105" s="100" t="s">
-        <v>225</v>
-      </c>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10"/>
-      <c r="L105" s="10"/>
+      <c r="B103" s="17"/>
+    </row>
+    <row r="104" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
+      <c r="B104" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+    </row>
+    <row r="105" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B105" s="17"/>
     </row>
     <row r="106" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B106" s="17"/>
+      <c r="B106" s="17" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="107" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="108" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B108" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="110" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B111" s="62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
+      <c r="B109" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+    </row>
+    <row r="110" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B110" s="17"/>
+    </row>
+    <row r="111" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B111" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B112" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B115" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="C115" s="66"/>
+      <c r="D115" s="66"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="66"/>
+      <c r="G115" s="66"/>
+      <c r="H115" s="66"/>
+      <c r="I115" s="66"/>
+      <c r="J115" s="66"/>
+      <c r="K115" s="66"/>
+      <c r="L115" s="67"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B116" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="C116" s="69"/>
+      <c r="D116" s="69"/>
+      <c r="E116" s="69"/>
+      <c r="F116" s="69"/>
+      <c r="G116" s="69"/>
+      <c r="H116" s="69"/>
+      <c r="I116" s="69"/>
+      <c r="J116" s="69"/>
+      <c r="K116" s="69"/>
+      <c r="L116" s="70"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B117" s="59"/>
+      <c r="C117" s="60"/>
+      <c r="D117" s="60"/>
+      <c r="E117" s="60"/>
+      <c r="F117" s="60"/>
+      <c r="G117" s="60"/>
+      <c r="H117" s="60"/>
+      <c r="I117" s="60"/>
+      <c r="J117" s="60"/>
+      <c r="K117" s="60"/>
+      <c r="L117" s="61"/>
+    </row>
+    <row r="118" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B118" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C111" s="63"/>
-      <c r="D111" s="63"/>
-      <c r="E111" s="63"/>
-      <c r="F111" s="63"/>
-      <c r="G111" s="63"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="63"/>
-      <c r="J111" s="63"/>
-      <c r="K111" s="63"/>
-      <c r="L111" s="64"/>
-    </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B112" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="C112" s="66"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="66"/>
-      <c r="G112" s="66"/>
-      <c r="H112" s="66"/>
-      <c r="I112" s="66"/>
-      <c r="J112" s="66"/>
-      <c r="K112" s="66"/>
-      <c r="L112" s="67"/>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B113" s="56"/>
-      <c r="C113" s="57"/>
-      <c r="D113" s="57"/>
-      <c r="E113" s="57"/>
-      <c r="F113" s="57"/>
-      <c r="G113" s="57"/>
-      <c r="H113" s="57"/>
-      <c r="I113" s="57"/>
-      <c r="J113" s="57"/>
-      <c r="K113" s="57"/>
-      <c r="L113" s="58"/>
-    </row>
-    <row r="114" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B114" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C114" s="60"/>
-      <c r="D114" s="60"/>
-      <c r="E114" s="60"/>
-      <c r="F114" s="60"/>
-      <c r="G114" s="60"/>
-      <c r="H114" s="60"/>
-      <c r="I114" s="60"/>
-      <c r="J114" s="60"/>
-      <c r="K114" s="60"/>
-      <c r="L114" s="61"/>
-    </row>
-    <row r="115" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="C118" s="63"/>
+      <c r="D118" s="63"/>
+      <c r="E118" s="63"/>
+      <c r="F118" s="63"/>
+      <c r="G118" s="63"/>
+      <c r="H118" s="63"/>
+      <c r="I118" s="63"/>
+      <c r="J118" s="63"/>
+      <c r="K118" s="63"/>
+      <c r="L118" s="64"/>
+    </row>
+    <row r="119" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="B113:L113"/>
-    <mergeCell ref="B114:L114"/>
-    <mergeCell ref="B111:L111"/>
-    <mergeCell ref="B112:L112"/>
-    <mergeCell ref="B57:L58"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="B68:L69"/>
-    <mergeCell ref="B79:L80"/>
+  <mergeCells count="23">
     <mergeCell ref="B3:L4"/>
     <mergeCell ref="B8:L9"/>
-    <mergeCell ref="B43:K44"/>
+    <mergeCell ref="B47:K48"/>
     <mergeCell ref="B18:L19"/>
-    <mergeCell ref="B27:K28"/>
+    <mergeCell ref="B31:K32"/>
+    <mergeCell ref="B22:L23"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="B72:L73"/>
+    <mergeCell ref="B61:L62"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="B117:L117"/>
+    <mergeCell ref="B118:L118"/>
+    <mergeCell ref="B115:L115"/>
+    <mergeCell ref="B116:L116"/>
+    <mergeCell ref="B83:L84"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B17 B10:B13">
-    <cfRule type="cellIs" dxfId="111" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="73" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="74" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="75" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="76" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16">
-    <cfRule type="cellIs" dxfId="107" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="65" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="66" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="67" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="68" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="103" priority="49" operator="equal">
+  <conditionalFormatting sqref="B64">
+    <cfRule type="cellIs" dxfId="155" priority="49" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="50" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="51" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="52" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B58">
-    <cfRule type="cellIs" dxfId="99" priority="57" operator="equal">
+  <conditionalFormatting sqref="B61:B62">
+    <cfRule type="cellIs" dxfId="151" priority="57" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="58" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="59" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="60" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68:B69">
-    <cfRule type="cellIs" dxfId="95" priority="41" operator="equal">
+  <conditionalFormatting sqref="B72:B73">
+    <cfRule type="cellIs" dxfId="147" priority="41" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="42" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="43" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="44" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79:B80">
-    <cfRule type="cellIs" dxfId="91" priority="33" operator="equal">
+  <conditionalFormatting sqref="B83:B84">
+    <cfRule type="cellIs" dxfId="143" priority="33" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="34" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="35" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="36" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="87" priority="29" operator="equal">
+  <conditionalFormatting sqref="B75">
+    <cfRule type="cellIs" dxfId="139" priority="29" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="30" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="31" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="32" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="83" priority="21" operator="equal">
+  <conditionalFormatting sqref="B86">
+    <cfRule type="cellIs" dxfId="135" priority="21" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="22" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="23" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="24" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B87">
-    <cfRule type="cellIs" dxfId="79" priority="17" operator="equal">
+  <conditionalFormatting sqref="B91">
+    <cfRule type="cellIs" dxfId="131" priority="17" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="18" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="19" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="20" operator="equal">
-      <formula>"ゲーム挙動"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B92">
-    <cfRule type="cellIs" dxfId="75" priority="13" operator="equal">
-      <formula>"デザイン"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="14" operator="equal">
-      <formula>"システム"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="15" operator="equal">
-      <formula>"全体"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="20" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="cellIs" dxfId="71" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="13" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="14" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="15" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="16" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="cellIs" dxfId="67" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="9" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="10" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="11" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="12" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B105">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="B104">
+    <cfRule type="cellIs" dxfId="119" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="6" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="7" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="8" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B109">
+    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B112:L112" location="スキル!A1" display="スキル"/>
-    <hyperlink ref="B114:L114" location="目次!A1" display="目次"/>
+    <hyperlink ref="B116:L116" location="スキル!A1" display="スキル"/>
+    <hyperlink ref="B118:L118" location="目次!A1" display="目次"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8608,113 +10832,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="17" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
     </row>
     <row r="12" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
     </row>
     <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B13" s="9" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
@@ -8746,8 +10970,8 @@
   <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67:H67"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8761,7 +10985,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -8786,36 +11010,36 @@
       <c r="V1" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
     </row>
     <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B5" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -8830,12 +11054,12 @@
     </row>
     <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B8" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -8850,7 +11074,7 @@
     </row>
     <row r="9" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
@@ -8858,7 +11082,7 @@
     </row>
     <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B11" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -8873,43 +11097,43 @@
     </row>
     <row r="12" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B14" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
+      <c r="B14" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
     </row>
     <row r="15" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
     </row>
     <row r="16" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="7"/>
     </row>
     <row r="17" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B17" s="21" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -8924,12 +11148,12 @@
     </row>
     <row r="18" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B20" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -8944,40 +11168,40 @@
     </row>
     <row r="21" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B25" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
+      <c r="B25" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
     </row>
     <row r="26" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
     </row>
     <row r="28" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B28" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -8995,7 +11219,7 @@
     </row>
     <row r="30" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -9010,7 +11234,7 @@
     </row>
     <row r="31" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
@@ -9025,254 +11249,254 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B33" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D33" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="F33" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="G33" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="H33" s="28" t="s">
         <v>135</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B34" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>138</v>
-      </c>
       <c r="F34" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B35" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B36" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="29" t="s">
-        <v>138</v>
-      </c>
       <c r="E36" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="F36" s="29" t="s">
-        <v>142</v>
-      </c>
       <c r="G36" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B37" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="29" t="s">
         <v>137</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>138</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
       <c r="G37" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B38" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="29" t="s">
         <v>137</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>138</v>
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
       <c r="G38" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B39" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B40" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B41" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E41" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F41" s="29" t="s">
-        <v>138</v>
-      </c>
       <c r="G41" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B42" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="29" t="s">
         <v>137</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>138</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
       <c r="G42" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B43" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E43" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F43" s="29" t="s">
-        <v>138</v>
-      </c>
       <c r="G43" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B44" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="29" t="s">
         <v>137</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>138</v>
       </c>
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
       <c r="G44" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.45">
@@ -9285,7 +11509,7 @@
     </row>
     <row r="46" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -9313,93 +11537,93 @@
     </row>
     <row r="48" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="71"/>
+        <v>145</v>
+      </c>
+      <c r="C48" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="74"/>
     </row>
     <row r="49" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="73"/>
+        <v>146</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="76"/>
     </row>
     <row r="50" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="89"/>
+        <v>147</v>
+      </c>
+      <c r="C50" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="96"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="97"/>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="73"/>
+        <v>144</v>
+      </c>
+      <c r="C51" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="76"/>
     </row>
     <row r="52" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B52" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="C52" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="89"/>
+        <v>193</v>
+      </c>
+      <c r="C52" s="95" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" s="96"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="97"/>
     </row>
     <row r="53" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="77" t="s">
-        <v>154</v>
-      </c>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="78"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="81"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91"/>
-      <c r="G54" s="91"/>
-      <c r="H54" s="91"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
     </row>
     <row r="55" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -9422,55 +11646,55 @@
     </row>
     <row r="57" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B57" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="C57" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="71"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="74"/>
     </row>
     <row r="58" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="72" t="s">
-        <v>166</v>
-      </c>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="73"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="76"/>
     </row>
     <row r="59" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B59" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="76"/>
+        <v>174</v>
+      </c>
+      <c r="C59" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="79"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B60" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="C60" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="78"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="81"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C61" s="32"/>
@@ -9481,36 +11705,36 @@
       <c r="H61" s="32"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B62" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
+      <c r="B62" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="71"/>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B63" s="69"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="69"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="69"/>
-      <c r="L63" s="69"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
     </row>
     <row r="65" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B65" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C65" s="23"/>
       <c r="D65" s="23"/>
@@ -9526,89 +11750,84 @@
     <row r="66" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="67" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B67" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="C67" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="71"/>
+        <v>156</v>
+      </c>
+      <c r="C67" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="74"/>
     </row>
     <row r="68" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C68" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="D68" s="82"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="83"/>
+        <v>157</v>
+      </c>
+      <c r="C68" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="D68" s="86"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="87"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B69" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="C69" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
-      <c r="H69" s="85"/>
+        <v>158</v>
+      </c>
+      <c r="C69" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="D69" s="88"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="89"/>
     </row>
     <row r="70" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B70" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="104" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" s="75"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="75"/>
+      <c r="H70" s="76"/>
+    </row>
+    <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B71" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C70" s="90" t="s">
-        <v>223</v>
-      </c>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="72"/>
-      <c r="H70" s="73"/>
-    </row>
-    <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B71" s="101" t="s">
-        <v>161</v>
-      </c>
-      <c r="C71" s="102" t="s">
-        <v>224</v>
-      </c>
-      <c r="D71" s="103"/>
-      <c r="E71" s="103"/>
-      <c r="F71" s="103"/>
-      <c r="G71" s="103"/>
-      <c r="H71" s="104"/>
+      <c r="C71" s="98" t="s">
+        <v>221</v>
+      </c>
+      <c r="D71" s="99"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99"/>
+      <c r="H71" s="100"/>
     </row>
     <row r="72" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B72" s="105" t="s">
-        <v>219</v>
-      </c>
-      <c r="C72" s="106" t="s">
-        <v>225</v>
-      </c>
-      <c r="D72" s="107"/>
-      <c r="E72" s="107"/>
-      <c r="F72" s="107"/>
-      <c r="G72" s="107"/>
-      <c r="H72" s="108"/>
+      <c r="B72" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" s="101" t="s">
+        <v>222</v>
+      </c>
+      <c r="D72" s="102"/>
+      <c r="E72" s="102"/>
+      <c r="F72" s="102"/>
+      <c r="G72" s="102"/>
+      <c r="H72" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B62:L63"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C59:H59"/>
     <mergeCell ref="C52:H52"/>
     <mergeCell ref="C71:H71"/>
     <mergeCell ref="C72:H72"/>
@@ -9625,173 +11844,178 @@
     <mergeCell ref="C70:H70"/>
     <mergeCell ref="C53:H53"/>
     <mergeCell ref="C54:H54"/>
+    <mergeCell ref="B62:L63"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C59:H59"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="cellIs" dxfId="63" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="29" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="30" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="31" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="32" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B10">
-    <cfRule type="cellIs" dxfId="59" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="45" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="46" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="47" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="48" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="cellIs" dxfId="55" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="41" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="42" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="43" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="44" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B26">
-    <cfRule type="cellIs" dxfId="51" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="37" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="38" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="39" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="40" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="cellIs" dxfId="47" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="33" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="34" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="35" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="36" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="cellIs" dxfId="43" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="25" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="26" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="27" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="28" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="39" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="17" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="18" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="19" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="20" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:B63">
-    <cfRule type="cellIs" dxfId="35" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="21" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="22" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="23" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="24" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="13" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="14" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="15" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="16" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="9" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="10" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="11" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="12" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="6" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9828,30 +12052,30 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="A1" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9859,16 +12083,16 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9878,86 +12102,953 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="19.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="16" t="s">
-        <v>53</v>
-      </c>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B8" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+    </row>
+    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B11" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B14" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B17" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B20" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="2:12" ht="19.8" x14ac:dyDescent="0.5">
+      <c r="B21" s="109" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B23" s="90" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+    </row>
+    <row r="24" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+    </row>
+    <row r="26" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B26" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B29" s="90" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+    </row>
+    <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+    </row>
+    <row r="32" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B32" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B35" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="90" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+    </row>
+    <row r="39" spans="2:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B68" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="71"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="71"/>
+      <c r="L68" s="71"/>
+    </row>
+    <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B69" s="72"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="72"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="72"/>
+      <c r="K69" s="72"/>
+      <c r="L69" s="72"/>
+    </row>
+    <row r="70" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B71" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C71" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="74"/>
+    </row>
+    <row r="72" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B72" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C72" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="D72" s="75"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="75"/>
+      <c r="H72" s="76"/>
+    </row>
+    <row r="73" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B73" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C73" s="82" t="s">
+        <v>250</v>
+      </c>
+      <c r="D73" s="82"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="83"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B75" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="71"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="71"/>
+      <c r="K75" s="71"/>
+      <c r="L75" s="71"/>
+    </row>
+    <row r="76" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B76" s="72"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="72"/>
+      <c r="K76" s="72"/>
+      <c r="L76" s="72"/>
+    </row>
+    <row r="77" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="78" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B78" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C78" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="D78" s="73"/>
+      <c r="E78" s="73"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="73"/>
+      <c r="H78" s="74"/>
+    </row>
+    <row r="79" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B79" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="D79" s="75"/>
+      <c r="E79" s="75"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="76"/>
+    </row>
+    <row r="80" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B80" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="C80" s="82" t="s">
+        <v>256</v>
+      </c>
+      <c r="D80" s="82"/>
+      <c r="E80" s="82"/>
+      <c r="F80" s="82"/>
+      <c r="G80" s="82"/>
+      <c r="H80" s="83"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B82" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" s="71"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="71"/>
+      <c r="J82" s="71"/>
+      <c r="K82" s="71"/>
+      <c r="L82" s="71"/>
+    </row>
+    <row r="83" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B83" s="72"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="72"/>
+      <c r="H83" s="72"/>
+      <c r="I83" s="72"/>
+      <c r="J83" s="72"/>
+      <c r="K83" s="72"/>
+      <c r="L83" s="72"/>
+    </row>
+    <row r="84" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="85" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B85" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C85" s="73" t="s">
+        <v>257</v>
+      </c>
+      <c r="D85" s="73"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="73"/>
+      <c r="H85" s="74"/>
+    </row>
+    <row r="86" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B86" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C86" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="D86" s="75"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="76"/>
+    </row>
+    <row r="87" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B87" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="D87" s="96"/>
+      <c r="E87" s="96"/>
+      <c r="F87" s="96"/>
+      <c r="G87" s="96"/>
+      <c r="H87" s="97"/>
+    </row>
+    <row r="88" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B88" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="C88" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="D88" s="75"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="75"/>
+      <c r="H88" s="76"/>
+    </row>
+    <row r="89" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B89" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="C89" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89" s="99"/>
+      <c r="E89" s="99"/>
+      <c r="F89" s="99"/>
+      <c r="G89" s="99"/>
+      <c r="H89" s="100"/>
+    </row>
+    <row r="90" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B90" s="110" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" s="111" t="s">
+        <v>269</v>
+      </c>
+      <c r="D90" s="111"/>
+      <c r="E90" s="111"/>
+      <c r="F90" s="111"/>
+      <c r="G90" s="111"/>
+      <c r="H90" s="112"/>
+    </row>
+    <row r="91" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B91" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" s="96" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" s="96"/>
+      <c r="E91" s="96"/>
+      <c r="F91" s="96"/>
+      <c r="G91" s="96"/>
+      <c r="H91" s="97"/>
+    </row>
+    <row r="92" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B92" s="113" t="s">
+        <v>260</v>
+      </c>
+      <c r="C92" s="114" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" s="114"/>
+      <c r="E92" s="114"/>
+      <c r="F92" s="114"/>
+      <c r="G92" s="114"/>
+      <c r="H92" s="115"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B94" s="71" t="s">
+        <v>275</v>
+      </c>
+      <c r="C94" s="71"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="71"/>
+      <c r="I94" s="71"/>
+      <c r="J94" s="71"/>
+      <c r="K94" s="71"/>
+      <c r="L94" s="71"/>
+    </row>
+    <row r="95" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B95" s="72"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="72"/>
+      <c r="H95" s="72"/>
+      <c r="I95" s="72"/>
+      <c r="J95" s="72"/>
+      <c r="K95" s="72"/>
+      <c r="L95" s="72"/>
+    </row>
+    <row r="96" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="97" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B97" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C97" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="D97" s="73"/>
+      <c r="E97" s="73"/>
+      <c r="F97" s="73"/>
+      <c r="G97" s="73"/>
+      <c r="H97" s="74"/>
+    </row>
+    <row r="98" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B98" s="113" t="s">
+        <v>274</v>
+      </c>
+      <c r="C98" s="114" t="s">
+        <v>273</v>
+      </c>
+      <c r="D98" s="114"/>
+      <c r="E98" s="114"/>
+      <c r="F98" s="114"/>
+      <c r="G98" s="114"/>
+      <c r="H98" s="115"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B100" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="C100" s="71"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="71"/>
+      <c r="K100" s="71"/>
+      <c r="L100" s="71"/>
+    </row>
+    <row r="101" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B101" s="72"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="72"/>
+      <c r="H101" s="72"/>
+      <c r="I101" s="72"/>
+      <c r="J101" s="72"/>
+      <c r="K101" s="72"/>
+      <c r="L101" s="72"/>
+    </row>
+    <row r="102" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="103" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B103" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="C103" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="D103" s="116"/>
+      <c r="E103" s="116"/>
+      <c r="F103" s="116"/>
+      <c r="G103" s="116"/>
+      <c r="H103" s="116"/>
+      <c r="I103" s="117"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B105" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="C105" s="71"/>
+      <c r="D105" s="71"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="71"/>
+      <c r="H105" s="71"/>
+      <c r="I105" s="71"/>
+      <c r="J105" s="71"/>
+      <c r="K105" s="71"/>
+      <c r="L105" s="71"/>
+    </row>
+    <row r="106" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B106" s="72"/>
+      <c r="C106" s="72"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="72"/>
+      <c r="H106" s="72"/>
+      <c r="I106" s="72"/>
+      <c r="J106" s="72"/>
+      <c r="K106" s="72"/>
+      <c r="L106" s="72"/>
+    </row>
+    <row r="107" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="108" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B108" s="118" t="s">
+        <v>278</v>
+      </c>
+      <c r="C108" s="119" t="s">
+        <v>281</v>
+      </c>
+      <c r="D108" s="116"/>
+      <c r="E108" s="116"/>
+      <c r="F108" s="116"/>
+      <c r="G108" s="116"/>
+      <c r="H108" s="116"/>
+      <c r="I108" s="117"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B110" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="C110" s="71"/>
+      <c r="D110" s="71"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="71"/>
+      <c r="H110" s="71"/>
+      <c r="I110" s="71"/>
+      <c r="J110" s="71"/>
+      <c r="K110" s="71"/>
+      <c r="L110" s="71"/>
+    </row>
+    <row r="111" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B111" s="72"/>
+      <c r="C111" s="72"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="72"/>
+      <c r="H111" s="72"/>
+      <c r="I111" s="72"/>
+      <c r="J111" s="72"/>
+      <c r="K111" s="72"/>
+      <c r="L111" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="31">
+    <mergeCell ref="C108:I108"/>
+    <mergeCell ref="B100:L101"/>
+    <mergeCell ref="C103:I103"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="B29:L30"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="B75:L76"/>
+    <mergeCell ref="B105:L106"/>
+    <mergeCell ref="B110:L111"/>
+    <mergeCell ref="B82:L83"/>
+    <mergeCell ref="B94:L95"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C90:H90"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B38:L39"/>
+    <mergeCell ref="B68:L69"/>
+    <mergeCell ref="B23:L24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B68:B69">
+    <cfRule type="cellIs" dxfId="59" priority="49" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="50" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="51" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75:B76">
+    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="46" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="48" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B110:B111">
+    <cfRule type="cellIs" dxfId="51" priority="37" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="38" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="39" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82:B83">
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B94:B95">
+    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B27">
+    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B36">
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100:B101">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B105:B106">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"デザイン"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"システム"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"全体"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"ゲーム挙動"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9973,58 +13064,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10048,58 +13139,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="915" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="915" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,11 @@
     <sheet name="Sheet1" sheetId="33" r:id="rId5"/>
     <sheet name="状態" sheetId="20" r:id="rId6"/>
     <sheet name="スキル" sheetId="15" r:id="rId7"/>
-    <sheet name="エネミー" sheetId="17" r:id="rId8"/>
-    <sheet name="マップ" sheetId="18" r:id="rId9"/>
-    <sheet name="ショップ" sheetId="19" r:id="rId10"/>
-    <sheet name="ステータス" sheetId="31" r:id="rId11"/>
+    <sheet name="スキル詳細" sheetId="34" r:id="rId8"/>
+    <sheet name="エネミー" sheetId="17" r:id="rId9"/>
+    <sheet name="マップ" sheetId="18" r:id="rId10"/>
+    <sheet name="ショップ" sheetId="19" r:id="rId11"/>
+    <sheet name="ステータス" sheetId="31" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="305">
   <si>
     <t>オンライン利用技術</t>
     <rPh sb="5" eb="7">
@@ -2900,12 +2901,170 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>スキル一覧</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cskilldatabase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルの情報を保存したデータベース</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目次</t>
+    <rPh sb="0" eb="2">
+      <t>モクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎情報</t>
+    <rPh sb="0" eb="4">
+      <t>キソジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル詳細</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>クールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノックバック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持続時間</t>
+    <rPh sb="0" eb="4">
+      <t>ジゾクジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そこそこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はやい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よわい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みじかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態異常</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウタイイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本情報</t>
+    <rPh sb="0" eb="4">
+      <t>キホンジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんな感じでつくるよっていう指標みたいな感じです。</t>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージの赤い部分</t>
+    <rPh sb="5" eb="6">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル詳細の一例、ここには効果などを書く。</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチレイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>居合抜刀気刃斬り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>超長い</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3126,8 +3285,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3170,8 +3338,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="51">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -3809,12 +3983,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3888,18 +4104,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3920,6 +4128,87 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3966,75 +4255,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4071,6 +4291,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4080,29 +4321,72 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4110,91 +4394,7 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="174">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="162">
     <dxf>
       <fill>
         <patternFill>
@@ -8508,17 +8708,126 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>215264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5242560" y="8063864"/>
+          <a:ext cx="1592580" cy="1194435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="8404860"/>
+          <a:ext cx="533400" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B33:H44" totalsRowShown="0" dataDxfId="173" tableBorderDxfId="172">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B33:H44" totalsRowShown="0" dataDxfId="161" tableBorderDxfId="160">
   <autoFilter ref="B33:H44"/>
   <tableColumns count="7">
     <tableColumn id="1" name="ステータス名"/>
-    <tableColumn id="2" name="合計値" dataDxfId="171"/>
-    <tableColumn id="3" name="基礎値" dataDxfId="170"/>
-    <tableColumn id="4" name="アイテム加算値" dataDxfId="169"/>
-    <tableColumn id="5" name="バフ加算値" dataDxfId="168"/>
-    <tableColumn id="6" name="アイテム乗算値" dataDxfId="167"/>
-    <tableColumn id="7" name="バフ乗算値" dataDxfId="166"/>
+    <tableColumn id="2" name="合計値" dataDxfId="159"/>
+    <tableColumn id="3" name="基礎値" dataDxfId="158"/>
+    <tableColumn id="4" name="アイテム加算値" dataDxfId="157"/>
+    <tableColumn id="5" name="バフ加算値" dataDxfId="156"/>
+    <tableColumn id="6" name="アイテム乗算値" dataDxfId="155"/>
+    <tableColumn id="7" name="バフ乗算値" dataDxfId="154"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8838,18 +9147,18 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
       <c r="L4" t="s">
         <v>1</v>
       </c>
@@ -8858,18 +9167,18 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="46" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -8878,18 +9187,18 @@
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46" t="s">
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
       <c r="L6" t="s">
         <v>3</v>
       </c>
@@ -8898,18 +9207,18 @@
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="47"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
       <c r="L7" t="s">
         <v>4</v>
       </c>
@@ -8918,158 +9227,140 @@
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46" t="s">
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46" t="s">
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="47"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46" t="s">
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46" t="s">
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46" t="s">
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46" t="s">
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46" t="s">
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="58"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46" t="s">
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="C15:E15"/>
@@ -9080,15 +9371,33 @@
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:J13"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
-    <cfRule type="cellIs" dxfId="165" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="1" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
-    <cfRule type="cellIs" dxfId="164" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="2" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9103,64 +9412,64 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="94" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
+      <c r="A1" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9173,6 +9482,81 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B3" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B3:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V55"/>
   <sheetViews>
@@ -9221,100 +9605,100 @@
       <c r="V1" s="12"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
     </row>
     <row r="7" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="118" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
     </row>
     <row r="8" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
     </row>
     <row r="9" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
     </row>
     <row r="12" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
     </row>
     <row r="13" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
@@ -9750,8 +10134,8 @@
   <dimension ref="A1:V119"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A115" sqref="A115:XFD118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9787,32 +10171,32 @@
       <c r="V1" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="17" t="s">
@@ -9825,32 +10209,32 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
     </row>
     <row r="9" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
     </row>
     <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B11" s="21" t="s">
@@ -9902,60 +10286,60 @@
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
     </row>
     <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
     </row>
     <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
     </row>
     <row r="24" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24"/>
@@ -10007,34 +10391,34 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="18"/>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="18"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
@@ -10073,65 +10457,65 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" s="18"/>
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="92"/>
-      <c r="K47" s="92"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
     </row>
     <row r="48" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="18"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="93"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
       <c r="N48" s="18"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B61" s="71" t="s">
+      <c r="B61" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="71"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="74"/>
     </row>
     <row r="62" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B62" s="72"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="72"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="75"/>
+      <c r="L62" s="75"/>
     </row>
     <row r="64" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="25" t="s">
@@ -10160,67 +10544,67 @@
       <c r="B66" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="C66" s="73" t="s">
+      <c r="C66" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="74"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="68"/>
     </row>
     <row r="67" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B67" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="C67" s="75" t="s">
+      <c r="C67" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="D67" s="75"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="75"/>
-      <c r="H67" s="76"/>
+      <c r="D67" s="76"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="77"/>
     </row>
     <row r="68" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="C68" s="77" t="s">
+      <c r="C68" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="80"/>
     </row>
     <row r="69" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B69" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="C69" s="80" t="s">
+      <c r="C69" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="D69" s="80"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="80"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="81"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
+      <c r="H69" s="82"/>
     </row>
     <row r="70" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="39"/>
       <c r="B70" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="C70" s="82" t="s">
+      <c r="C70" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="82"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="82"/>
-      <c r="H70" s="83"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="65"/>
       <c r="I70" s="39"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.45">
@@ -10235,32 +10619,32 @@
       <c r="I71" s="39"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B72" s="71" t="s">
+      <c r="B72" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="71"/>
-      <c r="L72" s="71"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="74"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="74"/>
+      <c r="L72" s="74"/>
     </row>
     <row r="73" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
-      <c r="K73" s="72"/>
-      <c r="L73" s="72"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="75"/>
+      <c r="K73" s="75"/>
+      <c r="L73" s="75"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="39"/>
@@ -10303,94 +10687,94 @@
       <c r="B77" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C77" s="73" t="s">
+      <c r="C77" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="D77" s="73"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="74"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="68"/>
     </row>
     <row r="78" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B78" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="C78" s="85" t="s">
+      <c r="C78" s="69" t="s">
         <v>199</v>
       </c>
-      <c r="D78" s="86"/>
-      <c r="E78" s="86"/>
-      <c r="F78" s="86"/>
-      <c r="G78" s="86"/>
-      <c r="H78" s="87"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="71"/>
     </row>
     <row r="79" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B79" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C79" s="88" t="s">
+      <c r="C79" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="D79" s="88"/>
-      <c r="E79" s="88"/>
-      <c r="F79" s="88"/>
-      <c r="G79" s="88"/>
-      <c r="H79" s="89"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
+      <c r="H79" s="73"/>
     </row>
     <row r="80" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B80" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="C80" s="56" t="s">
+      <c r="C80" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="D80" s="57"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="58"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="84"/>
+      <c r="H80" s="85"/>
     </row>
     <row r="81" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B81" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="84" t="s">
+      <c r="C81" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="D81" s="82"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="82"/>
-      <c r="H81" s="83"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="65"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B83" s="71" t="s">
+      <c r="B83" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="C83" s="71"/>
-      <c r="D83" s="71"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="71"/>
-      <c r="J83" s="71"/>
-      <c r="K83" s="71"/>
-      <c r="L83" s="71"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="74"/>
+      <c r="H83" s="74"/>
+      <c r="I83" s="74"/>
+      <c r="J83" s="74"/>
+      <c r="K83" s="74"/>
+      <c r="L83" s="74"/>
     </row>
     <row r="84" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B84" s="72"/>
-      <c r="C84" s="72"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="72"/>
-      <c r="I84" s="72"/>
-      <c r="J84" s="72"/>
-      <c r="K84" s="72"/>
-      <c r="L84" s="72"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="75"/>
+      <c r="D84" s="75"/>
+      <c r="E84" s="75"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="75"/>
+      <c r="I84" s="75"/>
+      <c r="J84" s="75"/>
+      <c r="K84" s="75"/>
+      <c r="L84" s="75"/>
     </row>
     <row r="86" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
       <c r="B86" s="42" t="s">
@@ -10552,270 +10936,270 @@
     </row>
     <row r="114" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="115" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B115" s="65" t="s">
+      <c r="B115" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="C115" s="66"/>
-      <c r="D115" s="66"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="66"/>
-      <c r="G115" s="66"/>
-      <c r="H115" s="66"/>
-      <c r="I115" s="66"/>
-      <c r="J115" s="66"/>
-      <c r="K115" s="66"/>
-      <c r="L115" s="67"/>
+      <c r="C115" s="93"/>
+      <c r="D115" s="93"/>
+      <c r="E115" s="93"/>
+      <c r="F115" s="93"/>
+      <c r="G115" s="93"/>
+      <c r="H115" s="93"/>
+      <c r="I115" s="93"/>
+      <c r="J115" s="93"/>
+      <c r="K115" s="93"/>
+      <c r="L115" s="94"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B116" s="68" t="s">
+      <c r="B116" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="C116" s="69"/>
-      <c r="D116" s="69"/>
-      <c r="E116" s="69"/>
-      <c r="F116" s="69"/>
-      <c r="G116" s="69"/>
-      <c r="H116" s="69"/>
-      <c r="I116" s="69"/>
-      <c r="J116" s="69"/>
-      <c r="K116" s="69"/>
-      <c r="L116" s="70"/>
+      <c r="C116" s="96"/>
+      <c r="D116" s="96"/>
+      <c r="E116" s="96"/>
+      <c r="F116" s="96"/>
+      <c r="G116" s="96"/>
+      <c r="H116" s="96"/>
+      <c r="I116" s="96"/>
+      <c r="J116" s="96"/>
+      <c r="K116" s="96"/>
+      <c r="L116" s="97"/>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B117" s="59"/>
-      <c r="C117" s="60"/>
-      <c r="D117" s="60"/>
-      <c r="E117" s="60"/>
-      <c r="F117" s="60"/>
-      <c r="G117" s="60"/>
-      <c r="H117" s="60"/>
-      <c r="I117" s="60"/>
-      <c r="J117" s="60"/>
-      <c r="K117" s="60"/>
-      <c r="L117" s="61"/>
+      <c r="B117" s="86"/>
+      <c r="C117" s="87"/>
+      <c r="D117" s="87"/>
+      <c r="E117" s="87"/>
+      <c r="F117" s="87"/>
+      <c r="G117" s="87"/>
+      <c r="H117" s="87"/>
+      <c r="I117" s="87"/>
+      <c r="J117" s="87"/>
+      <c r="K117" s="87"/>
+      <c r="L117" s="88"/>
     </row>
     <row r="118" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B118" s="62" t="s">
+      <c r="B118" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="C118" s="63"/>
-      <c r="D118" s="63"/>
-      <c r="E118" s="63"/>
-      <c r="F118" s="63"/>
-      <c r="G118" s="63"/>
-      <c r="H118" s="63"/>
-      <c r="I118" s="63"/>
-      <c r="J118" s="63"/>
-      <c r="K118" s="63"/>
-      <c r="L118" s="64"/>
+      <c r="C118" s="90"/>
+      <c r="D118" s="90"/>
+      <c r="E118" s="90"/>
+      <c r="F118" s="90"/>
+      <c r="G118" s="90"/>
+      <c r="H118" s="90"/>
+      <c r="I118" s="90"/>
+      <c r="J118" s="90"/>
+      <c r="K118" s="90"/>
+      <c r="L118" s="91"/>
     </row>
     <row r="119" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B117:L117"/>
+    <mergeCell ref="B118:L118"/>
+    <mergeCell ref="B115:L115"/>
+    <mergeCell ref="B116:L116"/>
+    <mergeCell ref="B83:L84"/>
+    <mergeCell ref="B61:L62"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="B72:L73"/>
+    <mergeCell ref="C80:H80"/>
     <mergeCell ref="B3:L4"/>
     <mergeCell ref="B8:L9"/>
     <mergeCell ref="B47:K48"/>
     <mergeCell ref="B18:L19"/>
     <mergeCell ref="B31:K32"/>
     <mergeCell ref="B22:L23"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="B72:L73"/>
-    <mergeCell ref="B61:L62"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="B117:L117"/>
-    <mergeCell ref="B118:L118"/>
-    <mergeCell ref="B115:L115"/>
-    <mergeCell ref="B116:L116"/>
-    <mergeCell ref="B83:L84"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B17 B10:B13">
-    <cfRule type="cellIs" dxfId="163" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="73" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="74" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="75" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="76" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16">
-    <cfRule type="cellIs" dxfId="159" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="65" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="66" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="67" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="68" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="155" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="49" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="50" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="51" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="52" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B62">
-    <cfRule type="cellIs" dxfId="151" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="57" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="58" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="59" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="60" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="cellIs" dxfId="147" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="41" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="42" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="43" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="44" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83:B84">
-    <cfRule type="cellIs" dxfId="143" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="33" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="34" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="35" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="36" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="139" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="29" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="30" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="31" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="32" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="cellIs" dxfId="135" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="21" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="22" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="23" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="24" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="cellIs" dxfId="131" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="17" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="18" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="19" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="20" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="cellIs" dxfId="127" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="13" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="14" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="15" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="16" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="cellIs" dxfId="123" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="9" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="10" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="11" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="12" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="cellIs" dxfId="119" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="7" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="8" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10840,58 +11224,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="17" t="s">
@@ -10904,32 +11288,32 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
     </row>
     <row r="12" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
     </row>
     <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B13" s="9" t="s">
@@ -10970,8 +11354,8 @@
   <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11010,32 +11394,32 @@
       <c r="V1" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
     </row>
     <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B5" s="19" t="s">
@@ -11101,32 +11485,32 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
     </row>
     <row r="15" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
     </row>
     <row r="16" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="7"/>
@@ -11172,32 +11556,32 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
     </row>
     <row r="26" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
     </row>
     <row r="28" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B28" s="22" t="s">
@@ -11539,87 +11923,87 @@
       <c r="B48" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="73" t="s">
+      <c r="C48" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="74"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="68"/>
     </row>
     <row r="49" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C49" s="75" t="s">
+      <c r="C49" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="77"/>
     </row>
     <row r="50" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="96" t="s">
+      <c r="C50" s="100" t="s">
         <v>196</v>
       </c>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="97"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="101"/>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="75" t="s">
+      <c r="C51" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="77"/>
     </row>
     <row r="52" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B52" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="95" t="s">
+      <c r="C52" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="D52" s="96"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="97"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="101"/>
     </row>
     <row r="53" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="C53" s="80" t="s">
+      <c r="C53" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="82"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C54" s="105"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="109"/>
+      <c r="H54" s="109"/>
     </row>
     <row r="55" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="25" t="s">
@@ -11648,53 +12032,53 @@
       <c r="B57" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C57" s="73" t="s">
+      <c r="C57" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="74"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="68"/>
     </row>
     <row r="58" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C58" s="75" t="s">
+      <c r="C58" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="77"/>
     </row>
     <row r="59" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B59" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="77" t="s">
+      <c r="C59" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="80"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B60" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="C60" s="80" t="s">
+      <c r="C60" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="82"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C61" s="32"/>
@@ -11705,32 +12089,32 @@
       <c r="H61" s="32"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B62" s="71" t="s">
+      <c r="B62" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="71"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="74"/>
+      <c r="K62" s="74"/>
+      <c r="L62" s="74"/>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B63" s="72"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="75"/>
     </row>
     <row r="65" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B65" s="22" t="s">
@@ -11752,82 +12136,87 @@
       <c r="B67" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C67" s="73" t="s">
+      <c r="C67" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="74"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="68"/>
     </row>
     <row r="68" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C68" s="85" t="s">
+      <c r="C68" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="D68" s="86"/>
-      <c r="E68" s="86"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="86"/>
-      <c r="H68" s="87"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="71"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B69" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="C69" s="88" t="s">
+      <c r="C69" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="D69" s="88"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="88"/>
-      <c r="H69" s="89"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="73"/>
     </row>
     <row r="70" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B70" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C70" s="104" t="s">
+      <c r="C70" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="D70" s="75"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="75"/>
-      <c r="G70" s="75"/>
-      <c r="H70" s="76"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="76"/>
+      <c r="H70" s="77"/>
     </row>
     <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B71" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C71" s="98" t="s">
+      <c r="C71" s="102" t="s">
         <v>221</v>
       </c>
-      <c r="D71" s="99"/>
-      <c r="E71" s="99"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="99"/>
-      <c r="H71" s="100"/>
+      <c r="D71" s="103"/>
+      <c r="E71" s="103"/>
+      <c r="F71" s="103"/>
+      <c r="G71" s="103"/>
+      <c r="H71" s="104"/>
     </row>
     <row r="72" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B72" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="C72" s="101" t="s">
+      <c r="C72" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="D72" s="102"/>
-      <c r="E72" s="102"/>
-      <c r="F72" s="102"/>
-      <c r="G72" s="102"/>
-      <c r="H72" s="103"/>
+      <c r="D72" s="106"/>
+      <c r="E72" s="106"/>
+      <c r="F72" s="106"/>
+      <c r="G72" s="106"/>
+      <c r="H72" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B62:L63"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C59:H59"/>
     <mergeCell ref="C52:H52"/>
     <mergeCell ref="C71:H71"/>
     <mergeCell ref="C72:H72"/>
@@ -11844,178 +12233,173 @@
     <mergeCell ref="C70:H70"/>
     <mergeCell ref="C53:H53"/>
     <mergeCell ref="C54:H54"/>
-    <mergeCell ref="B62:L63"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C59:H59"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="cellIs" dxfId="111" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="29" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="30" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="31" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="32" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B10">
-    <cfRule type="cellIs" dxfId="107" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="45" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="46" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="47" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="48" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="cellIs" dxfId="103" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="41" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="42" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="43" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="44" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B26">
-    <cfRule type="cellIs" dxfId="99" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="37" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="38" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="39" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="40" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="cellIs" dxfId="95" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="33" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="34" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="35" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="36" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="cellIs" dxfId="91" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="25" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="26" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="27" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="28" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="87" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="17" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="18" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="19" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="20" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:B63">
-    <cfRule type="cellIs" dxfId="83" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="21" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="22" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="23" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="24" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="79" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="13" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="14" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="15" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="16" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="75" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="9" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="10" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="11" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="12" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12052,30 +12436,30 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12083,16 +12467,16 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12104,9 +12488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12115,58 +12499,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="17" t="s">
@@ -12179,32 +12563,32 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
     </row>
     <row r="9" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
     </row>
     <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B11" s="21" t="s">
@@ -12285,37 +12669,37 @@
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="B21" s="109" t="s">
+      <c r="B21" s="45" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
     </row>
     <row r="24" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
     </row>
     <row r="26" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B26" s="21" t="s">
@@ -12338,32 +12722,32 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
     </row>
     <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
     </row>
     <row r="32" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B32" s="21" t="s">
@@ -12406,487 +12790,479 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
     </row>
     <row r="39" spans="2:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B68" s="71" t="s">
+      <c r="B68" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="71"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="74"/>
+      <c r="L68" s="74"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B69" s="72"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="72"/>
-      <c r="I69" s="72"/>
-      <c r="J69" s="72"/>
-      <c r="K69" s="72"/>
-      <c r="L69" s="72"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="75"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="75"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="75"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
     </row>
     <row r="70" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B71" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C71" s="73" t="s">
+      <c r="C71" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="74"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="68"/>
     </row>
     <row r="72" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B72" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="C72" s="75" t="s">
+      <c r="C72" s="76" t="s">
         <v>248</v>
       </c>
-      <c r="D72" s="75"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="75"/>
-      <c r="G72" s="75"/>
-      <c r="H72" s="76"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="77"/>
     </row>
     <row r="73" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B73" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="C73" s="82" t="s">
+      <c r="C73" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="D73" s="82"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="82"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="83"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="65"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B75" s="71" t="s">
+      <c r="B75" s="74" t="s">
         <v>232</v>
       </c>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="71"/>
-      <c r="L75" s="71"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="74"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="74"/>
+      <c r="K75" s="74"/>
+      <c r="L75" s="74"/>
     </row>
     <row r="76" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B76" s="72"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="72"/>
-      <c r="J76" s="72"/>
-      <c r="K76" s="72"/>
-      <c r="L76" s="72"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="75"/>
+      <c r="I76" s="75"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="75"/>
+      <c r="L76" s="75"/>
     </row>
     <row r="77" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="78" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B78" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C78" s="73" t="s">
+      <c r="C78" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="D78" s="73"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="74"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="68"/>
     </row>
     <row r="79" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B79" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="C79" s="75" t="s">
+      <c r="C79" s="76" t="s">
         <v>253</v>
       </c>
-      <c r="D79" s="75"/>
-      <c r="E79" s="75"/>
-      <c r="F79" s="75"/>
-      <c r="G79" s="75"/>
-      <c r="H79" s="76"/>
+      <c r="D79" s="76"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="76"/>
+      <c r="H79" s="77"/>
     </row>
     <row r="80" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B80" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="C80" s="82" t="s">
+      <c r="C80" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="D80" s="82"/>
-      <c r="E80" s="82"/>
-      <c r="F80" s="82"/>
-      <c r="G80" s="82"/>
-      <c r="H80" s="83"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="65"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B82" s="71" t="s">
+      <c r="B82" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="C82" s="71"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="71"/>
-      <c r="J82" s="71"/>
-      <c r="K82" s="71"/>
-      <c r="L82" s="71"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="74"/>
+      <c r="I82" s="74"/>
+      <c r="J82" s="74"/>
+      <c r="K82" s="74"/>
+      <c r="L82" s="74"/>
     </row>
     <row r="83" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B83" s="72"/>
-      <c r="C83" s="72"/>
-      <c r="D83" s="72"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="72"/>
-      <c r="H83" s="72"/>
-      <c r="I83" s="72"/>
-      <c r="J83" s="72"/>
-      <c r="K83" s="72"/>
-      <c r="L83" s="72"/>
+      <c r="B83" s="75"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="75"/>
+      <c r="E83" s="75"/>
+      <c r="F83" s="75"/>
+      <c r="G83" s="75"/>
+      <c r="H83" s="75"/>
+      <c r="I83" s="75"/>
+      <c r="J83" s="75"/>
+      <c r="K83" s="75"/>
+      <c r="L83" s="75"/>
     </row>
     <row r="84" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="85" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B85" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C85" s="73" t="s">
+      <c r="C85" s="67" t="s">
         <v>257</v>
       </c>
-      <c r="D85" s="73"/>
-      <c r="E85" s="73"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="73"/>
-      <c r="H85" s="74"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67"/>
+      <c r="H85" s="68"/>
     </row>
     <row r="86" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B86" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="C86" s="75" t="s">
+      <c r="C86" s="76" t="s">
         <v>259</v>
       </c>
-      <c r="D86" s="75"/>
-      <c r="E86" s="75"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="75"/>
-      <c r="H86" s="76"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="76"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="77"/>
     </row>
     <row r="87" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B87" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="C87" s="96" t="s">
+      <c r="C87" s="100" t="s">
         <v>263</v>
       </c>
-      <c r="D87" s="96"/>
-      <c r="E87" s="96"/>
-      <c r="F87" s="96"/>
-      <c r="G87" s="96"/>
-      <c r="H87" s="97"/>
+      <c r="D87" s="100"/>
+      <c r="E87" s="100"/>
+      <c r="F87" s="100"/>
+      <c r="G87" s="100"/>
+      <c r="H87" s="101"/>
     </row>
     <row r="88" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B88" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="C88" s="75" t="s">
+      <c r="C88" s="76" t="s">
         <v>265</v>
       </c>
-      <c r="D88" s="75"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="75"/>
-      <c r="G88" s="75"/>
-      <c r="H88" s="76"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="76"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="76"/>
+      <c r="H88" s="77"/>
     </row>
     <row r="89" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B89" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="C89" s="99" t="s">
+      <c r="C89" s="103" t="s">
         <v>267</v>
       </c>
-      <c r="D89" s="99"/>
-      <c r="E89" s="99"/>
-      <c r="F89" s="99"/>
-      <c r="G89" s="99"/>
-      <c r="H89" s="100"/>
+      <c r="D89" s="103"/>
+      <c r="E89" s="103"/>
+      <c r="F89" s="103"/>
+      <c r="G89" s="103"/>
+      <c r="H89" s="104"/>
     </row>
     <row r="90" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B90" s="110" t="s">
+      <c r="B90" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="C90" s="111" t="s">
+      <c r="C90" s="115" t="s">
         <v>269</v>
       </c>
-      <c r="D90" s="111"/>
-      <c r="E90" s="111"/>
-      <c r="F90" s="111"/>
-      <c r="G90" s="111"/>
-      <c r="H90" s="112"/>
+      <c r="D90" s="115"/>
+      <c r="E90" s="115"/>
+      <c r="F90" s="115"/>
+      <c r="G90" s="115"/>
+      <c r="H90" s="116"/>
     </row>
     <row r="91" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B91" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="C91" s="96" t="s">
+      <c r="C91" s="100" t="s">
         <v>271</v>
       </c>
-      <c r="D91" s="96"/>
-      <c r="E91" s="96"/>
-      <c r="F91" s="96"/>
-      <c r="G91" s="96"/>
-      <c r="H91" s="97"/>
+      <c r="D91" s="100"/>
+      <c r="E91" s="100"/>
+      <c r="F91" s="100"/>
+      <c r="G91" s="100"/>
+      <c r="H91" s="101"/>
     </row>
     <row r="92" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B92" s="113" t="s">
+      <c r="B92" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="C92" s="114" t="s">
+      <c r="C92" s="113" t="s">
         <v>261</v>
       </c>
-      <c r="D92" s="114"/>
-      <c r="E92" s="114"/>
-      <c r="F92" s="114"/>
-      <c r="G92" s="114"/>
-      <c r="H92" s="115"/>
+      <c r="D92" s="113"/>
+      <c r="E92" s="113"/>
+      <c r="F92" s="113"/>
+      <c r="G92" s="113"/>
+      <c r="H92" s="114"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B94" s="71" t="s">
+      <c r="B94" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="C94" s="71"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="71"/>
-      <c r="H94" s="71"/>
-      <c r="I94" s="71"/>
-      <c r="J94" s="71"/>
-      <c r="K94" s="71"/>
-      <c r="L94" s="71"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="74"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="74"/>
+      <c r="G94" s="74"/>
+      <c r="H94" s="74"/>
+      <c r="I94" s="74"/>
+      <c r="J94" s="74"/>
+      <c r="K94" s="74"/>
+      <c r="L94" s="74"/>
     </row>
     <row r="95" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B95" s="72"/>
-      <c r="C95" s="72"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="72"/>
-      <c r="H95" s="72"/>
-      <c r="I95" s="72"/>
-      <c r="J95" s="72"/>
-      <c r="K95" s="72"/>
-      <c r="L95" s="72"/>
+      <c r="B95" s="75"/>
+      <c r="C95" s="75"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="75"/>
+      <c r="F95" s="75"/>
+      <c r="G95" s="75"/>
+      <c r="H95" s="75"/>
+      <c r="I95" s="75"/>
+      <c r="J95" s="75"/>
+      <c r="K95" s="75"/>
+      <c r="L95" s="75"/>
     </row>
     <row r="96" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="97" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B97" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="C97" s="73" t="s">
+      <c r="C97" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="D97" s="73"/>
-      <c r="E97" s="73"/>
-      <c r="F97" s="73"/>
-      <c r="G97" s="73"/>
-      <c r="H97" s="74"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="68"/>
     </row>
     <row r="98" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B98" s="113" t="s">
+      <c r="B98" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="C98" s="114" t="s">
+      <c r="C98" s="113" t="s">
         <v>273</v>
       </c>
-      <c r="D98" s="114"/>
-      <c r="E98" s="114"/>
-      <c r="F98" s="114"/>
-      <c r="G98" s="114"/>
-      <c r="H98" s="115"/>
+      <c r="D98" s="113"/>
+      <c r="E98" s="113"/>
+      <c r="F98" s="113"/>
+      <c r="G98" s="113"/>
+      <c r="H98" s="114"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B100" s="71" t="s">
+      <c r="B100" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="C100" s="71"/>
-      <c r="D100" s="71"/>
-      <c r="E100" s="71"/>
-      <c r="F100" s="71"/>
-      <c r="G100" s="71"/>
-      <c r="H100" s="71"/>
-      <c r="I100" s="71"/>
-      <c r="J100" s="71"/>
-      <c r="K100" s="71"/>
-      <c r="L100" s="71"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="74"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="74"/>
+      <c r="G100" s="74"/>
+      <c r="H100" s="74"/>
+      <c r="I100" s="74"/>
+      <c r="J100" s="74"/>
+      <c r="K100" s="74"/>
+      <c r="L100" s="74"/>
     </row>
     <row r="101" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B101" s="72"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="72"/>
-      <c r="H101" s="72"/>
-      <c r="I101" s="72"/>
-      <c r="J101" s="72"/>
-      <c r="K101" s="72"/>
-      <c r="L101" s="72"/>
+      <c r="B101" s="75"/>
+      <c r="C101" s="75"/>
+      <c r="D101" s="75"/>
+      <c r="E101" s="75"/>
+      <c r="F101" s="75"/>
+      <c r="G101" s="75"/>
+      <c r="H101" s="75"/>
+      <c r="I101" s="75"/>
+      <c r="J101" s="75"/>
+      <c r="K101" s="75"/>
+      <c r="L101" s="75"/>
     </row>
     <row r="102" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="103" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B103" s="118" t="s">
+      <c r="B103" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="C103" s="119" t="s">
+      <c r="C103" s="110" t="s">
         <v>280</v>
       </c>
-      <c r="D103" s="116"/>
-      <c r="E103" s="116"/>
-      <c r="F103" s="116"/>
-      <c r="G103" s="116"/>
-      <c r="H103" s="116"/>
-      <c r="I103" s="117"/>
+      <c r="D103" s="111"/>
+      <c r="E103" s="111"/>
+      <c r="F103" s="111"/>
+      <c r="G103" s="111"/>
+      <c r="H103" s="111"/>
+      <c r="I103" s="112"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B105" s="71" t="s">
+      <c r="B105" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="C105" s="71"/>
-      <c r="D105" s="71"/>
-      <c r="E105" s="71"/>
-      <c r="F105" s="71"/>
-      <c r="G105" s="71"/>
-      <c r="H105" s="71"/>
-      <c r="I105" s="71"/>
-      <c r="J105" s="71"/>
-      <c r="K105" s="71"/>
-      <c r="L105" s="71"/>
+      <c r="C105" s="74"/>
+      <c r="D105" s="74"/>
+      <c r="E105" s="74"/>
+      <c r="F105" s="74"/>
+      <c r="G105" s="74"/>
+      <c r="H105" s="74"/>
+      <c r="I105" s="74"/>
+      <c r="J105" s="74"/>
+      <c r="K105" s="74"/>
+      <c r="L105" s="74"/>
     </row>
     <row r="106" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B106" s="72"/>
-      <c r="C106" s="72"/>
-      <c r="D106" s="72"/>
-      <c r="E106" s="72"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="72"/>
-      <c r="H106" s="72"/>
-      <c r="I106" s="72"/>
-      <c r="J106" s="72"/>
-      <c r="K106" s="72"/>
-      <c r="L106" s="72"/>
+      <c r="B106" s="75"/>
+      <c r="C106" s="75"/>
+      <c r="D106" s="75"/>
+      <c r="E106" s="75"/>
+      <c r="F106" s="75"/>
+      <c r="G106" s="75"/>
+      <c r="H106" s="75"/>
+      <c r="I106" s="75"/>
+      <c r="J106" s="75"/>
+      <c r="K106" s="75"/>
+      <c r="L106" s="75"/>
     </row>
     <row r="107" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="108" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B108" s="118" t="s">
+      <c r="B108" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="C108" s="119" t="s">
+      <c r="C108" s="110" t="s">
         <v>281</v>
       </c>
-      <c r="D108" s="116"/>
-      <c r="E108" s="116"/>
-      <c r="F108" s="116"/>
-      <c r="G108" s="116"/>
-      <c r="H108" s="116"/>
-      <c r="I108" s="117"/>
+      <c r="D108" s="111"/>
+      <c r="E108" s="111"/>
+      <c r="F108" s="111"/>
+      <c r="G108" s="111"/>
+      <c r="H108" s="111"/>
+      <c r="I108" s="112"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B110" s="71" t="s">
+      <c r="B110" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="C110" s="71"/>
-      <c r="D110" s="71"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="71"/>
-      <c r="H110" s="71"/>
-      <c r="I110" s="71"/>
-      <c r="J110" s="71"/>
-      <c r="K110" s="71"/>
-      <c r="L110" s="71"/>
+      <c r="C110" s="74"/>
+      <c r="D110" s="74"/>
+      <c r="E110" s="74"/>
+      <c r="F110" s="74"/>
+      <c r="G110" s="74"/>
+      <c r="H110" s="74"/>
+      <c r="I110" s="74"/>
+      <c r="J110" s="74"/>
+      <c r="K110" s="74"/>
+      <c r="L110" s="74"/>
     </row>
     <row r="111" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B111" s="72"/>
-      <c r="C111" s="72"/>
-      <c r="D111" s="72"/>
-      <c r="E111" s="72"/>
-      <c r="F111" s="72"/>
-      <c r="G111" s="72"/>
-      <c r="H111" s="72"/>
-      <c r="I111" s="72"/>
-      <c r="J111" s="72"/>
-      <c r="K111" s="72"/>
-      <c r="L111" s="72"/>
+      <c r="B111" s="75"/>
+      <c r="C111" s="75"/>
+      <c r="D111" s="75"/>
+      <c r="E111" s="75"/>
+      <c r="F111" s="75"/>
+      <c r="G111" s="75"/>
+      <c r="H111" s="75"/>
+      <c r="I111" s="75"/>
+      <c r="J111" s="75"/>
+      <c r="K111" s="75"/>
+      <c r="L111" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C108:I108"/>
-    <mergeCell ref="B100:L101"/>
-    <mergeCell ref="C103:I103"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="B29:L30"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="B75:L76"/>
-    <mergeCell ref="B105:L106"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B38:L39"/>
+    <mergeCell ref="B68:L69"/>
+    <mergeCell ref="B23:L24"/>
     <mergeCell ref="B110:L111"/>
     <mergeCell ref="B82:L83"/>
     <mergeCell ref="B94:L95"/>
@@ -12898,137 +13274,145 @@
     <mergeCell ref="C88:H88"/>
     <mergeCell ref="C89:H89"/>
     <mergeCell ref="C90:H90"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="B38:L39"/>
-    <mergeCell ref="B68:L69"/>
-    <mergeCell ref="B23:L24"/>
+    <mergeCell ref="B29:L30"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="B75:L76"/>
+    <mergeCell ref="C108:I108"/>
+    <mergeCell ref="B100:L101"/>
+    <mergeCell ref="C103:I103"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="B105:L106"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B68:B69">
-    <cfRule type="cellIs" dxfId="59" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B76">
-    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="47" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B111">
-    <cfRule type="cellIs" dxfId="51" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:B95">
-    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:B36">
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100:B101">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13053,6 +13437,531 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B3" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+    </row>
+    <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="17"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B8" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+    </row>
+    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B11" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B14" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="17" spans="2:12" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="120" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+    </row>
+    <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" s="124" t="s">
+        <v>300</v>
+      </c>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
+    </row>
+    <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="34"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="77"/>
+    </row>
+    <row r="20" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="35"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="101"/>
+    </row>
+    <row r="21" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="34"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+    </row>
+    <row r="22" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="40"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="101"/>
+    </row>
+    <row r="23" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="38"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="82"/>
+    </row>
+    <row r="25" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+    </row>
+    <row r="26" spans="2:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+    </row>
+    <row r="28" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B28" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="31" spans="2:12" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="137" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="144" t="s">
+        <v>298</v>
+      </c>
+      <c r="H31" s="145"/>
+      <c r="I31" s="146"/>
+    </row>
+    <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="140" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="141" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="133"/>
+    </row>
+    <row r="33" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B33" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="C33" s="108" t="s">
+        <v>292</v>
+      </c>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="133"/>
+    </row>
+    <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="C34" s="126" t="s">
+        <v>293</v>
+      </c>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="133"/>
+    </row>
+    <row r="35" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C35" s="108" t="s">
+        <v>294</v>
+      </c>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="133"/>
+    </row>
+    <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B36" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="126" t="s">
+        <v>296</v>
+      </c>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="133"/>
+    </row>
+    <row r="37" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="C37" s="129" t="s">
+        <v>301</v>
+      </c>
+      <c r="D37" s="130"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="136"/>
+    </row>
+    <row r="39" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B39" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="43" spans="2:12" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="137" t="s">
+        <v>287</v>
+      </c>
+      <c r="C43" s="138"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="144" t="s">
+        <v>298</v>
+      </c>
+      <c r="H43" s="145"/>
+      <c r="I43" s="146"/>
+    </row>
+    <row r="44" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B44" s="140" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="125" t="s">
+        <v>291</v>
+      </c>
+      <c r="D44" s="148"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="149"/>
+      <c r="G44" s="132"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="133"/>
+    </row>
+    <row r="45" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B45" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="C45" s="108" t="s">
+        <v>292</v>
+      </c>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="133"/>
+    </row>
+    <row r="46" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="C46" s="99" t="s">
+        <v>293</v>
+      </c>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="133"/>
+    </row>
+    <row r="47" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C47" s="108" t="s">
+        <v>304</v>
+      </c>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="133"/>
+    </row>
+    <row r="48" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B48" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="C48" s="99" t="s">
+        <v>296</v>
+      </c>
+      <c r="D48" s="100"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="109"/>
+      <c r="I48" s="133"/>
+    </row>
+    <row r="49" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B49" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="C49" s="123" t="s">
+        <v>301</v>
+      </c>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="135"/>
+      <c r="I49" s="136"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I49"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G32:I37"/>
+    <mergeCell ref="B25:L26"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B14:L15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B18" location="スキル詳細!A46" display="基本情報"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
@@ -13064,133 +13973,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B3:L4"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-    </row>
-    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="315">
   <si>
     <t>オンライン利用技術</t>
     <rPh sb="5" eb="7">
@@ -3046,17 +3046,108 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>居合抜刀気刃斬り</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>超長い</t>
+    <t>回転切り</t>
+    <rPh sb="0" eb="3">
+      <t>カイテンギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そこそこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのモーションを使うか</t>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターバル時間</t>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次回HITまでのインターバル</t>
+    <rPh sb="0" eb="2">
+      <t>ジカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターバル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長い</t>
     <rPh sb="0" eb="1">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
       <t>ナガ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターバル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短い</t>
+    <rPh sb="0" eb="1">
+      <t>ミジカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前方に回転しながら突撃する。回転中は多段ヒットする。敵に衝突した場合そこで留まって時間内まで回転切りを行う。</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンポウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トツゲキ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カイテンチュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タダン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>カイテンギ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふつう</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3345,7 +3436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -4016,10 +4107,38 @@
     </border>
     <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color theme="9" tint="0.39994506668294322"/>
-      </left>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top/>
+      <top style="medium">
+        <color theme="9" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="0.59996337778862885"/>
+      </top>
       <bottom style="medium">
         <color theme="9" tint="0.39994506668294322"/>
       </bottom>
@@ -4030,7 +4149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4108,6 +4227,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4128,96 +4261,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4255,6 +4298,84 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4291,6 +4412,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4306,45 +4433,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4360,33 +4469,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -8814,6 +8939,110 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>245176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>430696</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>53020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5055704" y="10899924"/>
+          <a:ext cx="1736035" cy="1736035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>343774</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>4507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179687</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>234033</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1731591">
+          <a:off x="5366348" y="11156211"/>
+          <a:ext cx="1174382" cy="1183683"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9110,35 +9339,35 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="49" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="52"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
       <c r="L3" t="s">
         <v>0</v>
       </c>
@@ -9147,18 +9376,18 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
       <c r="L4" t="s">
         <v>1</v>
       </c>
@@ -9167,18 +9396,18 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="57" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -9187,18 +9416,18 @@
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
       <c r="L6" t="s">
         <v>3</v>
       </c>
@@ -9207,18 +9436,18 @@
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
       <c r="L7" t="s">
         <v>4</v>
       </c>
@@ -9227,140 +9456,158 @@
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57" t="s">
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57" t="s">
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57" t="s">
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57" t="s">
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="58"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57" t="s">
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="58"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="C15:E15"/>
@@ -9371,24 +9618,6 @@
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:J13"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
@@ -9418,58 +9647,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9493,58 +9722,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9633,44 +9862,44 @@
       <c r="L4" s="75"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
     </row>
     <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
     </row>
     <row r="7" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
     </row>
     <row r="8" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
     </row>
     <row r="9" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="140" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="74" t="s">
@@ -10171,32 +10400,32 @@
       <c r="V1" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="17" t="s">
@@ -10209,32 +10438,32 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
     </row>
     <row r="9" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
     </row>
     <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B11" s="21" t="s">
@@ -10286,60 +10515,60 @@
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="96" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
     </row>
     <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="96" t="s">
         <v>229</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
     </row>
     <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
     </row>
     <row r="24" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24"/>
@@ -10391,34 +10620,34 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="18"/>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="18"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
@@ -10457,34 +10686,34 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" s="18"/>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="98"/>
+      <c r="J47" s="98"/>
+      <c r="K47" s="98"/>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
     </row>
     <row r="48" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="18"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
       <c r="N48" s="18"/>
@@ -10544,67 +10773,67 @@
       <c r="B66" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="C66" s="67" t="s">
+      <c r="C66" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="68"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="77"/>
     </row>
     <row r="67" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B67" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="C67" s="76" t="s">
+      <c r="C67" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="D67" s="76"/>
-      <c r="E67" s="76"/>
-      <c r="F67" s="76"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="77"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="79"/>
     </row>
     <row r="68" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="C68" s="78" t="s">
+      <c r="C68" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="80"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="82"/>
     </row>
     <row r="69" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B69" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="C69" s="81" t="s">
+      <c r="C69" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="82"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="84"/>
     </row>
     <row r="70" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="39"/>
       <c r="B70" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="C70" s="64" t="s">
+      <c r="C70" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="65"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="86"/>
       <c r="I70" s="39"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.45">
@@ -10687,66 +10916,66 @@
       <c r="B77" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C77" s="67" t="s">
+      <c r="C77" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="D77" s="67"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
-      <c r="H77" s="68"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="76"/>
+      <c r="H77" s="77"/>
     </row>
     <row r="78" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B78" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="C78" s="69" t="s">
+      <c r="C78" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="71"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="89"/>
+      <c r="H78" s="90"/>
     </row>
     <row r="79" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B79" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C79" s="72" t="s">
+      <c r="C79" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="D79" s="72"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="73"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="91"/>
+      <c r="G79" s="91"/>
+      <c r="H79" s="92"/>
     </row>
     <row r="80" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B80" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="C80" s="83" t="s">
+      <c r="C80" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="84"/>
-      <c r="H80" s="85"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="94"/>
+      <c r="F80" s="94"/>
+      <c r="G80" s="94"/>
+      <c r="H80" s="95"/>
     </row>
     <row r="81" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B81" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="66" t="s">
+      <c r="C81" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="D81" s="64"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="65"/>
+      <c r="D81" s="85"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="86"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B83" s="74" t="s">
@@ -10936,76 +11165,72 @@
     </row>
     <row r="114" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="115" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B115" s="92" t="s">
+      <c r="B115" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C115" s="93"/>
-      <c r="D115" s="93"/>
-      <c r="E115" s="93"/>
-      <c r="F115" s="93"/>
-      <c r="G115" s="93"/>
-      <c r="H115" s="93"/>
-      <c r="I115" s="93"/>
-      <c r="J115" s="93"/>
-      <c r="K115" s="93"/>
-      <c r="L115" s="94"/>
+      <c r="C115" s="69"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="69"/>
+      <c r="F115" s="69"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="69"/>
+      <c r="I115" s="69"/>
+      <c r="J115" s="69"/>
+      <c r="K115" s="69"/>
+      <c r="L115" s="70"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B116" s="95" t="s">
+      <c r="B116" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C116" s="96"/>
-      <c r="D116" s="96"/>
-      <c r="E116" s="96"/>
-      <c r="F116" s="96"/>
-      <c r="G116" s="96"/>
-      <c r="H116" s="96"/>
-      <c r="I116" s="96"/>
-      <c r="J116" s="96"/>
-      <c r="K116" s="96"/>
-      <c r="L116" s="97"/>
+      <c r="C116" s="72"/>
+      <c r="D116" s="72"/>
+      <c r="E116" s="72"/>
+      <c r="F116" s="72"/>
+      <c r="G116" s="72"/>
+      <c r="H116" s="72"/>
+      <c r="I116" s="72"/>
+      <c r="J116" s="72"/>
+      <c r="K116" s="72"/>
+      <c r="L116" s="73"/>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B117" s="86"/>
-      <c r="C117" s="87"/>
-      <c r="D117" s="87"/>
-      <c r="E117" s="87"/>
-      <c r="F117" s="87"/>
-      <c r="G117" s="87"/>
-      <c r="H117" s="87"/>
-      <c r="I117" s="87"/>
-      <c r="J117" s="87"/>
-      <c r="K117" s="87"/>
-      <c r="L117" s="88"/>
+      <c r="B117" s="62"/>
+      <c r="C117" s="63"/>
+      <c r="D117" s="63"/>
+      <c r="E117" s="63"/>
+      <c r="F117" s="63"/>
+      <c r="G117" s="63"/>
+      <c r="H117" s="63"/>
+      <c r="I117" s="63"/>
+      <c r="J117" s="63"/>
+      <c r="K117" s="63"/>
+      <c r="L117" s="64"/>
     </row>
     <row r="118" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B118" s="89" t="s">
+      <c r="B118" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C118" s="90"/>
-      <c r="D118" s="90"/>
-      <c r="E118" s="90"/>
-      <c r="F118" s="90"/>
-      <c r="G118" s="90"/>
-      <c r="H118" s="90"/>
-      <c r="I118" s="90"/>
-      <c r="J118" s="90"/>
-      <c r="K118" s="90"/>
-      <c r="L118" s="91"/>
+      <c r="C118" s="66"/>
+      <c r="D118" s="66"/>
+      <c r="E118" s="66"/>
+      <c r="F118" s="66"/>
+      <c r="G118" s="66"/>
+      <c r="H118" s="66"/>
+      <c r="I118" s="66"/>
+      <c r="J118" s="66"/>
+      <c r="K118" s="66"/>
+      <c r="L118" s="67"/>
     </row>
     <row r="119" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B117:L117"/>
-    <mergeCell ref="B118:L118"/>
-    <mergeCell ref="B115:L115"/>
-    <mergeCell ref="B116:L116"/>
-    <mergeCell ref="B83:L84"/>
-    <mergeCell ref="B61:L62"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B47:K48"/>
+    <mergeCell ref="B18:L19"/>
+    <mergeCell ref="B31:K32"/>
+    <mergeCell ref="B22:L23"/>
     <mergeCell ref="C70:H70"/>
     <mergeCell ref="C81:H81"/>
     <mergeCell ref="C77:H77"/>
@@ -11013,12 +11238,16 @@
     <mergeCell ref="C79:H79"/>
     <mergeCell ref="B72:L73"/>
     <mergeCell ref="C80:H80"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="B47:K48"/>
-    <mergeCell ref="B18:L19"/>
-    <mergeCell ref="B31:K32"/>
-    <mergeCell ref="B22:L23"/>
+    <mergeCell ref="B61:L62"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="B117:L117"/>
+    <mergeCell ref="B118:L118"/>
+    <mergeCell ref="B115:L115"/>
+    <mergeCell ref="B116:L116"/>
+    <mergeCell ref="B83:L84"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B17 B10:B13">
@@ -11224,30 +11453,30 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B3" s="74" t="s">
@@ -11394,32 +11623,32 @@
       <c r="V1" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
     </row>
     <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B5" s="19" t="s">
@@ -11485,32 +11714,32 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="96" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
     </row>
     <row r="15" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
     </row>
     <row r="16" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="7"/>
@@ -11923,87 +12152,87 @@
       <c r="B48" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="68"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="77"/>
     </row>
     <row r="49" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C49" s="76" t="s">
+      <c r="C49" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="77"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="79"/>
     </row>
     <row r="50" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="100" t="s">
+      <c r="C50" s="102" t="s">
         <v>196</v>
       </c>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="101"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="103"/>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="76" t="s">
+      <c r="C51" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="77"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="79"/>
     </row>
     <row r="52" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B52" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="99" t="s">
+      <c r="C52" s="101" t="s">
         <v>194</v>
       </c>
-      <c r="D52" s="100"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="101"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="103"/>
     </row>
     <row r="53" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="C53" s="81" t="s">
+      <c r="C53" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="82"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="84"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="111"/>
     </row>
     <row r="55" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="25" t="s">
@@ -12032,53 +12261,53 @@
       <c r="B57" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="68"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="77"/>
     </row>
     <row r="58" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C58" s="76" t="s">
+      <c r="C58" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="77"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="79"/>
     </row>
     <row r="59" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B59" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="78" t="s">
+      <c r="C59" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="80"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="82"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B60" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="C60" s="81" t="s">
+      <c r="C60" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="82"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="84"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C61" s="32"/>
@@ -12136,87 +12365,82 @@
       <c r="B67" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C67" s="67" t="s">
+      <c r="C67" s="76" t="s">
         <v>217</v>
       </c>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="68"/>
+      <c r="D67" s="76"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="77"/>
     </row>
     <row r="68" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C68" s="69" t="s">
+      <c r="C68" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="71"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="90"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B69" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="C69" s="72" t="s">
+      <c r="C69" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="73"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="92"/>
     </row>
     <row r="70" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B70" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C70" s="108" t="s">
+      <c r="C70" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
-      <c r="H70" s="77"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="78"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="78"/>
+      <c r="H70" s="79"/>
     </row>
     <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B71" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C71" s="102" t="s">
+      <c r="C71" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="D71" s="103"/>
-      <c r="E71" s="103"/>
-      <c r="F71" s="103"/>
-      <c r="G71" s="103"/>
-      <c r="H71" s="104"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="106"/>
     </row>
     <row r="72" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B72" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="C72" s="105" t="s">
+      <c r="C72" s="107" t="s">
         <v>222</v>
       </c>
-      <c r="D72" s="106"/>
-      <c r="E72" s="106"/>
-      <c r="F72" s="106"/>
-      <c r="G72" s="106"/>
-      <c r="H72" s="107"/>
+      <c r="D72" s="108"/>
+      <c r="E72" s="108"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B62:L63"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C59:H59"/>
     <mergeCell ref="C52:H52"/>
     <mergeCell ref="C71:H71"/>
     <mergeCell ref="C72:H72"/>
@@ -12233,6 +12457,11 @@
     <mergeCell ref="C70:H70"/>
     <mergeCell ref="C53:H53"/>
     <mergeCell ref="C54:H54"/>
+    <mergeCell ref="B62:L63"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C59:H59"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B30:B31">
@@ -12436,30 +12665,30 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12486,11 +12715,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C94" sqref="C94:H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12499,58 +12728,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="17" t="s">
@@ -12563,32 +12792,32 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
     </row>
     <row r="9" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
     </row>
     <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B11" s="21" t="s">
@@ -12674,32 +12903,32 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
     </row>
     <row r="24" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
     </row>
     <row r="26" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B26" s="21" t="s">
@@ -12722,32 +12951,32 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="96" t="s">
         <v>243</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
     </row>
     <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="97"/>
     </row>
     <row r="32" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B32" s="21" t="s">
@@ -12790,32 +13019,32 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="96" t="s">
         <v>229</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="96"/>
     </row>
     <row r="39" spans="2:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="97"/>
+      <c r="K39" s="97"/>
+      <c r="L39" s="97"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B68" s="74" t="s">
@@ -12850,40 +13079,40 @@
       <c r="B71" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C71" s="67" t="s">
+      <c r="C71" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="68"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="77"/>
     </row>
     <row r="72" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B72" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="C72" s="76" t="s">
+      <c r="C72" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="77"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="78"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="78"/>
+      <c r="H72" s="79"/>
     </row>
     <row r="73" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B73" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="C73" s="64" t="s">
+      <c r="C73" s="85" t="s">
         <v>250</v>
       </c>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="65"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="86"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B75" s="74" t="s">
@@ -12918,40 +13147,40 @@
       <c r="B78" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C78" s="67" t="s">
+      <c r="C78" s="76" t="s">
         <v>251</v>
       </c>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="68"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="77"/>
     </row>
     <row r="79" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B79" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="C79" s="76" t="s">
+      <c r="C79" s="78" t="s">
         <v>253</v>
       </c>
-      <c r="D79" s="76"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="76"/>
-      <c r="H79" s="77"/>
+      <c r="D79" s="78"/>
+      <c r="E79" s="78"/>
+      <c r="F79" s="78"/>
+      <c r="G79" s="78"/>
+      <c r="H79" s="79"/>
     </row>
     <row r="80" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B80" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="C80" s="64" t="s">
+      <c r="C80" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="65"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="85"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="85"/>
+      <c r="H80" s="86"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B82" s="74" t="s">
@@ -12986,286 +13215,316 @@
       <c r="B85" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C85" s="67" t="s">
+      <c r="C85" s="76" t="s">
         <v>257</v>
       </c>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="68"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="77"/>
     </row>
     <row r="86" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B86" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="C86" s="76" t="s">
+      <c r="C86" s="78" t="s">
         <v>259</v>
       </c>
-      <c r="D86" s="76"/>
-      <c r="E86" s="76"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="76"/>
-      <c r="H86" s="77"/>
+      <c r="D86" s="78"/>
+      <c r="E86" s="78"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="78"/>
+      <c r="H86" s="79"/>
     </row>
     <row r="87" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B87" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="C87" s="100" t="s">
+      <c r="C87" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="D87" s="100"/>
-      <c r="E87" s="100"/>
-      <c r="F87" s="100"/>
-      <c r="G87" s="100"/>
-      <c r="H87" s="101"/>
+      <c r="D87" s="102"/>
+      <c r="E87" s="102"/>
+      <c r="F87" s="102"/>
+      <c r="G87" s="102"/>
+      <c r="H87" s="103"/>
     </row>
     <row r="88" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B88" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="C88" s="76" t="s">
+      <c r="C88" s="78" t="s">
         <v>265</v>
       </c>
-      <c r="D88" s="76"/>
-      <c r="E88" s="76"/>
-      <c r="F88" s="76"/>
-      <c r="G88" s="76"/>
-      <c r="H88" s="77"/>
+      <c r="D88" s="78"/>
+      <c r="E88" s="78"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="78"/>
+      <c r="H88" s="79"/>
     </row>
     <row r="89" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B89" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="C89" s="103" t="s">
+      <c r="C89" s="105" t="s">
         <v>267</v>
       </c>
-      <c r="D89" s="103"/>
-      <c r="E89" s="103"/>
-      <c r="F89" s="103"/>
-      <c r="G89" s="103"/>
-      <c r="H89" s="104"/>
+      <c r="D89" s="105"/>
+      <c r="E89" s="105"/>
+      <c r="F89" s="105"/>
+      <c r="G89" s="105"/>
+      <c r="H89" s="106"/>
     </row>
     <row r="90" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B90" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="C90" s="115" t="s">
+      <c r="C90" s="112" t="s">
         <v>269</v>
       </c>
-      <c r="D90" s="115"/>
-      <c r="E90" s="115"/>
-      <c r="F90" s="115"/>
-      <c r="G90" s="115"/>
-      <c r="H90" s="116"/>
+      <c r="D90" s="112"/>
+      <c r="E90" s="112"/>
+      <c r="F90" s="112"/>
+      <c r="G90" s="112"/>
+      <c r="H90" s="113"/>
     </row>
     <row r="91" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B91" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="C91" s="100" t="s">
+      <c r="C91" s="102" t="s">
         <v>271</v>
       </c>
-      <c r="D91" s="100"/>
-      <c r="E91" s="100"/>
-      <c r="F91" s="100"/>
-      <c r="G91" s="100"/>
-      <c r="H91" s="101"/>
+      <c r="D91" s="102"/>
+      <c r="E91" s="102"/>
+      <c r="F91" s="102"/>
+      <c r="G91" s="102"/>
+      <c r="H91" s="103"/>
     </row>
     <row r="92" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B92" s="47" t="s">
+      <c r="B92" s="142" t="s">
         <v>260</v>
       </c>
-      <c r="C92" s="113" t="s">
+      <c r="C92" s="143" t="s">
         <v>261</v>
       </c>
-      <c r="D92" s="113"/>
-      <c r="E92" s="113"/>
-      <c r="F92" s="113"/>
-      <c r="G92" s="113"/>
-      <c r="H92" s="114"/>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B94" s="74" t="s">
+      <c r="D92" s="143"/>
+      <c r="E92" s="143"/>
+      <c r="F92" s="143"/>
+      <c r="G92" s="143"/>
+      <c r="H92" s="144"/>
+    </row>
+    <row r="93" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B93" s="145" t="s">
+        <v>307</v>
+      </c>
+      <c r="C93" s="146" t="s">
+        <v>308</v>
+      </c>
+      <c r="D93" s="146"/>
+      <c r="E93" s="146"/>
+      <c r="F93" s="146"/>
+      <c r="G93" s="146"/>
+      <c r="H93" s="147"/>
+    </row>
+    <row r="94" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B94" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="C94" s="108" t="s">
+        <v>306</v>
+      </c>
+      <c r="D94" s="108"/>
+      <c r="E94" s="108"/>
+      <c r="F94" s="108"/>
+      <c r="G94" s="108"/>
+      <c r="H94" s="109"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B96" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="C94" s="74"/>
-      <c r="D94" s="74"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="74"/>
-      <c r="G94" s="74"/>
-      <c r="H94" s="74"/>
-      <c r="I94" s="74"/>
-      <c r="J94" s="74"/>
-      <c r="K94" s="74"/>
-      <c r="L94" s="74"/>
-    </row>
-    <row r="95" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B95" s="75"/>
-      <c r="C95" s="75"/>
-      <c r="D95" s="75"/>
-      <c r="E95" s="75"/>
-      <c r="F95" s="75"/>
-      <c r="G95" s="75"/>
-      <c r="H95" s="75"/>
-      <c r="I95" s="75"/>
-      <c r="J95" s="75"/>
-      <c r="K95" s="75"/>
-      <c r="L95" s="75"/>
-    </row>
-    <row r="96" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="74"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="74"/>
+      <c r="H96" s="74"/>
+      <c r="I96" s="74"/>
+      <c r="J96" s="74"/>
+      <c r="K96" s="74"/>
+      <c r="L96" s="74"/>
+    </row>
     <row r="97" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B97" s="33" t="s">
+      <c r="B97" s="75"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="75"/>
+      <c r="F97" s="75"/>
+      <c r="G97" s="75"/>
+      <c r="H97" s="75"/>
+      <c r="I97" s="75"/>
+      <c r="J97" s="75"/>
+      <c r="K97" s="75"/>
+      <c r="L97" s="75"/>
+    </row>
+    <row r="98" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="99" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B99" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="C97" s="67" t="s">
+      <c r="C99" s="76" t="s">
         <v>277</v>
       </c>
-      <c r="D97" s="67"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="67"/>
-      <c r="H97" s="68"/>
-    </row>
-    <row r="98" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B98" s="47" t="s">
+      <c r="D99" s="76"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="76"/>
+      <c r="H99" s="77"/>
+    </row>
+    <row r="100" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B100" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="C98" s="113" t="s">
+      <c r="C100" s="117" t="s">
         <v>273</v>
       </c>
-      <c r="D98" s="113"/>
-      <c r="E98" s="113"/>
-      <c r="F98" s="113"/>
-      <c r="G98" s="113"/>
-      <c r="H98" s="114"/>
-    </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B100" s="74" t="s">
+      <c r="D100" s="117"/>
+      <c r="E100" s="117"/>
+      <c r="F100" s="117"/>
+      <c r="G100" s="117"/>
+      <c r="H100" s="118"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B102" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="C100" s="74"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="74"/>
-      <c r="H100" s="74"/>
-      <c r="I100" s="74"/>
-      <c r="J100" s="74"/>
-      <c r="K100" s="74"/>
-      <c r="L100" s="74"/>
-    </row>
-    <row r="101" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B101" s="75"/>
-      <c r="C101" s="75"/>
-      <c r="D101" s="75"/>
-      <c r="E101" s="75"/>
-      <c r="F101" s="75"/>
-      <c r="G101" s="75"/>
-      <c r="H101" s="75"/>
-      <c r="I101" s="75"/>
-      <c r="J101" s="75"/>
-      <c r="K101" s="75"/>
-      <c r="L101" s="75"/>
-    </row>
-    <row r="102" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="74"/>
+      <c r="I102" s="74"/>
+      <c r="J102" s="74"/>
+      <c r="K102" s="74"/>
+      <c r="L102" s="74"/>
+    </row>
     <row r="103" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B103" s="48" t="s">
+      <c r="B103" s="75"/>
+      <c r="C103" s="75"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="75"/>
+      <c r="F103" s="75"/>
+      <c r="G103" s="75"/>
+      <c r="H103" s="75"/>
+      <c r="I103" s="75"/>
+      <c r="J103" s="75"/>
+      <c r="K103" s="75"/>
+      <c r="L103" s="75"/>
+    </row>
+    <row r="104" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="105" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B105" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="C103" s="110" t="s">
+      <c r="C105" s="114" t="s">
         <v>280</v>
       </c>
-      <c r="D103" s="111"/>
-      <c r="E103" s="111"/>
-      <c r="F103" s="111"/>
-      <c r="G103" s="111"/>
-      <c r="H103" s="111"/>
-      <c r="I103" s="112"/>
-    </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B105" s="74" t="s">
+      <c r="D105" s="115"/>
+      <c r="E105" s="115"/>
+      <c r="F105" s="115"/>
+      <c r="G105" s="115"/>
+      <c r="H105" s="115"/>
+      <c r="I105" s="116"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B107" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="C105" s="74"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="74"/>
-      <c r="H105" s="74"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="74"/>
-      <c r="K105" s="74"/>
-      <c r="L105" s="74"/>
-    </row>
-    <row r="106" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B106" s="75"/>
-      <c r="C106" s="75"/>
-      <c r="D106" s="75"/>
-      <c r="E106" s="75"/>
-      <c r="F106" s="75"/>
-      <c r="G106" s="75"/>
-      <c r="H106" s="75"/>
-      <c r="I106" s="75"/>
-      <c r="J106" s="75"/>
-      <c r="K106" s="75"/>
-      <c r="L106" s="75"/>
-    </row>
-    <row r="107" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+      <c r="C107" s="74"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="74"/>
+      <c r="G107" s="74"/>
+      <c r="H107" s="74"/>
+      <c r="I107" s="74"/>
+      <c r="J107" s="74"/>
+      <c r="K107" s="74"/>
+      <c r="L107" s="74"/>
+    </row>
     <row r="108" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B108" s="48" t="s">
+      <c r="B108" s="75"/>
+      <c r="C108" s="75"/>
+      <c r="D108" s="75"/>
+      <c r="E108" s="75"/>
+      <c r="F108" s="75"/>
+      <c r="G108" s="75"/>
+      <c r="H108" s="75"/>
+      <c r="I108" s="75"/>
+      <c r="J108" s="75"/>
+      <c r="K108" s="75"/>
+      <c r="L108" s="75"/>
+    </row>
+    <row r="109" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="110" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B110" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="C108" s="110" t="s">
+      <c r="C110" s="114" t="s">
         <v>281</v>
       </c>
-      <c r="D108" s="111"/>
-      <c r="E108" s="111"/>
-      <c r="F108" s="111"/>
-      <c r="G108" s="111"/>
-      <c r="H108" s="111"/>
-      <c r="I108" s="112"/>
-    </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B110" s="74" t="s">
+      <c r="D110" s="115"/>
+      <c r="E110" s="115"/>
+      <c r="F110" s="115"/>
+      <c r="G110" s="115"/>
+      <c r="H110" s="115"/>
+      <c r="I110" s="116"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B112" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="C110" s="74"/>
-      <c r="D110" s="74"/>
-      <c r="E110" s="74"/>
-      <c r="F110" s="74"/>
-      <c r="G110" s="74"/>
-      <c r="H110" s="74"/>
-      <c r="I110" s="74"/>
-      <c r="J110" s="74"/>
-      <c r="K110" s="74"/>
-      <c r="L110" s="74"/>
-    </row>
-    <row r="111" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B111" s="75"/>
-      <c r="C111" s="75"/>
-      <c r="D111" s="75"/>
-      <c r="E111" s="75"/>
-      <c r="F111" s="75"/>
-      <c r="G111" s="75"/>
-      <c r="H111" s="75"/>
-      <c r="I111" s="75"/>
-      <c r="J111" s="75"/>
-      <c r="K111" s="75"/>
-      <c r="L111" s="75"/>
+      <c r="C112" s="74"/>
+      <c r="D112" s="74"/>
+      <c r="E112" s="74"/>
+      <c r="F112" s="74"/>
+      <c r="G112" s="74"/>
+      <c r="H112" s="74"/>
+      <c r="I112" s="74"/>
+      <c r="J112" s="74"/>
+      <c r="K112" s="74"/>
+      <c r="L112" s="74"/>
+    </row>
+    <row r="113" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B113" s="75"/>
+      <c r="C113" s="75"/>
+      <c r="D113" s="75"/>
+      <c r="E113" s="75"/>
+      <c r="F113" s="75"/>
+      <c r="G113" s="75"/>
+      <c r="H113" s="75"/>
+      <c r="I113" s="75"/>
+      <c r="J113" s="75"/>
+      <c r="K113" s="75"/>
+      <c r="L113" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="B38:L39"/>
-    <mergeCell ref="B68:L69"/>
-    <mergeCell ref="B23:L24"/>
-    <mergeCell ref="B110:L111"/>
+  <mergeCells count="33">
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="B107:L108"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="B75:L76"/>
+    <mergeCell ref="B112:L113"/>
     <mergeCell ref="B82:L83"/>
-    <mergeCell ref="B94:L95"/>
+    <mergeCell ref="B96:L97"/>
     <mergeCell ref="C79:H79"/>
     <mergeCell ref="C80:H80"/>
     <mergeCell ref="C85:H85"/>
@@ -13274,20 +13533,18 @@
     <mergeCell ref="C88:H88"/>
     <mergeCell ref="C89:H89"/>
     <mergeCell ref="C90:H90"/>
-    <mergeCell ref="B29:L30"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="B75:L76"/>
-    <mergeCell ref="C108:I108"/>
-    <mergeCell ref="B100:L101"/>
-    <mergeCell ref="C103:I103"/>
+    <mergeCell ref="C110:I110"/>
+    <mergeCell ref="B102:L103"/>
+    <mergeCell ref="C105:I105"/>
     <mergeCell ref="C91:H91"/>
     <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="B105:L106"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B38:L39"/>
+    <mergeCell ref="B68:L69"/>
+    <mergeCell ref="B23:L24"/>
+    <mergeCell ref="B29:L30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B68:B69">
@@ -13318,7 +13575,7 @@
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B110:B111">
+  <conditionalFormatting sqref="B112:B113">
     <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
@@ -13346,7 +13603,7 @@
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B94:B95">
+  <conditionalFormatting sqref="B96:B97">
     <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
@@ -13402,7 +13659,7 @@
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B100:B101">
+  <conditionalFormatting sqref="B102:B103">
     <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
@@ -13416,7 +13673,7 @@
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B105:B106">
+  <conditionalFormatting sqref="B107:B108">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
@@ -13438,11 +13695,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13451,58 +13708,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="17"/>
@@ -13511,32 +13768,32 @@
       <c r="B6" s="17"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
     </row>
     <row r="9" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
     </row>
     <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B11" s="21" t="s">
@@ -13559,130 +13816,130 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="96" t="s">
         <v>285</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
     </row>
     <row r="15" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
     </row>
     <row r="16" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="2:12" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="135" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="137"/>
     </row>
     <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="134" t="s">
         <v>300</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="68"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
     </row>
     <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="34"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="77"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="79"/>
     </row>
     <row r="20" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="35"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="103"/>
     </row>
     <row r="21" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="34"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="77"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="79"/>
     </row>
     <row r="22" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="40"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="103"/>
     </row>
     <row r="23" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="38"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="82"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
     </row>
     <row r="25" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="96" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
     </row>
     <row r="26" spans="2:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
     </row>
     <row r="28" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B28" s="21" t="s">
@@ -13706,250 +13963,284 @@
     </row>
     <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="31" spans="2:12" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="137" t="s">
+      <c r="B31" s="123" t="s">
         <v>287</v>
       </c>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="144" t="s">
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="H31" s="145"/>
-      <c r="I31" s="146"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="122"/>
     </row>
     <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="140" t="s">
+      <c r="B32" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="141" t="s">
+      <c r="C32" s="131" t="s">
         <v>291</v>
       </c>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="133"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="127"/>
     </row>
     <row r="33" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="C33" s="108" t="s">
+      <c r="C33" s="110" t="s">
         <v>292</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="133"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="127"/>
     </row>
     <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="C34" s="126" t="s">
+      <c r="C34" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="133"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="127"/>
     </row>
     <row r="35" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="C35" s="108" t="s">
+      <c r="C35" s="110" t="s">
         <v>294</v>
       </c>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="133"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="127"/>
     </row>
     <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="C36" s="126" t="s">
+      <c r="C36" s="101" t="s">
         <v>296</v>
       </c>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="109"/>
-      <c r="I36" s="133"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="127"/>
     </row>
     <row r="37" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="141" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" s="93" t="s">
+        <v>310</v>
+      </c>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="127"/>
+    </row>
+    <row r="38" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="C37" s="129" t="s">
+      <c r="C38" s="87" t="s">
         <v>301</v>
       </c>
-      <c r="D37" s="130"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="134"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="136"/>
-    </row>
-    <row r="39" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
-      <c r="B39" s="21" t="s">
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="130"/>
+    </row>
+    <row r="40" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="B40" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>302</v>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="43" spans="2:12" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="123" t="s">
         <v>287</v>
       </c>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="139"/>
-      <c r="G43" s="144" t="s">
+      <c r="C43" s="124"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="H43" s="145"/>
-      <c r="I43" s="146"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="122"/>
     </row>
     <row r="44" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="140" t="s">
+      <c r="B44" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="125" t="s">
-        <v>291</v>
-      </c>
-      <c r="D44" s="148"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="149"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="133"/>
+      <c r="C44" s="131" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44" s="132"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="126"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="127"/>
     </row>
     <row r="45" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="C45" s="108" t="s">
-        <v>292</v>
-      </c>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="133"/>
+      <c r="C45" s="110" t="s">
+        <v>314</v>
+      </c>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="126"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="127"/>
     </row>
     <row r="46" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B46" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="C46" s="99" t="s">
-        <v>293</v>
-      </c>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="133"/>
+      <c r="C46" s="101" t="s">
+        <v>296</v>
+      </c>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="127"/>
     </row>
     <row r="47" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="C47" s="108" t="s">
-        <v>304</v>
-      </c>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="133"/>
+      <c r="C47" s="110" t="s">
+        <v>310</v>
+      </c>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="126"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="127"/>
     </row>
     <row r="48" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="C48" s="99" t="s">
+      <c r="C48" s="101" t="s">
         <v>296</v>
       </c>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="133"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="126"/>
+      <c r="H48" s="111"/>
+      <c r="I48" s="127"/>
     </row>
     <row r="49" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="141" t="s">
+        <v>311</v>
+      </c>
+      <c r="C49" s="93" t="s">
+        <v>312</v>
+      </c>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="126"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="127"/>
+    </row>
+    <row r="50" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B50" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="C49" s="123" t="s">
+      <c r="C50" s="87" t="s">
         <v>301</v>
       </c>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="135"/>
-      <c r="I49" s="136"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="130"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="C49:F49"/>
+  <mergeCells count="32">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B14:L15"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G32:I38"/>
+    <mergeCell ref="B25:L26"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C50:F50"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I49"/>
+    <mergeCell ref="G44:I50"/>
     <mergeCell ref="C45:F45"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="C44:F44"/>
     <mergeCell ref="C46:F46"/>
     <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G32:I37"/>
-    <mergeCell ref="B25:L26"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="B14:L15"/>
+    <mergeCell ref="C49:F49"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -13973,58 +14264,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="915" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="915" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="317">
   <si>
     <t>オンライン利用技術</t>
     <rPh sb="5" eb="7">
@@ -3148,6 +3148,14 @@
   </si>
   <si>
     <t>ふつう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4229,18 +4237,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4261,6 +4260,96 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4298,84 +4387,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4412,6 +4423,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4427,13 +4450,49 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4454,42 +4513,6 @@
     <xf numFmtId="0" fontId="27" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4499,21 +4522,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4881,720 +4889,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5634,6 +4928,720 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9047,16 +9055,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B33:H44" totalsRowShown="0" dataDxfId="161" tableBorderDxfId="160">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B33:H44" totalsRowShown="0" dataDxfId="59" tableBorderDxfId="58">
   <autoFilter ref="B33:H44"/>
   <tableColumns count="7">
     <tableColumn id="1" name="ステータス名"/>
-    <tableColumn id="2" name="合計値" dataDxfId="159"/>
-    <tableColumn id="3" name="基礎値" dataDxfId="158"/>
-    <tableColumn id="4" name="アイテム加算値" dataDxfId="157"/>
-    <tableColumn id="5" name="バフ加算値" dataDxfId="156"/>
-    <tableColumn id="6" name="アイテム乗算値" dataDxfId="155"/>
-    <tableColumn id="7" name="バフ乗算値" dataDxfId="154"/>
+    <tableColumn id="2" name="合計値" dataDxfId="57"/>
+    <tableColumn id="3" name="基礎値" dataDxfId="56"/>
+    <tableColumn id="4" name="アイテム加算値" dataDxfId="55"/>
+    <tableColumn id="5" name="バフ加算値" dataDxfId="54"/>
+    <tableColumn id="6" name="アイテム乗算値" dataDxfId="53"/>
+    <tableColumn id="7" name="バフ乗算値" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9339,35 +9347,35 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="55" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="58"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
       <c r="L3" t="s">
         <v>0</v>
       </c>
@@ -9376,18 +9384,18 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="63"/>
       <c r="L4" t="s">
         <v>1</v>
       </c>
@@ -9396,18 +9404,18 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="52" t="s">
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -9416,18 +9424,18 @@
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
       <c r="L6" t="s">
         <v>3</v>
       </c>
@@ -9436,18 +9444,18 @@
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="L7" t="s">
         <v>4</v>
       </c>
@@ -9456,158 +9464,140 @@
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52" t="s">
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52" t="s">
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="53"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52" t="s">
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52" t="s">
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52" t="s">
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52" t="s">
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52" t="s">
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52" t="s">
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="C15:E15"/>
@@ -9618,15 +9608,33 @@
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:J13"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
-    <cfRule type="cellIs" dxfId="153" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="1" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
-    <cfRule type="cellIs" dxfId="152" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="2" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9647,58 +9655,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9722,58 +9730,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9834,100 +9842,100 @@
       <c r="V1" s="12"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
     </row>
     <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
     </row>
     <row r="7" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="146" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
     </row>
     <row r="8" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
     </row>
     <row r="9" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
     </row>
     <row r="12" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
     </row>
     <row r="13" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
@@ -10400,32 +10408,32 @@
       <c r="V1" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="17" t="s">
@@ -10438,32 +10446,32 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
     </row>
     <row r="9" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
     </row>
     <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B11" s="21" t="s">
@@ -10515,60 +10523,60 @@
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
     </row>
     <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
     </row>
     <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
     </row>
     <row r="24" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24"/>
@@ -10620,34 +10628,34 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="18"/>
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="18"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
@@ -10686,65 +10694,65 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" s="18"/>
-      <c r="B47" s="98" t="s">
+      <c r="B47" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="98"/>
-      <c r="H47" s="98"/>
-      <c r="I47" s="98"/>
-      <c r="J47" s="98"/>
-      <c r="K47" s="98"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
     </row>
     <row r="48" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="18"/>
-      <c r="B48" s="99"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
-      <c r="K48" s="99"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
       <c r="N48" s="18"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B61" s="74" t="s">
+      <c r="B61" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="74"/>
-      <c r="J61" s="74"/>
-      <c r="K61" s="74"/>
-      <c r="L61" s="74"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="79"/>
+      <c r="L61" s="79"/>
     </row>
     <row r="62" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B62" s="75"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="75"/>
-      <c r="J62" s="75"/>
-      <c r="K62" s="75"/>
-      <c r="L62" s="75"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="80"/>
+      <c r="G62" s="80"/>
+      <c r="H62" s="80"/>
+      <c r="I62" s="80"/>
+      <c r="J62" s="80"/>
+      <c r="K62" s="80"/>
+      <c r="L62" s="80"/>
     </row>
     <row r="64" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="25" t="s">
@@ -10773,67 +10781,67 @@
       <c r="B66" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="C66" s="76" t="s">
+      <c r="C66" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="77"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="73"/>
     </row>
     <row r="67" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B67" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="C67" s="78" t="s">
+      <c r="C67" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="79"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="85"/>
     </row>
     <row r="68" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="C68" s="80" t="s">
+      <c r="C68" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="82"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="87"/>
+      <c r="G68" s="87"/>
+      <c r="H68" s="88"/>
     </row>
     <row r="69" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B69" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="C69" s="83" t="s">
+      <c r="C69" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="D69" s="83"/>
-      <c r="E69" s="83"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="83"/>
-      <c r="H69" s="84"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="90"/>
     </row>
     <row r="70" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="39"/>
       <c r="B70" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="C70" s="85" t="s">
+      <c r="C70" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="86"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="70"/>
       <c r="I70" s="39"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.45">
@@ -10848,32 +10856,32 @@
       <c r="I71" s="39"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B72" s="74" t="s">
+      <c r="B72" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="74"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="74"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="74"/>
-      <c r="J72" s="74"/>
-      <c r="K72" s="74"/>
-      <c r="L72" s="74"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="79"/>
     </row>
     <row r="73" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B73" s="75"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="75"/>
-      <c r="I73" s="75"/>
-      <c r="J73" s="75"/>
-      <c r="K73" s="75"/>
-      <c r="L73" s="75"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="80"/>
+      <c r="G73" s="80"/>
+      <c r="H73" s="80"/>
+      <c r="I73" s="80"/>
+      <c r="J73" s="80"/>
+      <c r="K73" s="80"/>
+      <c r="L73" s="80"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="39"/>
@@ -10916,94 +10924,94 @@
       <c r="B77" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C77" s="76" t="s">
+      <c r="C77" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="77"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="73"/>
     </row>
     <row r="78" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B78" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="C78" s="88" t="s">
+      <c r="C78" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="D78" s="89"/>
-      <c r="E78" s="89"/>
-      <c r="F78" s="89"/>
-      <c r="G78" s="89"/>
-      <c r="H78" s="90"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="75"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="76"/>
     </row>
     <row r="79" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B79" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C79" s="91" t="s">
+      <c r="C79" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="D79" s="91"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="91"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="92"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="77"/>
+      <c r="H79" s="78"/>
     </row>
     <row r="80" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B80" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="C80" s="93" t="s">
+      <c r="C80" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="D80" s="94"/>
-      <c r="E80" s="94"/>
-      <c r="F80" s="94"/>
-      <c r="G80" s="94"/>
-      <c r="H80" s="95"/>
+      <c r="D80" s="82"/>
+      <c r="E80" s="82"/>
+      <c r="F80" s="82"/>
+      <c r="G80" s="82"/>
+      <c r="H80" s="83"/>
     </row>
     <row r="81" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B81" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="87" t="s">
+      <c r="C81" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="D81" s="85"/>
-      <c r="E81" s="85"/>
-      <c r="F81" s="85"/>
-      <c r="G81" s="85"/>
-      <c r="H81" s="86"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="69"/>
+      <c r="H81" s="70"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B83" s="74" t="s">
+      <c r="B83" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="C83" s="74"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="74"/>
-      <c r="G83" s="74"/>
-      <c r="H83" s="74"/>
-      <c r="I83" s="74"/>
-      <c r="J83" s="74"/>
-      <c r="K83" s="74"/>
-      <c r="L83" s="74"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="79"/>
+      <c r="J83" s="79"/>
+      <c r="K83" s="79"/>
+      <c r="L83" s="79"/>
     </row>
     <row r="84" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B84" s="75"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="75"/>
-      <c r="E84" s="75"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="75"/>
-      <c r="H84" s="75"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="75"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="75"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="80"/>
+      <c r="D84" s="80"/>
+      <c r="E84" s="80"/>
+      <c r="F84" s="80"/>
+      <c r="G84" s="80"/>
+      <c r="H84" s="80"/>
+      <c r="I84" s="80"/>
+      <c r="J84" s="80"/>
+      <c r="K84" s="80"/>
+      <c r="L84" s="80"/>
     </row>
     <row r="86" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
       <c r="B86" s="42" t="s">
@@ -11165,72 +11173,76 @@
     </row>
     <row r="114" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="115" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B115" s="68" t="s">
+      <c r="B115" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C115" s="69"/>
-      <c r="D115" s="69"/>
-      <c r="E115" s="69"/>
-      <c r="F115" s="69"/>
-      <c r="G115" s="69"/>
-      <c r="H115" s="69"/>
-      <c r="I115" s="69"/>
-      <c r="J115" s="69"/>
-      <c r="K115" s="69"/>
-      <c r="L115" s="70"/>
+      <c r="C115" s="98"/>
+      <c r="D115" s="98"/>
+      <c r="E115" s="98"/>
+      <c r="F115" s="98"/>
+      <c r="G115" s="98"/>
+      <c r="H115" s="98"/>
+      <c r="I115" s="98"/>
+      <c r="J115" s="98"/>
+      <c r="K115" s="98"/>
+      <c r="L115" s="99"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B116" s="71" t="s">
+      <c r="B116" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="C116" s="72"/>
-      <c r="D116" s="72"/>
-      <c r="E116" s="72"/>
-      <c r="F116" s="72"/>
-      <c r="G116" s="72"/>
-      <c r="H116" s="72"/>
-      <c r="I116" s="72"/>
-      <c r="J116" s="72"/>
-      <c r="K116" s="72"/>
-      <c r="L116" s="73"/>
+      <c r="C116" s="101"/>
+      <c r="D116" s="101"/>
+      <c r="E116" s="101"/>
+      <c r="F116" s="101"/>
+      <c r="G116" s="101"/>
+      <c r="H116" s="101"/>
+      <c r="I116" s="101"/>
+      <c r="J116" s="101"/>
+      <c r="K116" s="101"/>
+      <c r="L116" s="102"/>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B117" s="62"/>
-      <c r="C117" s="63"/>
-      <c r="D117" s="63"/>
-      <c r="E117" s="63"/>
-      <c r="F117" s="63"/>
-      <c r="G117" s="63"/>
-      <c r="H117" s="63"/>
-      <c r="I117" s="63"/>
-      <c r="J117" s="63"/>
-      <c r="K117" s="63"/>
-      <c r="L117" s="64"/>
+      <c r="B117" s="91"/>
+      <c r="C117" s="92"/>
+      <c r="D117" s="92"/>
+      <c r="E117" s="92"/>
+      <c r="F117" s="92"/>
+      <c r="G117" s="92"/>
+      <c r="H117" s="92"/>
+      <c r="I117" s="92"/>
+      <c r="J117" s="92"/>
+      <c r="K117" s="92"/>
+      <c r="L117" s="93"/>
     </row>
     <row r="118" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B118" s="65" t="s">
+      <c r="B118" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="C118" s="66"/>
-      <c r="D118" s="66"/>
-      <c r="E118" s="66"/>
-      <c r="F118" s="66"/>
-      <c r="G118" s="66"/>
-      <c r="H118" s="66"/>
-      <c r="I118" s="66"/>
-      <c r="J118" s="66"/>
-      <c r="K118" s="66"/>
-      <c r="L118" s="67"/>
+      <c r="C118" s="95"/>
+      <c r="D118" s="95"/>
+      <c r="E118" s="95"/>
+      <c r="F118" s="95"/>
+      <c r="G118" s="95"/>
+      <c r="H118" s="95"/>
+      <c r="I118" s="95"/>
+      <c r="J118" s="95"/>
+      <c r="K118" s="95"/>
+      <c r="L118" s="96"/>
     </row>
     <row r="119" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="B47:K48"/>
-    <mergeCell ref="B18:L19"/>
-    <mergeCell ref="B31:K32"/>
-    <mergeCell ref="B22:L23"/>
+    <mergeCell ref="B117:L117"/>
+    <mergeCell ref="B118:L118"/>
+    <mergeCell ref="B115:L115"/>
+    <mergeCell ref="B116:L116"/>
+    <mergeCell ref="B83:L84"/>
+    <mergeCell ref="B61:L62"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
     <mergeCell ref="C70:H70"/>
     <mergeCell ref="C81:H81"/>
     <mergeCell ref="C77:H77"/>
@@ -11238,197 +11250,193 @@
     <mergeCell ref="C79:H79"/>
     <mergeCell ref="B72:L73"/>
     <mergeCell ref="C80:H80"/>
-    <mergeCell ref="B61:L62"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="B117:L117"/>
-    <mergeCell ref="B118:L118"/>
-    <mergeCell ref="B115:L115"/>
-    <mergeCell ref="B116:L116"/>
-    <mergeCell ref="B83:L84"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B47:K48"/>
+    <mergeCell ref="B18:L19"/>
+    <mergeCell ref="B31:K32"/>
+    <mergeCell ref="B22:L23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B17 B10:B13">
-    <cfRule type="cellIs" dxfId="151" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="73" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="74" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="75" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="76" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16">
-    <cfRule type="cellIs" dxfId="147" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="65" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="66" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="67" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="68" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="143" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="49" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="50" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="51" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="52" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B62">
-    <cfRule type="cellIs" dxfId="139" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="57" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="58" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="59" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="60" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B73">
-    <cfRule type="cellIs" dxfId="135" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="41" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="42" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="43" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="44" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83:B84">
-    <cfRule type="cellIs" dxfId="131" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="33" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="34" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="35" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="36" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="127" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="29" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="30" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="31" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="32" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="cellIs" dxfId="123" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="21" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="22" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="23" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="24" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="cellIs" dxfId="119" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="17" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="18" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="19" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="20" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="cellIs" dxfId="115" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="13" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="14" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="15" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="16" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="cellIs" dxfId="111" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="9" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="10" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="11" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="12" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
-    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="6" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="8" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11453,58 +11461,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="17" t="s">
@@ -11517,32 +11525,32 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
     </row>
     <row r="12" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
     </row>
     <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B13" s="9" t="s">
@@ -11582,9 +11590,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L68" sqref="L68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11623,32 +11631,32 @@
       <c r="V1" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B5" s="19" t="s">
@@ -11714,32 +11722,32 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
     </row>
     <row r="15" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="7"/>
@@ -11785,32 +11793,32 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
     </row>
     <row r="26" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
     </row>
     <row r="28" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B28" s="22" t="s">
@@ -11962,14 +11970,14 @@
       <c r="D37" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>141</v>
-      </c>
+      <c r="E37" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B38" s="28" t="s">
@@ -12035,9 +12043,7 @@
       <c r="C41" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="29" t="s">
-        <v>137</v>
-      </c>
+      <c r="D41" s="29"/>
       <c r="E41" s="29" t="s">
         <v>136</v>
       </c>
@@ -12077,9 +12083,7 @@
       <c r="C43" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="29" t="s">
-        <v>137</v>
-      </c>
+      <c r="D43" s="29"/>
       <c r="E43" s="29" t="s">
         <v>136</v>
       </c>
@@ -12152,87 +12156,87 @@
       <c r="B48" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="76" t="s">
+      <c r="C48" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="77"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="73"/>
     </row>
     <row r="49" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C49" s="78" t="s">
+      <c r="C49" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="79"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="85"/>
     </row>
     <row r="50" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="102" t="s">
+      <c r="C50" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="103"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="106"/>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="78" t="s">
+      <c r="C51" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="79"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="85"/>
     </row>
     <row r="52" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B52" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="101" t="s">
+      <c r="C52" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="103"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="106"/>
     </row>
     <row r="53" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="C53" s="83" t="s">
+      <c r="C53" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="84"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="90"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C54" s="111"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="111"/>
-      <c r="F54" s="111"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="111"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="114"/>
     </row>
     <row r="55" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="25" t="s">
@@ -12261,53 +12265,53 @@
       <c r="B57" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C57" s="76" t="s">
+      <c r="C57" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="77"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="73"/>
     </row>
     <row r="58" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C58" s="78" t="s">
+      <c r="C58" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="79"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="84"/>
+      <c r="H58" s="85"/>
     </row>
     <row r="59" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B59" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="80" t="s">
+      <c r="C59" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="82"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="88"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B60" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="C60" s="83" t="s">
+      <c r="C60" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="84"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="89"/>
+      <c r="H60" s="90"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C61" s="32"/>
@@ -12318,32 +12322,32 @@
       <c r="H61" s="32"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B62" s="74" t="s">
+      <c r="B62" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="C62" s="74"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="74"/>
-      <c r="J62" s="74"/>
-      <c r="K62" s="74"/>
-      <c r="L62" s="74"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="79"/>
+      <c r="L62" s="79"/>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B63" s="75"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="75"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="75"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="80"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
+      <c r="K63" s="80"/>
+      <c r="L63" s="80"/>
     </row>
     <row r="65" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B65" s="22" t="s">
@@ -12365,82 +12369,87 @@
       <c r="B67" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C67" s="76" t="s">
+      <c r="C67" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="D67" s="76"/>
-      <c r="E67" s="76"/>
-      <c r="F67" s="76"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="77"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="73"/>
     </row>
     <row r="68" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C68" s="88" t="s">
+      <c r="C68" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="89"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="90"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="76"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B69" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="C69" s="91" t="s">
+      <c r="C69" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="D69" s="91"/>
-      <c r="E69" s="91"/>
-      <c r="F69" s="91"/>
-      <c r="G69" s="91"/>
-      <c r="H69" s="92"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="78"/>
     </row>
     <row r="70" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B70" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C70" s="110" t="s">
+      <c r="C70" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="D70" s="78"/>
-      <c r="E70" s="78"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="78"/>
-      <c r="H70" s="79"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84"/>
+      <c r="H70" s="85"/>
     </row>
     <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B71" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C71" s="104" t="s">
+      <c r="C71" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="D71" s="105"/>
-      <c r="E71" s="105"/>
-      <c r="F71" s="105"/>
-      <c r="G71" s="105"/>
-      <c r="H71" s="106"/>
+      <c r="D71" s="108"/>
+      <c r="E71" s="108"/>
+      <c r="F71" s="108"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="109"/>
     </row>
     <row r="72" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B72" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="C72" s="107" t="s">
+      <c r="C72" s="110" t="s">
         <v>222</v>
       </c>
-      <c r="D72" s="108"/>
-      <c r="E72" s="108"/>
-      <c r="F72" s="108"/>
-      <c r="G72" s="108"/>
-      <c r="H72" s="109"/>
+      <c r="D72" s="111"/>
+      <c r="E72" s="111"/>
+      <c r="F72" s="111"/>
+      <c r="G72" s="111"/>
+      <c r="H72" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B62:L63"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C59:H59"/>
     <mergeCell ref="C52:H52"/>
     <mergeCell ref="C71:H71"/>
     <mergeCell ref="C72:H72"/>
@@ -12457,178 +12466,173 @@
     <mergeCell ref="C70:H70"/>
     <mergeCell ref="C53:H53"/>
     <mergeCell ref="C54:H54"/>
-    <mergeCell ref="B62:L63"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C59:H59"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="cellIs" dxfId="99" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="29" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="30" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="31" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="32" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B10">
-    <cfRule type="cellIs" dxfId="95" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="45" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="46" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="47" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="48" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="cellIs" dxfId="91" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="41" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="42" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="43" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="44" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B26">
-    <cfRule type="cellIs" dxfId="87" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="37" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="38" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="39" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="40" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="cellIs" dxfId="83" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="33" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="34" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="35" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="36" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="cellIs" dxfId="79" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="25" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="26" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="27" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="28" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="75" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="17" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="18" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="19" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="20" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:B63">
-    <cfRule type="cellIs" dxfId="71" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="21" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="22" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="23" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="24" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="67" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="13" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="14" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="15" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="16" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="63" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="9" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="10" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="12" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="6" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="7" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="8" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12665,30 +12669,30 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12728,58 +12732,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="17" t="s">
@@ -12792,32 +12796,32 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
     </row>
     <row r="9" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
     </row>
     <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B11" s="21" t="s">
@@ -12903,32 +12907,32 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
     </row>
     <row r="24" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
     </row>
     <row r="26" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B26" s="21" t="s">
@@ -12951,32 +12955,32 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B29" s="96" t="s">
+      <c r="B29" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
     </row>
     <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
     </row>
     <row r="32" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B32" s="21" t="s">
@@ -13019,509 +13023,506 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="96"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="96"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
     </row>
     <row r="39" spans="2:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="97"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B68" s="74" t="s">
+      <c r="B68" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="C68" s="74"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="74"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="74"/>
-      <c r="L68" s="74"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="79"/>
+      <c r="I68" s="79"/>
+      <c r="J68" s="79"/>
+      <c r="K68" s="79"/>
+      <c r="L68" s="79"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B69" s="75"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="75"/>
-      <c r="H69" s="75"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="75"/>
-      <c r="K69" s="75"/>
-      <c r="L69" s="75"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="80"/>
+      <c r="I69" s="80"/>
+      <c r="J69" s="80"/>
+      <c r="K69" s="80"/>
+      <c r="L69" s="80"/>
     </row>
     <row r="70" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B71" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C71" s="76" t="s">
+      <c r="C71" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="76"/>
-      <c r="H71" s="77"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="73"/>
     </row>
     <row r="72" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B72" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="C72" s="78" t="s">
+      <c r="C72" s="84" t="s">
         <v>248</v>
       </c>
-      <c r="D72" s="78"/>
-      <c r="E72" s="78"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="78"/>
-      <c r="H72" s="79"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="85"/>
     </row>
     <row r="73" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B73" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="C73" s="85" t="s">
+      <c r="C73" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="D73" s="85"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="85"/>
-      <c r="H73" s="86"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="70"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B75" s="74" t="s">
+      <c r="B75" s="79" t="s">
         <v>232</v>
       </c>
-      <c r="C75" s="74"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="74"/>
-      <c r="H75" s="74"/>
-      <c r="I75" s="74"/>
-      <c r="J75" s="74"/>
-      <c r="K75" s="74"/>
-      <c r="L75" s="74"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="79"/>
+      <c r="I75" s="79"/>
+      <c r="J75" s="79"/>
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
     </row>
     <row r="76" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B76" s="75"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="75"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="75"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="75"/>
-      <c r="I76" s="75"/>
-      <c r="J76" s="75"/>
-      <c r="K76" s="75"/>
-      <c r="L76" s="75"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="80"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="80"/>
+      <c r="G76" s="80"/>
+      <c r="H76" s="80"/>
+      <c r="I76" s="80"/>
+      <c r="J76" s="80"/>
+      <c r="K76" s="80"/>
+      <c r="L76" s="80"/>
     </row>
     <row r="77" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="78" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B78" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C78" s="76" t="s">
+      <c r="C78" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="D78" s="76"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
-      <c r="H78" s="77"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="72"/>
+      <c r="H78" s="73"/>
     </row>
     <row r="79" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B79" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="C79" s="78" t="s">
+      <c r="C79" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="D79" s="78"/>
-      <c r="E79" s="78"/>
-      <c r="F79" s="78"/>
-      <c r="G79" s="78"/>
-      <c r="H79" s="79"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="84"/>
+      <c r="H79" s="85"/>
     </row>
     <row r="80" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B80" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="C80" s="85" t="s">
+      <c r="C80" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="D80" s="85"/>
-      <c r="E80" s="85"/>
-      <c r="F80" s="85"/>
-      <c r="G80" s="85"/>
-      <c r="H80" s="86"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="70"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B82" s="74" t="s">
+      <c r="B82" s="79" t="s">
         <v>255</v>
       </c>
-      <c r="C82" s="74"/>
-      <c r="D82" s="74"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="74"/>
-      <c r="G82" s="74"/>
-      <c r="H82" s="74"/>
-      <c r="I82" s="74"/>
-      <c r="J82" s="74"/>
-      <c r="K82" s="74"/>
-      <c r="L82" s="74"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="79"/>
+      <c r="H82" s="79"/>
+      <c r="I82" s="79"/>
+      <c r="J82" s="79"/>
+      <c r="K82" s="79"/>
+      <c r="L82" s="79"/>
     </row>
     <row r="83" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B83" s="75"/>
-      <c r="C83" s="75"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="75"/>
-      <c r="G83" s="75"/>
-      <c r="H83" s="75"/>
-      <c r="I83" s="75"/>
-      <c r="J83" s="75"/>
-      <c r="K83" s="75"/>
-      <c r="L83" s="75"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="80"/>
+      <c r="E83" s="80"/>
+      <c r="F83" s="80"/>
+      <c r="G83" s="80"/>
+      <c r="H83" s="80"/>
+      <c r="I83" s="80"/>
+      <c r="J83" s="80"/>
+      <c r="K83" s="80"/>
+      <c r="L83" s="80"/>
     </row>
     <row r="84" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="85" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B85" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C85" s="76" t="s">
+      <c r="C85" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="D85" s="76"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="76"/>
-      <c r="H85" s="77"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="72"/>
+      <c r="H85" s="73"/>
     </row>
     <row r="86" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B86" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="C86" s="78" t="s">
+      <c r="C86" s="84" t="s">
         <v>259</v>
       </c>
-      <c r="D86" s="78"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="78"/>
-      <c r="H86" s="79"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="84"/>
+      <c r="G86" s="84"/>
+      <c r="H86" s="85"/>
     </row>
     <row r="87" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B87" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="C87" s="102" t="s">
+      <c r="C87" s="105" t="s">
         <v>263</v>
       </c>
-      <c r="D87" s="102"/>
-      <c r="E87" s="102"/>
-      <c r="F87" s="102"/>
-      <c r="G87" s="102"/>
-      <c r="H87" s="103"/>
+      <c r="D87" s="105"/>
+      <c r="E87" s="105"/>
+      <c r="F87" s="105"/>
+      <c r="G87" s="105"/>
+      <c r="H87" s="106"/>
     </row>
     <row r="88" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B88" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="C88" s="78" t="s">
+      <c r="C88" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="D88" s="78"/>
-      <c r="E88" s="78"/>
-      <c r="F88" s="78"/>
-      <c r="G88" s="78"/>
-      <c r="H88" s="79"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="84"/>
+      <c r="F88" s="84"/>
+      <c r="G88" s="84"/>
+      <c r="H88" s="85"/>
     </row>
     <row r="89" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B89" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="C89" s="105" t="s">
+      <c r="C89" s="108" t="s">
         <v>267</v>
       </c>
-      <c r="D89" s="105"/>
-      <c r="E89" s="105"/>
-      <c r="F89" s="105"/>
-      <c r="G89" s="105"/>
-      <c r="H89" s="106"/>
+      <c r="D89" s="108"/>
+      <c r="E89" s="108"/>
+      <c r="F89" s="108"/>
+      <c r="G89" s="108"/>
+      <c r="H89" s="109"/>
     </row>
     <row r="90" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B90" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="C90" s="112" t="s">
+      <c r="C90" s="119" t="s">
         <v>269</v>
       </c>
-      <c r="D90" s="112"/>
-      <c r="E90" s="112"/>
-      <c r="F90" s="112"/>
-      <c r="G90" s="112"/>
-      <c r="H90" s="113"/>
+      <c r="D90" s="119"/>
+      <c r="E90" s="119"/>
+      <c r="F90" s="119"/>
+      <c r="G90" s="119"/>
+      <c r="H90" s="120"/>
     </row>
     <row r="91" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B91" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="C91" s="102" t="s">
+      <c r="C91" s="105" t="s">
         <v>271</v>
       </c>
-      <c r="D91" s="102"/>
-      <c r="E91" s="102"/>
-      <c r="F91" s="102"/>
-      <c r="G91" s="102"/>
-      <c r="H91" s="103"/>
+      <c r="D91" s="105"/>
+      <c r="E91" s="105"/>
+      <c r="F91" s="105"/>
+      <c r="G91" s="105"/>
+      <c r="H91" s="106"/>
     </row>
     <row r="92" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B92" s="142" t="s">
+      <c r="B92" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="C92" s="143" t="s">
+      <c r="C92" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="D92" s="143"/>
-      <c r="E92" s="143"/>
-      <c r="F92" s="143"/>
-      <c r="G92" s="143"/>
-      <c r="H92" s="144"/>
+      <c r="D92" s="124"/>
+      <c r="E92" s="124"/>
+      <c r="F92" s="124"/>
+      <c r="G92" s="124"/>
+      <c r="H92" s="125"/>
     </row>
     <row r="93" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B93" s="145" t="s">
+      <c r="B93" s="53" t="s">
         <v>307</v>
       </c>
-      <c r="C93" s="146" t="s">
+      <c r="C93" s="117" t="s">
         <v>308</v>
       </c>
-      <c r="D93" s="146"/>
-      <c r="E93" s="146"/>
-      <c r="F93" s="146"/>
-      <c r="G93" s="146"/>
-      <c r="H93" s="147"/>
+      <c r="D93" s="117"/>
+      <c r="E93" s="117"/>
+      <c r="F93" s="117"/>
+      <c r="G93" s="117"/>
+      <c r="H93" s="118"/>
     </row>
     <row r="94" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B94" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="C94" s="108" t="s">
+      <c r="C94" s="111" t="s">
         <v>306</v>
       </c>
-      <c r="D94" s="108"/>
-      <c r="E94" s="108"/>
-      <c r="F94" s="108"/>
-      <c r="G94" s="108"/>
-      <c r="H94" s="109"/>
+      <c r="D94" s="111"/>
+      <c r="E94" s="111"/>
+      <c r="F94" s="111"/>
+      <c r="G94" s="111"/>
+      <c r="H94" s="112"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B96" s="74" t="s">
+      <c r="B96" s="79" t="s">
         <v>275</v>
       </c>
-      <c r="C96" s="74"/>
-      <c r="D96" s="74"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="74"/>
-      <c r="H96" s="74"/>
-      <c r="I96" s="74"/>
-      <c r="J96" s="74"/>
-      <c r="K96" s="74"/>
-      <c r="L96" s="74"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="79"/>
+      <c r="G96" s="79"/>
+      <c r="H96" s="79"/>
+      <c r="I96" s="79"/>
+      <c r="J96" s="79"/>
+      <c r="K96" s="79"/>
+      <c r="L96" s="79"/>
     </row>
     <row r="97" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B97" s="75"/>
-      <c r="C97" s="75"/>
-      <c r="D97" s="75"/>
-      <c r="E97" s="75"/>
-      <c r="F97" s="75"/>
-      <c r="G97" s="75"/>
-      <c r="H97" s="75"/>
-      <c r="I97" s="75"/>
-      <c r="J97" s="75"/>
-      <c r="K97" s="75"/>
-      <c r="L97" s="75"/>
+      <c r="B97" s="80"/>
+      <c r="C97" s="80"/>
+      <c r="D97" s="80"/>
+      <c r="E97" s="80"/>
+      <c r="F97" s="80"/>
+      <c r="G97" s="80"/>
+      <c r="H97" s="80"/>
+      <c r="I97" s="80"/>
+      <c r="J97" s="80"/>
+      <c r="K97" s="80"/>
+      <c r="L97" s="80"/>
     </row>
     <row r="98" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="99" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B99" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="C99" s="76" t="s">
+      <c r="C99" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="D99" s="76"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="76"/>
-      <c r="H99" s="77"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="73"/>
     </row>
     <row r="100" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B100" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="C100" s="117" t="s">
+      <c r="C100" s="115" t="s">
         <v>273</v>
       </c>
-      <c r="D100" s="117"/>
-      <c r="E100" s="117"/>
-      <c r="F100" s="117"/>
-      <c r="G100" s="117"/>
-      <c r="H100" s="118"/>
+      <c r="D100" s="115"/>
+      <c r="E100" s="115"/>
+      <c r="F100" s="115"/>
+      <c r="G100" s="115"/>
+      <c r="H100" s="116"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B102" s="74" t="s">
+      <c r="B102" s="79" t="s">
         <v>276</v>
       </c>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="74"/>
-      <c r="H102" s="74"/>
-      <c r="I102" s="74"/>
-      <c r="J102" s="74"/>
-      <c r="K102" s="74"/>
-      <c r="L102" s="74"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="79"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="79"/>
+      <c r="H102" s="79"/>
+      <c r="I102" s="79"/>
+      <c r="J102" s="79"/>
+      <c r="K102" s="79"/>
+      <c r="L102" s="79"/>
     </row>
     <row r="103" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B103" s="75"/>
-      <c r="C103" s="75"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="75"/>
-      <c r="F103" s="75"/>
-      <c r="G103" s="75"/>
-      <c r="H103" s="75"/>
-      <c r="I103" s="75"/>
-      <c r="J103" s="75"/>
-      <c r="K103" s="75"/>
-      <c r="L103" s="75"/>
+      <c r="B103" s="80"/>
+      <c r="C103" s="80"/>
+      <c r="D103" s="80"/>
+      <c r="E103" s="80"/>
+      <c r="F103" s="80"/>
+      <c r="G103" s="80"/>
+      <c r="H103" s="80"/>
+      <c r="I103" s="80"/>
+      <c r="J103" s="80"/>
+      <c r="K103" s="80"/>
+      <c r="L103" s="80"/>
     </row>
     <row r="104" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="105" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B105" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="C105" s="114" t="s">
+      <c r="C105" s="121" t="s">
         <v>280</v>
       </c>
-      <c r="D105" s="115"/>
-      <c r="E105" s="115"/>
-      <c r="F105" s="115"/>
-      <c r="G105" s="115"/>
-      <c r="H105" s="115"/>
-      <c r="I105" s="116"/>
+      <c r="D105" s="122"/>
+      <c r="E105" s="122"/>
+      <c r="F105" s="122"/>
+      <c r="G105" s="122"/>
+      <c r="H105" s="122"/>
+      <c r="I105" s="123"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B107" s="74" t="s">
+      <c r="B107" s="79" t="s">
         <v>276</v>
       </c>
-      <c r="C107" s="74"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="74"/>
-      <c r="H107" s="74"/>
-      <c r="I107" s="74"/>
-      <c r="J107" s="74"/>
-      <c r="K107" s="74"/>
-      <c r="L107" s="74"/>
+      <c r="C107" s="79"/>
+      <c r="D107" s="79"/>
+      <c r="E107" s="79"/>
+      <c r="F107" s="79"/>
+      <c r="G107" s="79"/>
+      <c r="H107" s="79"/>
+      <c r="I107" s="79"/>
+      <c r="J107" s="79"/>
+      <c r="K107" s="79"/>
+      <c r="L107" s="79"/>
     </row>
     <row r="108" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B108" s="75"/>
-      <c r="C108" s="75"/>
-      <c r="D108" s="75"/>
-      <c r="E108" s="75"/>
-      <c r="F108" s="75"/>
-      <c r="G108" s="75"/>
-      <c r="H108" s="75"/>
-      <c r="I108" s="75"/>
-      <c r="J108" s="75"/>
-      <c r="K108" s="75"/>
-      <c r="L108" s="75"/>
+      <c r="B108" s="80"/>
+      <c r="C108" s="80"/>
+      <c r="D108" s="80"/>
+      <c r="E108" s="80"/>
+      <c r="F108" s="80"/>
+      <c r="G108" s="80"/>
+      <c r="H108" s="80"/>
+      <c r="I108" s="80"/>
+      <c r="J108" s="80"/>
+      <c r="K108" s="80"/>
+      <c r="L108" s="80"/>
     </row>
     <row r="109" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="110" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B110" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="C110" s="114" t="s">
+      <c r="C110" s="121" t="s">
         <v>281</v>
       </c>
-      <c r="D110" s="115"/>
-      <c r="E110" s="115"/>
-      <c r="F110" s="115"/>
-      <c r="G110" s="115"/>
-      <c r="H110" s="115"/>
-      <c r="I110" s="116"/>
+      <c r="D110" s="122"/>
+      <c r="E110" s="122"/>
+      <c r="F110" s="122"/>
+      <c r="G110" s="122"/>
+      <c r="H110" s="122"/>
+      <c r="I110" s="123"/>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B112" s="74" t="s">
+      <c r="B112" s="79" t="s">
         <v>231</v>
       </c>
-      <c r="C112" s="74"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="74"/>
-      <c r="H112" s="74"/>
-      <c r="I112" s="74"/>
-      <c r="J112" s="74"/>
-      <c r="K112" s="74"/>
-      <c r="L112" s="74"/>
+      <c r="C112" s="79"/>
+      <c r="D112" s="79"/>
+      <c r="E112" s="79"/>
+      <c r="F112" s="79"/>
+      <c r="G112" s="79"/>
+      <c r="H112" s="79"/>
+      <c r="I112" s="79"/>
+      <c r="J112" s="79"/>
+      <c r="K112" s="79"/>
+      <c r="L112" s="79"/>
     </row>
     <row r="113" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B113" s="75"/>
-      <c r="C113" s="75"/>
-      <c r="D113" s="75"/>
-      <c r="E113" s="75"/>
-      <c r="F113" s="75"/>
-      <c r="G113" s="75"/>
-      <c r="H113" s="75"/>
-      <c r="I113" s="75"/>
-      <c r="J113" s="75"/>
-      <c r="K113" s="75"/>
-      <c r="L113" s="75"/>
+      <c r="B113" s="80"/>
+      <c r="C113" s="80"/>
+      <c r="D113" s="80"/>
+      <c r="E113" s="80"/>
+      <c r="F113" s="80"/>
+      <c r="G113" s="80"/>
+      <c r="H113" s="80"/>
+      <c r="I113" s="80"/>
+      <c r="J113" s="80"/>
+      <c r="K113" s="80"/>
+      <c r="L113" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="B107:L108"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="B75:L76"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B38:L39"/>
+    <mergeCell ref="B68:L69"/>
+    <mergeCell ref="B23:L24"/>
+    <mergeCell ref="B29:L30"/>
     <mergeCell ref="B112:L113"/>
     <mergeCell ref="B82:L83"/>
     <mergeCell ref="B96:L97"/>
@@ -13538,13 +13539,16 @@
     <mergeCell ref="C105:I105"/>
     <mergeCell ref="C91:H91"/>
     <mergeCell ref="C92:H92"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="B38:L39"/>
-    <mergeCell ref="B68:L69"/>
-    <mergeCell ref="B23:L24"/>
-    <mergeCell ref="B29:L30"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="B75:L76"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="B107:L108"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C94:H94"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B68:B69">
@@ -13697,8 +13701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
@@ -13708,58 +13712,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="103" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="17"/>
@@ -13768,32 +13772,32 @@
       <c r="B6" s="17"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
     </row>
     <row r="9" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
     </row>
     <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B11" s="21" t="s">
@@ -13816,130 +13820,130 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
     </row>
     <row r="15" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="2:12" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
     </row>
     <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="138" t="s">
         <v>300</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
     </row>
     <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="34"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="85"/>
     </row>
     <row r="20" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="35"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="103"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="106"/>
     </row>
     <row r="21" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="34"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="85"/>
     </row>
     <row r="22" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="40"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="103"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="106"/>
     </row>
     <row r="23" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="38"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="90"/>
     </row>
     <row r="25" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="96" t="s">
+      <c r="B25" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
     </row>
     <row r="26" spans="2:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="28" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B28" s="21" t="s">
@@ -13963,116 +13967,116 @@
     </row>
     <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="31" spans="2:12" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="123" t="s">
+      <c r="B31" s="142" t="s">
         <v>287</v>
       </c>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="120" t="s">
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="139" t="s">
         <v>298</v>
       </c>
-      <c r="H31" s="121"/>
-      <c r="I31" s="122"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="141"/>
     </row>
     <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="131" t="s">
+      <c r="C32" s="126" t="s">
         <v>291</v>
       </c>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="127"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="133"/>
     </row>
     <row r="33" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="C33" s="110" t="s">
+      <c r="C33" s="113" t="s">
         <v>292</v>
       </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="127"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="133"/>
     </row>
     <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="104" t="s">
         <v>293</v>
       </c>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="127"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="133"/>
     </row>
     <row r="35" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="C35" s="110" t="s">
+      <c r="C35" s="113" t="s">
         <v>294</v>
       </c>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="127"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="133"/>
     </row>
     <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="C36" s="101" t="s">
+      <c r="C36" s="104" t="s">
         <v>296</v>
       </c>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="127"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="133"/>
     </row>
     <row r="37" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="141" t="s">
+      <c r="B37" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="C37" s="93" t="s">
+      <c r="C37" s="81" t="s">
         <v>310</v>
       </c>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="127"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="133"/>
     </row>
     <row r="38" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="C38" s="87" t="s">
+      <c r="C38" s="71" t="s">
         <v>301</v>
       </c>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="130"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="135"/>
+      <c r="I38" s="136"/>
     </row>
     <row r="40" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B40" s="21" t="s">
@@ -14096,139 +14100,119 @@
     </row>
     <row r="42" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="43" spans="2:12" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="123" t="s">
+      <c r="B43" s="142" t="s">
         <v>287</v>
       </c>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="120" t="s">
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="139" t="s">
         <v>298</v>
       </c>
-      <c r="H43" s="121"/>
-      <c r="I43" s="122"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="141"/>
     </row>
     <row r="44" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="131" t="s">
+      <c r="C44" s="126" t="s">
         <v>304</v>
       </c>
-      <c r="D44" s="132"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="127"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="132"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="133"/>
     </row>
     <row r="45" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="C45" s="110" t="s">
+      <c r="C45" s="113" t="s">
         <v>314</v>
       </c>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="126"/>
-      <c r="H45" s="111"/>
-      <c r="I45" s="127"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="133"/>
     </row>
     <row r="46" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B46" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="C46" s="101" t="s">
+      <c r="C46" s="104" t="s">
         <v>296</v>
       </c>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="127"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="133"/>
     </row>
     <row r="47" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="C47" s="110" t="s">
+      <c r="C47" s="113" t="s">
         <v>310</v>
       </c>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="127"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="133"/>
     </row>
     <row r="48" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="C48" s="101" t="s">
+      <c r="C48" s="104" t="s">
         <v>296</v>
       </c>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="126"/>
-      <c r="H48" s="111"/>
-      <c r="I48" s="127"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="133"/>
     </row>
     <row r="49" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B49" s="141" t="s">
+      <c r="B49" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="C49" s="93" t="s">
+      <c r="C49" s="81" t="s">
         <v>312</v>
       </c>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="126"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="127"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="132"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="133"/>
     </row>
     <row r="50" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="C50" s="87" t="s">
+      <c r="C50" s="71" t="s">
         <v>301</v>
       </c>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="128"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="130"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="135"/>
+      <c r="I50" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="B14:L15"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G32:I38"/>
-    <mergeCell ref="B25:L26"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
     <mergeCell ref="C50:F50"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="B31:F31"/>
@@ -14241,6 +14225,26 @@
     <mergeCell ref="C46:F46"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G32:I38"/>
+    <mergeCell ref="B25:L26"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B14:L15"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -14264,58 +14268,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="407">
   <si>
     <t>オンライン利用技術</t>
     <rPh sb="5" eb="7">
@@ -3944,6 +3944,42 @@
   </si>
   <si>
     <t>アンコモン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>狐面</t>
+    <rPh sb="0" eb="1">
+      <t>キツネ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>メン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風車</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>クルマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの詳細です。()の中はレベルアップした際の量です。</t>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>リョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5144,16 +5180,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5177,41 +5216,29 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5264,32 +5291,50 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5330,12 +5375,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5345,23 +5384,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5381,6 +5462,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5396,10 +5498,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5435,30 +5546,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5468,63 +5555,767 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="193">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -5556,24 +6347,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5590,9 +6363,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
@@ -5600,1222 +6370,7 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6827,13 +6382,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -6852,44 +6400,532 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8850,15 +8886,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>8965</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>13253</xdr:rowOff>
+      <xdr:rowOff>8964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>683034</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1514</xdr:rowOff>
+      <xdr:colOff>691999</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>681317</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8881,8 +8917,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="669235" y="8103705"/>
-          <a:ext cx="683034" cy="684000"/>
+          <a:off x="681318" y="8032376"/>
+          <a:ext cx="683034" cy="672353"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9498,6 +9534,94 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="672353" y="17687365"/>
+          <a:ext cx="684000" cy="684000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>684000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>684000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672353" y="19641671"/>
+          <a:ext cx="684000" cy="684000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>684000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>684000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672353" y="20340918"/>
           <a:ext cx="684000" cy="684000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10968,45 +11092,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="テーブル6" displayName="テーブル6" ref="B29:E45" totalsRowShown="0" headerRowDxfId="184" headerRowBorderDxfId="182" tableBorderDxfId="183">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="テーブル6" displayName="テーブル6" ref="B29:E45" totalsRowShown="0" headerRowDxfId="118" headerRowBorderDxfId="117" tableBorderDxfId="116">
   <autoFilter ref="B29:E45"/>
-  <sortState ref="B30:E37">
+  <sortState ref="B30:E45">
     <sortCondition descending="1" ref="C29:C37"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="画像"/>
-    <tableColumn id="2" name="名前" dataDxfId="181"/>
-    <tableColumn id="3" name="効果" dataDxfId="180"/>
-    <tableColumn id="4" name="効果タイプ" dataDxfId="179"/>
+    <tableColumn id="2" name="名前" dataDxfId="115"/>
+    <tableColumn id="3" name="効果" dataDxfId="114"/>
+    <tableColumn id="4" name="効果タイプ" dataDxfId="113"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="テーブル8" displayName="テーブル8" ref="B50:E60" totalsRowShown="0" headerRowDxfId="112" headerRowBorderDxfId="111" tableBorderDxfId="110">
+  <autoFilter ref="B50:E60"/>
+  <sortState ref="B51:E60">
+    <sortCondition descending="1" ref="C50:C60"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="画像"/>
+    <tableColumn id="2" name="名前" dataDxfId="109"/>
+    <tableColumn id="3" name="効果"/>
+    <tableColumn id="4" name="効果タイプ" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="テーブル8" displayName="テーブル8" ref="B50:E60" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
-  <autoFilter ref="B50:E60"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="画像"/>
-    <tableColumn id="2" name="名前" dataDxfId="0"/>
-    <tableColumn id="3" name="効果"/>
-    <tableColumn id="4" name="効果タイプ" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B31:H44" totalsRowShown="0" dataDxfId="192" tableBorderDxfId="191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B31:H44" totalsRowShown="0" dataDxfId="59" tableBorderDxfId="58">
   <autoFilter ref="B31:H44"/>
   <tableColumns count="7">
     <tableColumn id="1" name="ステータス名"/>
-    <tableColumn id="2" name="合計値" dataDxfId="190"/>
-    <tableColumn id="3" name="基礎値" dataDxfId="189"/>
-    <tableColumn id="4" name="アイテム加算値" dataDxfId="188"/>
-    <tableColumn id="5" name="バフ加算値" dataDxfId="187"/>
-    <tableColumn id="6" name="アイテム乗算値" dataDxfId="186"/>
-    <tableColumn id="7" name="バフ乗算値" dataDxfId="185"/>
+    <tableColumn id="2" name="合計値" dataDxfId="57"/>
+    <tableColumn id="3" name="基礎値" dataDxfId="56"/>
+    <tableColumn id="4" name="アイテム加算値" dataDxfId="55"/>
+    <tableColumn id="5" name="バフ加算値" dataDxfId="54"/>
+    <tableColumn id="6" name="アイテム乗算値" dataDxfId="53"/>
+    <tableColumn id="7" name="バフ乗算値" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11289,35 +11416,35 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="61" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="64"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="2:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
       <c r="L3" t="s">
         <v>0</v>
       </c>
@@ -11326,18 +11453,18 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58" t="s">
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
       <c r="L4" t="s">
         <v>1</v>
       </c>
@@ -11346,18 +11473,18 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="58" t="s">
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -11366,18 +11493,18 @@
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58" t="s">
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
       <c r="L6" t="s">
         <v>3</v>
       </c>
@@ -11386,18 +11513,18 @@
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="L7" t="s">
         <v>4</v>
       </c>
@@ -11406,158 +11533,140 @@
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58" t="s">
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58" t="s">
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58" t="s">
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58" t="s">
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58" t="s">
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58" t="s">
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="C15:E15"/>
@@ -11568,15 +11677,33 @@
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:J13"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
-    <cfRule type="cellIs" dxfId="178" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="1" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:J2 B3:C3 F3 B4:J15">
-    <cfRule type="cellIs" dxfId="177" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="2" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11597,58 +11724,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11672,58 +11799,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11747,58 +11874,58 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11859,100 +11986,100 @@
       <c r="V1" s="11"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
     </row>
     <row r="6" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
     </row>
     <row r="7" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="180" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
     </row>
     <row r="8" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="181" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
     </row>
     <row r="9" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="164" t="s">
+      <c r="B9" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="164"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
     </row>
     <row r="12" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
     </row>
     <row r="13" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="10" t="s">
@@ -12345,30 +12472,30 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B4 B13 H21:H26 H28:H34 B19 B22 B26 B32 B47 B50 B35 B38 B41 B44 B53 B55:B1048576">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12425,32 +12552,32 @@
       <c r="V1" s="14"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="16" t="s">
@@ -12463,32 +12590,32 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
     </row>
     <row r="9" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
     </row>
     <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B11" s="20" t="s">
@@ -12540,60 +12667,60 @@
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
     </row>
     <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
     </row>
     <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
     </row>
     <row r="24" spans="1:14" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24"/>
@@ -12645,34 +12772,34 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="17"/>
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
     </row>
     <row r="32" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="17"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
@@ -12711,65 +12838,65 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" s="17"/>
-      <c r="B47" s="99" t="s">
+      <c r="B47" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="99"/>
-      <c r="K47" s="99"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="75"/>
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
     </row>
     <row r="48" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="17"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="100"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B61" s="80" t="s">
+      <c r="B61" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="77"/>
+      <c r="K61" s="77"/>
+      <c r="L61" s="77"/>
     </row>
     <row r="62" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B62" s="81"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="81"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="81"/>
-      <c r="J62" s="81"/>
-      <c r="K62" s="81"/>
-      <c r="L62" s="81"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="78"/>
+      <c r="L62" s="78"/>
     </row>
     <row r="64" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="24" t="s">
@@ -12799,14 +12926,14 @@
       <c r="B66" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="C66" s="82" t="s">
+      <c r="C66" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="D66" s="82"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="83"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="80"/>
       <c r="I66" s="38"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.45">
@@ -12821,32 +12948,32 @@
       <c r="I67" s="38"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B68" s="80" t="s">
+      <c r="B68" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="C68" s="80"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="80"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="80"/>
-      <c r="I68" s="80"/>
-      <c r="J68" s="80"/>
-      <c r="K68" s="80"/>
-      <c r="L68" s="80"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="77"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="77"/>
     </row>
     <row r="69" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B69" s="81"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="81"/>
-      <c r="I69" s="81"/>
-      <c r="J69" s="81"/>
-      <c r="K69" s="81"/>
-      <c r="L69" s="81"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="78"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="78"/>
+      <c r="I69" s="78"/>
+      <c r="J69" s="78"/>
+      <c r="K69" s="78"/>
+      <c r="L69" s="78"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="38"/>
@@ -12889,94 +13016,94 @@
       <c r="B73" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="C73" s="87" t="s">
+      <c r="C73" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="D73" s="87"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="87"/>
-      <c r="H73" s="88"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="84"/>
+      <c r="H73" s="85"/>
     </row>
     <row r="74" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B74" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="C74" s="89" t="s">
+      <c r="C74" s="86" t="s">
         <v>190</v>
       </c>
-      <c r="D74" s="90"/>
-      <c r="E74" s="90"/>
-      <c r="F74" s="90"/>
-      <c r="G74" s="90"/>
-      <c r="H74" s="91"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="87"/>
+      <c r="H74" s="88"/>
     </row>
     <row r="75" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B75" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="C75" s="92" t="s">
+      <c r="C75" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="D75" s="92"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="92"/>
-      <c r="G75" s="92"/>
-      <c r="H75" s="93"/>
+      <c r="D75" s="89"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="89"/>
+      <c r="G75" s="89"/>
+      <c r="H75" s="90"/>
     </row>
     <row r="76" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B76" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="C76" s="94" t="s">
+      <c r="C76" s="91" t="s">
         <v>192</v>
       </c>
-      <c r="D76" s="95"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="95"/>
-      <c r="G76" s="95"/>
-      <c r="H76" s="96"/>
+      <c r="D76" s="92"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="92"/>
+      <c r="G76" s="92"/>
+      <c r="H76" s="93"/>
     </row>
     <row r="77" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B77" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="C77" s="84" t="s">
+      <c r="C77" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D77" s="85"/>
-      <c r="E77" s="85"/>
-      <c r="F77" s="85"/>
-      <c r="G77" s="85"/>
-      <c r="H77" s="86"/>
+      <c r="D77" s="82"/>
+      <c r="E77" s="82"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="82"/>
+      <c r="H77" s="83"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B79" s="80" t="s">
+      <c r="B79" s="77" t="s">
         <v>196</v>
       </c>
-      <c r="C79" s="80"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="80"/>
-      <c r="F79" s="80"/>
-      <c r="G79" s="80"/>
-      <c r="H79" s="80"/>
-      <c r="I79" s="80"/>
-      <c r="J79" s="80"/>
-      <c r="K79" s="80"/>
-      <c r="L79" s="80"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="77"/>
+      <c r="H79" s="77"/>
+      <c r="I79" s="77"/>
+      <c r="J79" s="77"/>
+      <c r="K79" s="77"/>
+      <c r="L79" s="77"/>
     </row>
     <row r="80" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B80" s="81"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="81"/>
-      <c r="E80" s="81"/>
-      <c r="F80" s="81"/>
-      <c r="G80" s="81"/>
-      <c r="H80" s="81"/>
-      <c r="I80" s="81"/>
-      <c r="J80" s="81"/>
-      <c r="K80" s="81"/>
-      <c r="L80" s="81"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="78"/>
+      <c r="F80" s="78"/>
+      <c r="G80" s="78"/>
+      <c r="H80" s="78"/>
+      <c r="I80" s="78"/>
+      <c r="J80" s="78"/>
+      <c r="K80" s="78"/>
+      <c r="L80" s="78"/>
     </row>
     <row r="82" spans="2:12" ht="26.4" x14ac:dyDescent="0.65">
       <c r="B82" s="41" t="s">
@@ -13138,72 +13265,71 @@
     </row>
     <row r="110" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="111" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B111" s="74" t="s">
+      <c r="B111" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="C111" s="75"/>
-      <c r="D111" s="75"/>
-      <c r="E111" s="75"/>
-      <c r="F111" s="75"/>
-      <c r="G111" s="75"/>
-      <c r="H111" s="75"/>
-      <c r="I111" s="75"/>
-      <c r="J111" s="75"/>
-      <c r="K111" s="75"/>
-      <c r="L111" s="76"/>
+      <c r="C111" s="101"/>
+      <c r="D111" s="101"/>
+      <c r="E111" s="101"/>
+      <c r="F111" s="101"/>
+      <c r="G111" s="101"/>
+      <c r="H111" s="101"/>
+      <c r="I111" s="101"/>
+      <c r="J111" s="101"/>
+      <c r="K111" s="101"/>
+      <c r="L111" s="102"/>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B112" s="77" t="s">
+      <c r="B112" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="C112" s="78"/>
-      <c r="D112" s="78"/>
-      <c r="E112" s="78"/>
-      <c r="F112" s="78"/>
-      <c r="G112" s="78"/>
-      <c r="H112" s="78"/>
-      <c r="I112" s="78"/>
-      <c r="J112" s="78"/>
-      <c r="K112" s="78"/>
-      <c r="L112" s="79"/>
+      <c r="C112" s="104"/>
+      <c r="D112" s="104"/>
+      <c r="E112" s="104"/>
+      <c r="F112" s="104"/>
+      <c r="G112" s="104"/>
+      <c r="H112" s="104"/>
+      <c r="I112" s="104"/>
+      <c r="J112" s="104"/>
+      <c r="K112" s="104"/>
+      <c r="L112" s="105"/>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B113" s="68"/>
-      <c r="C113" s="69"/>
-      <c r="D113" s="69"/>
-      <c r="E113" s="69"/>
-      <c r="F113" s="69"/>
-      <c r="G113" s="69"/>
-      <c r="H113" s="69"/>
-      <c r="I113" s="69"/>
-      <c r="J113" s="69"/>
-      <c r="K113" s="69"/>
-      <c r="L113" s="70"/>
+      <c r="B113" s="94"/>
+      <c r="C113" s="95"/>
+      <c r="D113" s="95"/>
+      <c r="E113" s="95"/>
+      <c r="F113" s="95"/>
+      <c r="G113" s="95"/>
+      <c r="H113" s="95"/>
+      <c r="I113" s="95"/>
+      <c r="J113" s="95"/>
+      <c r="K113" s="95"/>
+      <c r="L113" s="96"/>
     </row>
     <row r="114" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B114" s="71" t="s">
+      <c r="B114" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C114" s="72"/>
-      <c r="D114" s="72"/>
-      <c r="E114" s="72"/>
-      <c r="F114" s="72"/>
-      <c r="G114" s="72"/>
-      <c r="H114" s="72"/>
-      <c r="I114" s="72"/>
-      <c r="J114" s="72"/>
-      <c r="K114" s="72"/>
-      <c r="L114" s="73"/>
+      <c r="C114" s="98"/>
+      <c r="D114" s="98"/>
+      <c r="E114" s="98"/>
+      <c r="F114" s="98"/>
+      <c r="G114" s="98"/>
+      <c r="H114" s="98"/>
+      <c r="I114" s="98"/>
+      <c r="J114" s="98"/>
+      <c r="K114" s="98"/>
+      <c r="L114" s="99"/>
     </row>
     <row r="115" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="B47:K48"/>
-    <mergeCell ref="B18:L19"/>
-    <mergeCell ref="B31:K32"/>
-    <mergeCell ref="B22:L23"/>
+    <mergeCell ref="B113:L113"/>
+    <mergeCell ref="B114:L114"/>
+    <mergeCell ref="B111:L111"/>
+    <mergeCell ref="B112:L112"/>
+    <mergeCell ref="B79:L80"/>
     <mergeCell ref="B61:L62"/>
     <mergeCell ref="C66:H66"/>
     <mergeCell ref="C77:H77"/>
@@ -13212,192 +13338,193 @@
     <mergeCell ref="C75:H75"/>
     <mergeCell ref="B68:L69"/>
     <mergeCell ref="C76:H76"/>
-    <mergeCell ref="B113:L113"/>
-    <mergeCell ref="B114:L114"/>
-    <mergeCell ref="B111:L111"/>
-    <mergeCell ref="B112:L112"/>
-    <mergeCell ref="B79:L80"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B47:K48"/>
+    <mergeCell ref="B18:L19"/>
+    <mergeCell ref="B31:K32"/>
+    <mergeCell ref="B22:L23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B17 B10:B13">
-    <cfRule type="cellIs" dxfId="176" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="73" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="74" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="75" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="76" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16">
-    <cfRule type="cellIs" dxfId="172" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="65" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="66" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="67" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="68" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="168" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="49" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="50" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="51" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="52" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B62">
-    <cfRule type="cellIs" dxfId="164" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="57" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="58" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="59" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="60" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:B69">
-    <cfRule type="cellIs" dxfId="160" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="41" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="42" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="43" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="44" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:B80">
-    <cfRule type="cellIs" dxfId="156" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="33" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="34" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="35" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="36" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="152" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="29" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="30" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="31" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="32" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="148" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="21" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="22" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="23" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="24" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="cellIs" dxfId="144" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="17" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="18" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="19" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="20" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="cellIs" dxfId="140" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="13" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="14" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="15" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="16" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="cellIs" dxfId="136" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="9" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="10" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="11" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="12" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="cellIs" dxfId="132" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="6" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="7" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="8" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="cellIs" dxfId="128" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13425,58 +13552,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="16" t="s">
@@ -13484,32 +13611,32 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
     </row>
     <row r="8" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
     </row>
     <row r="9" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B9" s="8" t="s">
@@ -13542,539 +13669,539 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="77" t="s">
         <v>312</v>
       </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
     </row>
     <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
     </row>
     <row r="20" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="21" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="56" t="s">
         <v>313</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="79" t="s">
         <v>321</v>
       </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="80"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="77" t="s">
         <v>317</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
     </row>
     <row r="24" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="26" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="C26" s="84" t="s">
         <v>322</v>
       </c>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="88"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="85"/>
     </row>
     <row r="27" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="C27" s="119" t="s">
+      <c r="C27" s="107" t="s">
         <v>316</v>
       </c>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="120"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="108"/>
     </row>
     <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="82" t="s">
         <v>320</v>
       </c>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="86"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="83"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="77" t="s">
         <v>318</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
     </row>
     <row r="31" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
     </row>
     <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="33" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="84" t="s">
         <v>324</v>
       </c>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="88"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="85"/>
     </row>
     <row r="34" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="C34" s="118" t="s">
+      <c r="C34" s="121" t="s">
         <v>327</v>
       </c>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="120"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="108"/>
     </row>
     <row r="35" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C35" s="115" t="s">
+      <c r="C35" s="118" t="s">
         <v>328</v>
       </c>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="117"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="120"/>
     </row>
     <row r="36" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="121" t="s">
+      <c r="B36" s="122" t="s">
         <v>329</v>
       </c>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="122"/>
-      <c r="H36" s="123"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="124"/>
     </row>
     <row r="37" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="C37" s="106" t="s">
+      <c r="C37" s="109" t="s">
         <v>345</v>
       </c>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="108"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="111"/>
     </row>
     <row r="38" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="45" t="s">
         <v>331</v>
       </c>
-      <c r="C38" s="109"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="111"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="114"/>
     </row>
     <row r="39" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="C39" s="109"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="111"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="114"/>
     </row>
     <row r="40" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="C40" s="109"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="111"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="114"/>
     </row>
     <row r="41" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="C41" s="109"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="111"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="114"/>
     </row>
     <row r="42" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="52" t="s">
         <v>332</v>
       </c>
-      <c r="C42" s="109"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="111"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="114"/>
     </row>
     <row r="43" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="C43" s="109"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="111"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="114"/>
     </row>
     <row r="44" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="52" t="s">
         <v>334</v>
       </c>
-      <c r="C44" s="109"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="111"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="114"/>
     </row>
     <row r="45" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="53" t="s">
         <v>335</v>
       </c>
-      <c r="C45" s="109"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="111"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="114"/>
     </row>
     <row r="46" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B46" s="52" t="s">
         <v>336</v>
       </c>
-      <c r="C46" s="109"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="111"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="114"/>
     </row>
     <row r="47" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="C47" s="109"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="111"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="114"/>
     </row>
     <row r="48" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="C48" s="112"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="114"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="117"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
+      <c r="G49" s="129"/>
+      <c r="H49" s="129"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B50" s="80" t="s">
+      <c r="B50" s="77" t="s">
         <v>350</v>
       </c>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="77"/>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="78"/>
     </row>
     <row r="52" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="53" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" s="56" t="s">
         <v>346</v>
       </c>
-      <c r="C53" s="82" t="s">
+      <c r="C53" s="79" t="s">
         <v>347</v>
       </c>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="83"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="80"/>
     </row>
     <row r="54" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B54" s="55" t="s">
         <v>348</v>
       </c>
-      <c r="C54" s="101" t="s">
+      <c r="C54" s="125" t="s">
         <v>349</v>
       </c>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="102"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="126"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B56" s="80" t="s">
+      <c r="B56" s="77" t="s">
         <v>351</v>
       </c>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="80"/>
-      <c r="K56" s="80"/>
-      <c r="L56" s="80"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="77"/>
+      <c r="J56" s="77"/>
+      <c r="K56" s="77"/>
+      <c r="L56" s="77"/>
     </row>
     <row r="57" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="81"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="78"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="78"/>
     </row>
     <row r="58" spans="2:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="59" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B59" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="C59" s="87" t="s">
+      <c r="C59" s="84" t="s">
         <v>353</v>
       </c>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="88"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="85"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B60" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="C60" s="103" t="s">
+      <c r="C60" s="127" t="s">
         <v>354</v>
       </c>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="104"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="127"/>
+      <c r="F60" s="127"/>
+      <c r="G60" s="127"/>
+      <c r="H60" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="B7:L8"/>
-    <mergeCell ref="B18:L19"/>
-    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="B56:L57"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C37:H48"/>
+    <mergeCell ref="B50:L51"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="B36:H36"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="B30:L31"/>
     <mergeCell ref="C33:H33"/>
     <mergeCell ref="B23:L24"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C37:H48"/>
-    <mergeCell ref="B50:L51"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="B56:L57"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B7:L8"/>
+    <mergeCell ref="B18:L19"/>
+    <mergeCell ref="C21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="cellIs" dxfId="124" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="13" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="14" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="15" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="16" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B19">
-    <cfRule type="cellIs" dxfId="120" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="21" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="22" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="23" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="24" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B24">
-    <cfRule type="cellIs" dxfId="116" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="17" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="18" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="19" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="20" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B51">
-    <cfRule type="cellIs" dxfId="112" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="9" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="10" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="11" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="12" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56:B57">
-    <cfRule type="cellIs" dxfId="108" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="6" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="7" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="8" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14087,8 +14214,8 @@
   <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -14101,74 +14228,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="106" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:18" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="16" t="s">
-        <v>306</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="16"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
     </row>
     <row r="11" spans="1:18" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B11" s="20" t="s">
@@ -14187,403 +14314,411 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="73" t="s">
         <v>273</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
     </row>
     <row r="15" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="2:8" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="159"/>
-      <c r="D17" s="160"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="141"/>
     </row>
     <row r="18" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="142" t="s">
         <v>358</v>
       </c>
-      <c r="C18" s="166"/>
-      <c r="D18" s="167"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="144"/>
     </row>
     <row r="19" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="168" t="s">
+      <c r="B19" s="130" t="s">
         <v>359</v>
       </c>
-      <c r="C19" s="169"/>
-      <c r="D19" s="170"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="132"/>
     </row>
     <row r="20" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="133" t="s">
         <v>360</v>
       </c>
-      <c r="C20" s="172"/>
-      <c r="D20" s="173"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="135"/>
       <c r="F20" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="168" t="s">
+      <c r="B21" s="130" t="s">
         <v>359</v>
       </c>
-      <c r="C21" s="169"/>
-      <c r="D21" s="170"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="132"/>
       <c r="F21" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="171" t="s">
+      <c r="B22" s="133" t="s">
         <v>360</v>
       </c>
-      <c r="C22" s="172"/>
-      <c r="D22" s="173"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="135"/>
     </row>
     <row r="23" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="174" t="s">
+      <c r="B23" s="136" t="s">
         <v>361</v>
       </c>
-      <c r="C23" s="175"/>
-      <c r="D23" s="176"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="138"/>
     </row>
     <row r="26" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="73" t="s">
         <v>364</v>
       </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
     </row>
     <row r="27" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
     </row>
     <row r="29" spans="2:8" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="177" t="s">
+      <c r="B29" s="57" t="s">
         <v>365</v>
       </c>
-      <c r="C29" s="177" t="s">
+      <c r="C29" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="D29" s="177" t="s">
+      <c r="D29" s="57" t="s">
         <v>367</v>
       </c>
-      <c r="E29" s="177" t="s">
+      <c r="E29" s="57" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="27"/>
-      <c r="C30" s="178" t="s">
+      <c r="C30" s="58" t="s">
         <v>377</v>
       </c>
-      <c r="D30" s="178" t="s">
+      <c r="D30" s="58" t="s">
         <v>378</v>
       </c>
-      <c r="E30" s="178" t="s">
+      <c r="E30" s="58" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="27"/>
-      <c r="C31" s="178" t="s">
+      <c r="C31" s="58" t="s">
         <v>370</v>
       </c>
-      <c r="D31" s="179" t="s">
+      <c r="D31" s="59" t="s">
         <v>376</v>
       </c>
-      <c r="E31" s="178" t="s">
+      <c r="E31" s="58" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="27"/>
-      <c r="C32" s="178" t="s">
+      <c r="C32" s="58" t="s">
         <v>371</v>
       </c>
-      <c r="D32" s="178" t="s">
+      <c r="D32" s="58" t="s">
         <v>375</v>
       </c>
-      <c r="E32" s="178" t="s">
+      <c r="E32" s="58" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="27"/>
-      <c r="C33" s="178" t="s">
+      <c r="C33" s="58" t="s">
         <v>373</v>
       </c>
-      <c r="D33" s="178" t="s">
+      <c r="D33" s="58" t="s">
         <v>374</v>
       </c>
-      <c r="E33" s="178" t="s">
+      <c r="E33" s="58" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="27"/>
-      <c r="C34" s="178" t="s">
+      <c r="C34" s="58" t="s">
         <v>379</v>
       </c>
-      <c r="D34" s="178" t="s">
+      <c r="D34" s="58" t="s">
         <v>381</v>
       </c>
-      <c r="E34" s="178" t="s">
+      <c r="E34" s="58" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="27"/>
-      <c r="C35" s="178" t="s">
+      <c r="C35" s="58" t="s">
         <v>380</v>
       </c>
-      <c r="D35" s="178" t="s">
+      <c r="D35" s="58" t="s">
         <v>382</v>
       </c>
-      <c r="E35" s="178" t="s">
+      <c r="E35" s="58" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="27"/>
-      <c r="C36" s="178" t="s">
+      <c r="C36" s="58" t="s">
         <v>386</v>
       </c>
-      <c r="D36" s="178" t="s">
+      <c r="D36" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="E36" s="178" t="s">
+      <c r="E36" s="58" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="27"/>
-      <c r="C37" s="178" t="s">
+      <c r="C37" s="58" t="s">
         <v>385</v>
       </c>
-      <c r="D37" s="178" t="s">
+      <c r="D37" s="58" t="s">
         <v>384</v>
       </c>
-      <c r="E37" s="178" t="s">
+      <c r="E37" s="58" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="27"/>
-      <c r="C38" s="178" t="s">
+      <c r="C38" s="58" t="s">
         <v>387</v>
       </c>
-      <c r="D38" s="178" t="s">
+      <c r="D38" s="58" t="s">
         <v>388</v>
       </c>
-      <c r="E38" s="178" t="s">
+      <c r="E38" s="58" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="27"/>
-      <c r="C39" s="178" t="s">
+      <c r="C39" s="58" t="s">
         <v>389</v>
       </c>
-      <c r="D39" s="178" t="s">
+      <c r="D39" s="58" t="s">
         <v>390</v>
       </c>
-      <c r="E39" s="178" t="s">
+      <c r="E39" s="58" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="27"/>
-      <c r="C40" s="178" t="s">
+      <c r="C40" s="58" t="s">
         <v>391</v>
       </c>
-      <c r="D40" s="178" t="s">
+      <c r="D40" s="58" t="s">
         <v>392</v>
       </c>
-      <c r="E40" s="178" t="s">
+      <c r="E40" s="58" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="27"/>
-      <c r="C41" s="178" t="s">
+      <c r="C41" s="58" t="s">
         <v>393</v>
       </c>
-      <c r="D41" s="178" t="s">
+      <c r="D41" s="58" t="s">
         <v>394</v>
       </c>
-      <c r="E41" s="178" t="s">
+      <c r="E41" s="58" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="27"/>
-      <c r="C42" s="178" t="s">
+      <c r="C42" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="D42" s="178" t="s">
+      <c r="D42" s="58" t="s">
         <v>395</v>
       </c>
-      <c r="E42" s="178" t="s">
+      <c r="E42" s="58" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="27"/>
-      <c r="C43" s="178" t="s">
+      <c r="C43" s="58" t="s">
         <v>400</v>
       </c>
-      <c r="D43" s="178" t="s">
+      <c r="D43" s="58" t="s">
         <v>396</v>
       </c>
-      <c r="E43" s="178" t="s">
+      <c r="E43" s="58" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="27"/>
-      <c r="C44" s="178" t="s">
+      <c r="C44" s="58" t="s">
         <v>402</v>
       </c>
-      <c r="D44" s="178" t="s">
+      <c r="D44" s="58" t="s">
         <v>398</v>
       </c>
-      <c r="E44" s="178" t="s">
+      <c r="E44" s="58" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="27"/>
-      <c r="C45" s="178" t="s">
+      <c r="C45" s="58" t="s">
         <v>399</v>
       </c>
-      <c r="D45" s="179" t="s">
+      <c r="D45" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="E45" s="178" t="s">
+      <c r="E45" s="58" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="97" t="s">
+      <c r="B47" s="73" t="s">
         <v>403</v>
       </c>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="97"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
     </row>
     <row r="48" spans="2:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
     </row>
     <row r="50" spans="2:5" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B50" s="177" t="s">
+      <c r="B50" s="57" t="s">
         <v>365</v>
       </c>
-      <c r="C50" s="177" t="s">
+      <c r="C50" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="D50" s="177" t="s">
+      <c r="D50" s="57" t="s">
         <v>367</v>
       </c>
-      <c r="E50" s="177" t="s">
+      <c r="E50" s="57" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="27"/>
-      <c r="C51" s="180"/>
-      <c r="D51" s="178"/>
-      <c r="E51" s="178"/>
+      <c r="C51" s="60" t="s">
+        <v>404</v>
+      </c>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
     </row>
     <row r="52" spans="2:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="27"/>
-      <c r="C52" s="181"/>
-      <c r="D52" s="179"/>
-      <c r="E52" s="178"/>
+      <c r="C52" s="61" t="s">
+        <v>405</v>
+      </c>
+      <c r="D52" s="59"/>
+      <c r="E52" s="58"/>
     </row>
     <row r="53" spans="2:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="27"/>
-      <c r="C53" s="181"/>
-      <c r="D53" s="179"/>
-      <c r="E53" s="178"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="58"/>
     </row>
     <row r="54" spans="2:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="27"/>
-      <c r="C54" s="181"/>
-      <c r="D54" s="179"/>
-      <c r="E54" s="178"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="58"/>
     </row>
     <row r="55" spans="2:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="27"/>
-      <c r="C55" s="181"/>
-      <c r="D55" s="179"/>
-      <c r="E55" s="178"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="58"/>
     </row>
     <row r="56" spans="2:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="27"/>
-      <c r="C56" s="181"/>
-      <c r="D56" s="179"/>
-      <c r="E56" s="178"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="58"/>
     </row>
     <row r="57" spans="2:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="27"/>
-      <c r="C57" s="181"/>
-      <c r="D57" s="179"/>
-      <c r="E57" s="178"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="58"/>
     </row>
     <row r="58" spans="2:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="27"/>
-      <c r="C58" s="181"/>
-      <c r="D58" s="179"/>
-      <c r="E58" s="178"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="58"/>
     </row>
     <row r="59" spans="2:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="27"/>
-      <c r="C59" s="181"/>
-      <c r="D59" s="179"/>
-      <c r="E59" s="178"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="58"/>
     </row>
     <row r="60" spans="2:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="27"/>
-      <c r="C60" s="181"/>
-      <c r="D60" s="179"/>
-      <c r="E60" s="178"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="B3:H4"/>
+    <mergeCell ref="B8:H9"/>
+    <mergeCell ref="B14:H15"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
@@ -14593,10 +14728,6 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B26:H27"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="B3:H4"/>
-    <mergeCell ref="B8:H9"/>
-    <mergeCell ref="B14:H15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14654,32 +14785,32 @@
       <c r="V1" s="14"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
     </row>
     <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B5" s="18" t="s">
@@ -14745,32 +14876,32 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
     </row>
     <row r="15" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="7"/>
@@ -14816,32 +14947,32 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
     </row>
     <row r="24" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
     </row>
     <row r="26" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B26" s="21" t="s">
@@ -15221,87 +15352,87 @@
       <c r="B48" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="87" t="s">
+      <c r="C48" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="88"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="85"/>
     </row>
     <row r="49" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="119" t="s">
+      <c r="C49" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="119"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="119"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="120"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="108"/>
     </row>
     <row r="50" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="116" t="s">
+      <c r="C50" s="119" t="s">
         <v>187</v>
       </c>
-      <c r="D50" s="116"/>
-      <c r="E50" s="116"/>
-      <c r="F50" s="116"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="117"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="120"/>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="119" t="s">
+      <c r="C51" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="120"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="108"/>
     </row>
     <row r="52" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B52" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="115" t="s">
+      <c r="C52" s="118" t="s">
         <v>185</v>
       </c>
-      <c r="D52" s="116"/>
-      <c r="E52" s="116"/>
-      <c r="F52" s="116"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="117"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="119"/>
+      <c r="F52" s="119"/>
+      <c r="G52" s="119"/>
+      <c r="H52" s="120"/>
     </row>
     <row r="53" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C53" s="125" t="s">
+      <c r="C53" s="151" t="s">
         <v>152</v>
       </c>
-      <c r="D53" s="125"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="125"/>
-      <c r="G53" s="125"/>
-      <c r="H53" s="126"/>
+      <c r="D53" s="151"/>
+      <c r="E53" s="151"/>
+      <c r="F53" s="151"/>
+      <c r="G53" s="151"/>
+      <c r="H53" s="152"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C54" s="105"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="129"/>
     </row>
     <row r="55" spans="2:12" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="24" t="s">
@@ -15330,53 +15461,53 @@
       <c r="B57" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C57" s="87" t="s">
+      <c r="C57" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="88"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="85"/>
     </row>
     <row r="58" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="C58" s="119" t="s">
+      <c r="C58" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="D58" s="119"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="119"/>
-      <c r="G58" s="119"/>
-      <c r="H58" s="120"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="107"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="108"/>
     </row>
     <row r="59" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B59" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="127" t="s">
+      <c r="C59" s="153" t="s">
         <v>174</v>
       </c>
-      <c r="D59" s="128"/>
-      <c r="E59" s="128"/>
-      <c r="F59" s="128"/>
-      <c r="G59" s="128"/>
-      <c r="H59" s="129"/>
+      <c r="D59" s="154"/>
+      <c r="E59" s="154"/>
+      <c r="F59" s="154"/>
+      <c r="G59" s="154"/>
+      <c r="H59" s="155"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B60" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="125" t="s">
+      <c r="C60" s="151" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="125"/>
-      <c r="E60" s="125"/>
-      <c r="F60" s="125"/>
-      <c r="G60" s="125"/>
-      <c r="H60" s="126"/>
+      <c r="D60" s="151"/>
+      <c r="E60" s="151"/>
+      <c r="F60" s="151"/>
+      <c r="G60" s="151"/>
+      <c r="H60" s="152"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C61" s="31"/>
@@ -15387,32 +15518,32 @@
       <c r="H61" s="31"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B62" s="80" t="s">
+      <c r="B62" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="80"/>
-      <c r="I62" s="80"/>
-      <c r="J62" s="80"/>
-      <c r="K62" s="80"/>
-      <c r="L62" s="80"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="77"/>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B63" s="81"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="81"/>
-      <c r="J63" s="81"/>
-      <c r="K63" s="81"/>
-      <c r="L63" s="81"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="78"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="78"/>
+      <c r="I63" s="78"/>
+      <c r="J63" s="78"/>
+      <c r="K63" s="78"/>
+      <c r="L63" s="78"/>
     </row>
     <row r="65" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B65" s="21" t="s">
@@ -15434,82 +15565,87 @@
       <c r="B67" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C67" s="87" t="s">
+      <c r="C67" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="D67" s="87"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="H67" s="88"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="85"/>
     </row>
     <row r="68" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C68" s="89" t="s">
+      <c r="C68" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="90"/>
-      <c r="E68" s="90"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="90"/>
-      <c r="H68" s="91"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="87"/>
+      <c r="G68" s="87"/>
+      <c r="H68" s="88"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B69" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C69" s="92" t="s">
+      <c r="C69" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="D69" s="92"/>
-      <c r="E69" s="92"/>
-      <c r="F69" s="92"/>
-      <c r="G69" s="92"/>
-      <c r="H69" s="93"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="90"/>
     </row>
     <row r="70" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B70" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C70" s="118" t="s">
+      <c r="C70" s="121" t="s">
         <v>210</v>
       </c>
-      <c r="D70" s="119"/>
-      <c r="E70" s="119"/>
-      <c r="F70" s="119"/>
-      <c r="G70" s="119"/>
-      <c r="H70" s="120"/>
+      <c r="D70" s="107"/>
+      <c r="E70" s="107"/>
+      <c r="F70" s="107"/>
+      <c r="G70" s="107"/>
+      <c r="H70" s="108"/>
     </row>
     <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B71" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="C71" s="130" t="s">
+      <c r="C71" s="145" t="s">
         <v>211</v>
       </c>
-      <c r="D71" s="131"/>
-      <c r="E71" s="131"/>
-      <c r="F71" s="131"/>
-      <c r="G71" s="131"/>
-      <c r="H71" s="132"/>
+      <c r="D71" s="146"/>
+      <c r="E71" s="146"/>
+      <c r="F71" s="146"/>
+      <c r="G71" s="146"/>
+      <c r="H71" s="147"/>
     </row>
     <row r="72" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B72" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="C72" s="133" t="s">
+      <c r="C72" s="148" t="s">
         <v>212</v>
       </c>
-      <c r="D72" s="134"/>
-      <c r="E72" s="134"/>
-      <c r="F72" s="134"/>
-      <c r="G72" s="134"/>
-      <c r="H72" s="135"/>
+      <c r="D72" s="149"/>
+      <c r="E72" s="149"/>
+      <c r="F72" s="149"/>
+      <c r="G72" s="149"/>
+      <c r="H72" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B62:L63"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C59:H59"/>
     <mergeCell ref="C52:H52"/>
     <mergeCell ref="C71:H71"/>
     <mergeCell ref="C72:H72"/>
@@ -15526,178 +15662,173 @@
     <mergeCell ref="C70:H70"/>
     <mergeCell ref="C53:H53"/>
     <mergeCell ref="C54:H54"/>
-    <mergeCell ref="B62:L63"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C59:H59"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="cellIs" dxfId="104" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="29" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="30" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="31" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="32" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B10">
-    <cfRule type="cellIs" dxfId="100" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="45" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="46" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="47" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="48" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="cellIs" dxfId="96" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="41" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="42" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="43" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="44" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B24">
-    <cfRule type="cellIs" dxfId="92" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="37" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="38" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="39" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="40" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="cellIs" dxfId="88" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="33" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="34" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="35" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="36" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B47">
-    <cfRule type="cellIs" dxfId="84" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="25" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="26" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="27" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="28" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="80" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="17" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="18" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="19" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="20" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:B63">
-    <cfRule type="cellIs" dxfId="76" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="21" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="22" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="23" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="24" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="72" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="13" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="14" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="15" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="16" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="68" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="9" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="10" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="12" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B18">
-    <cfRule type="cellIs" dxfId="64" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="6" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="7" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="8" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15734,30 +15865,30 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15765,16 +15896,16 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15797,58 +15928,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="16" t="s">
@@ -15861,32 +15992,32 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
     </row>
     <row r="9" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
     </row>
     <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B11" s="20" t="s">
@@ -15972,32 +16103,32 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
     </row>
     <row r="24" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="98"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
     </row>
     <row r="26" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B26" s="20" t="s">
@@ -16020,32 +16151,32 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="97"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
     </row>
     <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
     </row>
     <row r="32" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B32" s="20" t="s">
@@ -16088,509 +16219,506 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="97" t="s">
+      <c r="B38" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
-      <c r="L38" s="97"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
     </row>
     <row r="39" spans="2:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="98"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B68" s="80" t="s">
+      <c r="B68" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="C68" s="80"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="80"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="80"/>
-      <c r="I68" s="80"/>
-      <c r="J68" s="80"/>
-      <c r="K68" s="80"/>
-      <c r="L68" s="80"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="77"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="77"/>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B69" s="81"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="81"/>
-      <c r="I69" s="81"/>
-      <c r="J69" s="81"/>
-      <c r="K69" s="81"/>
-      <c r="L69" s="81"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="78"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="78"/>
+      <c r="I69" s="78"/>
+      <c r="J69" s="78"/>
+      <c r="K69" s="78"/>
+      <c r="L69" s="78"/>
     </row>
     <row r="70" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B71" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="C71" s="87" t="s">
+      <c r="C71" s="84" t="s">
         <v>234</v>
       </c>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="88"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="85"/>
     </row>
     <row r="72" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B72" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="C72" s="119" t="s">
+      <c r="C72" s="107" t="s">
         <v>236</v>
       </c>
-      <c r="D72" s="119"/>
-      <c r="E72" s="119"/>
-      <c r="F72" s="119"/>
-      <c r="G72" s="119"/>
-      <c r="H72" s="120"/>
+      <c r="D72" s="107"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="107"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="108"/>
     </row>
     <row r="73" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B73" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="C73" s="85" t="s">
+      <c r="C73" s="82" t="s">
         <v>238</v>
       </c>
-      <c r="D73" s="85"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="85"/>
-      <c r="H73" s="86"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="83"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B75" s="80" t="s">
+      <c r="B75" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="C75" s="80"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="80"/>
-      <c r="I75" s="80"/>
-      <c r="J75" s="80"/>
-      <c r="K75" s="80"/>
-      <c r="L75" s="80"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="77"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="77"/>
+      <c r="J75" s="77"/>
+      <c r="K75" s="77"/>
+      <c r="L75" s="77"/>
     </row>
     <row r="76" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B76" s="81"/>
-      <c r="C76" s="81"/>
-      <c r="D76" s="81"/>
-      <c r="E76" s="81"/>
-      <c r="F76" s="81"/>
-      <c r="G76" s="81"/>
-      <c r="H76" s="81"/>
-      <c r="I76" s="81"/>
-      <c r="J76" s="81"/>
-      <c r="K76" s="81"/>
-      <c r="L76" s="81"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="78"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="78"/>
+      <c r="H76" s="78"/>
+      <c r="I76" s="78"/>
+      <c r="J76" s="78"/>
+      <c r="K76" s="78"/>
+      <c r="L76" s="78"/>
     </row>
     <row r="77" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="78" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B78" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="C78" s="87" t="s">
+      <c r="C78" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="D78" s="87"/>
-      <c r="E78" s="87"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="87"/>
-      <c r="H78" s="88"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="84"/>
+      <c r="H78" s="85"/>
     </row>
     <row r="79" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B79" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="C79" s="119" t="s">
+      <c r="C79" s="107" t="s">
         <v>241</v>
       </c>
-      <c r="D79" s="119"/>
-      <c r="E79" s="119"/>
-      <c r="F79" s="119"/>
-      <c r="G79" s="119"/>
-      <c r="H79" s="120"/>
+      <c r="D79" s="107"/>
+      <c r="E79" s="107"/>
+      <c r="F79" s="107"/>
+      <c r="G79" s="107"/>
+      <c r="H79" s="108"/>
     </row>
     <row r="80" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B80" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="C80" s="85" t="s">
+      <c r="C80" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="D80" s="85"/>
-      <c r="E80" s="85"/>
-      <c r="F80" s="85"/>
-      <c r="G80" s="85"/>
-      <c r="H80" s="86"/>
+      <c r="D80" s="82"/>
+      <c r="E80" s="82"/>
+      <c r="F80" s="82"/>
+      <c r="G80" s="82"/>
+      <c r="H80" s="83"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B82" s="80" t="s">
+      <c r="B82" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="C82" s="80"/>
-      <c r="D82" s="80"/>
-      <c r="E82" s="80"/>
-      <c r="F82" s="80"/>
-      <c r="G82" s="80"/>
-      <c r="H82" s="80"/>
-      <c r="I82" s="80"/>
-      <c r="J82" s="80"/>
-      <c r="K82" s="80"/>
-      <c r="L82" s="80"/>
+      <c r="C82" s="77"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="77"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="77"/>
+      <c r="L82" s="77"/>
     </row>
     <row r="83" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B83" s="81"/>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
-      <c r="E83" s="81"/>
-      <c r="F83" s="81"/>
-      <c r="G83" s="81"/>
-      <c r="H83" s="81"/>
-      <c r="I83" s="81"/>
-      <c r="J83" s="81"/>
-      <c r="K83" s="81"/>
-      <c r="L83" s="81"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="78"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="78"/>
+      <c r="H83" s="78"/>
+      <c r="I83" s="78"/>
+      <c r="J83" s="78"/>
+      <c r="K83" s="78"/>
+      <c r="L83" s="78"/>
     </row>
     <row r="84" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="85" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B85" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="C85" s="87" t="s">
+      <c r="C85" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="D85" s="87"/>
-      <c r="E85" s="87"/>
-      <c r="F85" s="87"/>
-      <c r="G85" s="87"/>
-      <c r="H85" s="88"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="84"/>
+      <c r="F85" s="84"/>
+      <c r="G85" s="84"/>
+      <c r="H85" s="85"/>
     </row>
     <row r="86" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B86" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="C86" s="119" t="s">
+      <c r="C86" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="D86" s="119"/>
-      <c r="E86" s="119"/>
-      <c r="F86" s="119"/>
-      <c r="G86" s="119"/>
-      <c r="H86" s="120"/>
+      <c r="D86" s="107"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="107"/>
+      <c r="G86" s="107"/>
+      <c r="H86" s="108"/>
     </row>
     <row r="87" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B87" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="C87" s="116" t="s">
+      <c r="C87" s="119" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="116"/>
-      <c r="E87" s="116"/>
-      <c r="F87" s="116"/>
-      <c r="G87" s="116"/>
-      <c r="H87" s="117"/>
+      <c r="D87" s="119"/>
+      <c r="E87" s="119"/>
+      <c r="F87" s="119"/>
+      <c r="G87" s="119"/>
+      <c r="H87" s="120"/>
     </row>
     <row r="88" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B88" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C88" s="119" t="s">
+      <c r="C88" s="107" t="s">
         <v>253</v>
       </c>
-      <c r="D88" s="119"/>
-      <c r="E88" s="119"/>
-      <c r="F88" s="119"/>
-      <c r="G88" s="119"/>
-      <c r="H88" s="120"/>
+      <c r="D88" s="107"/>
+      <c r="E88" s="107"/>
+      <c r="F88" s="107"/>
+      <c r="G88" s="107"/>
+      <c r="H88" s="108"/>
     </row>
     <row r="89" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B89" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="C89" s="131" t="s">
+      <c r="C89" s="146" t="s">
         <v>255</v>
       </c>
-      <c r="D89" s="131"/>
-      <c r="E89" s="131"/>
-      <c r="F89" s="131"/>
-      <c r="G89" s="131"/>
-      <c r="H89" s="132"/>
+      <c r="D89" s="146"/>
+      <c r="E89" s="146"/>
+      <c r="F89" s="146"/>
+      <c r="G89" s="146"/>
+      <c r="H89" s="147"/>
     </row>
     <row r="90" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B90" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="C90" s="136" t="s">
+      <c r="C90" s="158" t="s">
         <v>257</v>
       </c>
-      <c r="D90" s="136"/>
-      <c r="E90" s="136"/>
-      <c r="F90" s="136"/>
-      <c r="G90" s="136"/>
-      <c r="H90" s="137"/>
+      <c r="D90" s="158"/>
+      <c r="E90" s="158"/>
+      <c r="F90" s="158"/>
+      <c r="G90" s="158"/>
+      <c r="H90" s="159"/>
     </row>
     <row r="91" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B91" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="C91" s="116" t="s">
+      <c r="C91" s="119" t="s">
         <v>259</v>
       </c>
-      <c r="D91" s="116"/>
-      <c r="E91" s="116"/>
-      <c r="F91" s="116"/>
-      <c r="G91" s="116"/>
-      <c r="H91" s="117"/>
+      <c r="D91" s="119"/>
+      <c r="E91" s="119"/>
+      <c r="F91" s="119"/>
+      <c r="G91" s="119"/>
+      <c r="H91" s="120"/>
     </row>
     <row r="92" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B92" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="C92" s="139" t="s">
+      <c r="C92" s="161" t="s">
         <v>249</v>
       </c>
-      <c r="D92" s="139"/>
-      <c r="E92" s="139"/>
-      <c r="F92" s="139"/>
-      <c r="G92" s="139"/>
-      <c r="H92" s="140"/>
+      <c r="D92" s="161"/>
+      <c r="E92" s="161"/>
+      <c r="F92" s="161"/>
+      <c r="G92" s="161"/>
+      <c r="H92" s="162"/>
     </row>
     <row r="93" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B93" s="53" t="s">
         <v>295</v>
       </c>
-      <c r="C93" s="141" t="s">
+      <c r="C93" s="156" t="s">
         <v>296</v>
       </c>
-      <c r="D93" s="141"/>
-      <c r="E93" s="141"/>
-      <c r="F93" s="141"/>
-      <c r="G93" s="141"/>
-      <c r="H93" s="142"/>
+      <c r="D93" s="156"/>
+      <c r="E93" s="156"/>
+      <c r="F93" s="156"/>
+      <c r="G93" s="156"/>
+      <c r="H93" s="157"/>
     </row>
     <row r="94" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B94" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="C94" s="134" t="s">
+      <c r="C94" s="149" t="s">
         <v>294</v>
       </c>
-      <c r="D94" s="134"/>
-      <c r="E94" s="134"/>
-      <c r="F94" s="134"/>
-      <c r="G94" s="134"/>
-      <c r="H94" s="135"/>
+      <c r="D94" s="149"/>
+      <c r="E94" s="149"/>
+      <c r="F94" s="149"/>
+      <c r="G94" s="149"/>
+      <c r="H94" s="150"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B96" s="80" t="s">
+      <c r="B96" s="77" t="s">
         <v>263</v>
       </c>
-      <c r="C96" s="80"/>
-      <c r="D96" s="80"/>
-      <c r="E96" s="80"/>
-      <c r="F96" s="80"/>
-      <c r="G96" s="80"/>
-      <c r="H96" s="80"/>
-      <c r="I96" s="80"/>
-      <c r="J96" s="80"/>
-      <c r="K96" s="80"/>
-      <c r="L96" s="80"/>
+      <c r="C96" s="77"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="77"/>
+      <c r="H96" s="77"/>
+      <c r="I96" s="77"/>
+      <c r="J96" s="77"/>
+      <c r="K96" s="77"/>
+      <c r="L96" s="77"/>
     </row>
     <row r="97" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B97" s="81"/>
-      <c r="C97" s="81"/>
-      <c r="D97" s="81"/>
-      <c r="E97" s="81"/>
-      <c r="F97" s="81"/>
-      <c r="G97" s="81"/>
-      <c r="H97" s="81"/>
-      <c r="I97" s="81"/>
-      <c r="J97" s="81"/>
-      <c r="K97" s="81"/>
-      <c r="L97" s="81"/>
+      <c r="B97" s="78"/>
+      <c r="C97" s="78"/>
+      <c r="D97" s="78"/>
+      <c r="E97" s="78"/>
+      <c r="F97" s="78"/>
+      <c r="G97" s="78"/>
+      <c r="H97" s="78"/>
+      <c r="I97" s="78"/>
+      <c r="J97" s="78"/>
+      <c r="K97" s="78"/>
+      <c r="L97" s="78"/>
     </row>
     <row r="98" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="99" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B99" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="C99" s="87" t="s">
+      <c r="C99" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="D99" s="87"/>
-      <c r="E99" s="87"/>
-      <c r="F99" s="87"/>
-      <c r="G99" s="87"/>
-      <c r="H99" s="88"/>
+      <c r="D99" s="84"/>
+      <c r="E99" s="84"/>
+      <c r="F99" s="84"/>
+      <c r="G99" s="84"/>
+      <c r="H99" s="85"/>
     </row>
     <row r="100" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B100" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="C100" s="103" t="s">
+      <c r="C100" s="127" t="s">
         <v>261</v>
       </c>
-      <c r="D100" s="103"/>
-      <c r="E100" s="103"/>
-      <c r="F100" s="103"/>
-      <c r="G100" s="103"/>
-      <c r="H100" s="104"/>
+      <c r="D100" s="127"/>
+      <c r="E100" s="127"/>
+      <c r="F100" s="127"/>
+      <c r="G100" s="127"/>
+      <c r="H100" s="128"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B102" s="80" t="s">
+      <c r="B102" s="77" t="s">
         <v>264</v>
       </c>
-      <c r="C102" s="80"/>
-      <c r="D102" s="80"/>
-      <c r="E102" s="80"/>
-      <c r="F102" s="80"/>
-      <c r="G102" s="80"/>
-      <c r="H102" s="80"/>
-      <c r="I102" s="80"/>
-      <c r="J102" s="80"/>
-      <c r="K102" s="80"/>
-      <c r="L102" s="80"/>
+      <c r="C102" s="77"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+      <c r="K102" s="77"/>
+      <c r="L102" s="77"/>
     </row>
     <row r="103" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B103" s="81"/>
-      <c r="C103" s="81"/>
-      <c r="D103" s="81"/>
-      <c r="E103" s="81"/>
-      <c r="F103" s="81"/>
-      <c r="G103" s="81"/>
-      <c r="H103" s="81"/>
-      <c r="I103" s="81"/>
-      <c r="J103" s="81"/>
-      <c r="K103" s="81"/>
-      <c r="L103" s="81"/>
+      <c r="B103" s="78"/>
+      <c r="C103" s="78"/>
+      <c r="D103" s="78"/>
+      <c r="E103" s="78"/>
+      <c r="F103" s="78"/>
+      <c r="G103" s="78"/>
+      <c r="H103" s="78"/>
+      <c r="I103" s="78"/>
+      <c r="J103" s="78"/>
+      <c r="K103" s="78"/>
+      <c r="L103" s="78"/>
     </row>
     <row r="104" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="105" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B105" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="C105" s="138" t="s">
+      <c r="C105" s="160" t="s">
         <v>268</v>
       </c>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="82"/>
-      <c r="H105" s="82"/>
-      <c r="I105" s="83"/>
+      <c r="D105" s="79"/>
+      <c r="E105" s="79"/>
+      <c r="F105" s="79"/>
+      <c r="G105" s="79"/>
+      <c r="H105" s="79"/>
+      <c r="I105" s="80"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B107" s="80" t="s">
+      <c r="B107" s="77" t="s">
         <v>264</v>
       </c>
-      <c r="C107" s="80"/>
-      <c r="D107" s="80"/>
-      <c r="E107" s="80"/>
-      <c r="F107" s="80"/>
-      <c r="G107" s="80"/>
-      <c r="H107" s="80"/>
-      <c r="I107" s="80"/>
-      <c r="J107" s="80"/>
-      <c r="K107" s="80"/>
-      <c r="L107" s="80"/>
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="77"/>
+      <c r="H107" s="77"/>
+      <c r="I107" s="77"/>
+      <c r="J107" s="77"/>
+      <c r="K107" s="77"/>
+      <c r="L107" s="77"/>
     </row>
     <row r="108" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B108" s="81"/>
-      <c r="C108" s="81"/>
-      <c r="D108" s="81"/>
-      <c r="E108" s="81"/>
-      <c r="F108" s="81"/>
-      <c r="G108" s="81"/>
-      <c r="H108" s="81"/>
-      <c r="I108" s="81"/>
-      <c r="J108" s="81"/>
-      <c r="K108" s="81"/>
-      <c r="L108" s="81"/>
+      <c r="B108" s="78"/>
+      <c r="C108" s="78"/>
+      <c r="D108" s="78"/>
+      <c r="E108" s="78"/>
+      <c r="F108" s="78"/>
+      <c r="G108" s="78"/>
+      <c r="H108" s="78"/>
+      <c r="I108" s="78"/>
+      <c r="J108" s="78"/>
+      <c r="K108" s="78"/>
+      <c r="L108" s="78"/>
     </row>
     <row r="109" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="110" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B110" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="C110" s="138" t="s">
+      <c r="C110" s="160" t="s">
         <v>269</v>
       </c>
-      <c r="D110" s="82"/>
-      <c r="E110" s="82"/>
-      <c r="F110" s="82"/>
-      <c r="G110" s="82"/>
-      <c r="H110" s="82"/>
-      <c r="I110" s="83"/>
+      <c r="D110" s="79"/>
+      <c r="E110" s="79"/>
+      <c r="F110" s="79"/>
+      <c r="G110" s="79"/>
+      <c r="H110" s="79"/>
+      <c r="I110" s="80"/>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B112" s="80" t="s">
+      <c r="B112" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="C112" s="80"/>
-      <c r="D112" s="80"/>
-      <c r="E112" s="80"/>
-      <c r="F112" s="80"/>
-      <c r="G112" s="80"/>
-      <c r="H112" s="80"/>
-      <c r="I112" s="80"/>
-      <c r="J112" s="80"/>
-      <c r="K112" s="80"/>
-      <c r="L112" s="80"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="77"/>
+      <c r="L112" s="77"/>
     </row>
     <row r="113" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B113" s="81"/>
-      <c r="C113" s="81"/>
-      <c r="D113" s="81"/>
-      <c r="E113" s="81"/>
-      <c r="F113" s="81"/>
-      <c r="G113" s="81"/>
-      <c r="H113" s="81"/>
-      <c r="I113" s="81"/>
-      <c r="J113" s="81"/>
-      <c r="K113" s="81"/>
-      <c r="L113" s="81"/>
+      <c r="B113" s="78"/>
+      <c r="C113" s="78"/>
+      <c r="D113" s="78"/>
+      <c r="E113" s="78"/>
+      <c r="F113" s="78"/>
+      <c r="G113" s="78"/>
+      <c r="H113" s="78"/>
+      <c r="I113" s="78"/>
+      <c r="J113" s="78"/>
+      <c r="K113" s="78"/>
+      <c r="L113" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="B107:L108"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="B75:L76"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B38:L39"/>
+    <mergeCell ref="B68:L69"/>
+    <mergeCell ref="B23:L24"/>
+    <mergeCell ref="B29:L30"/>
     <mergeCell ref="B112:L113"/>
     <mergeCell ref="B82:L83"/>
     <mergeCell ref="B96:L97"/>
@@ -16607,152 +16735,155 @@
     <mergeCell ref="C105:I105"/>
     <mergeCell ref="C91:H91"/>
     <mergeCell ref="C92:H92"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="B38:L39"/>
-    <mergeCell ref="B68:L69"/>
-    <mergeCell ref="B23:L24"/>
-    <mergeCell ref="B29:L30"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="B75:L76"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="B107:L108"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C94:H94"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B68:B69">
-    <cfRule type="cellIs" dxfId="52" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B76">
-    <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="47" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B113">
-    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="cellIs" dxfId="40" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:B97">
-    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:B36">
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102:B103">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B108">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"デザイン"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"システム"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"全体"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"ゲーム挙動"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16777,58 +16908,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="106" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
     </row>
     <row r="5" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="16" t="s">
@@ -16839,32 +16970,32 @@
       <c r="B6" s="16"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
     </row>
     <row r="9" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
     </row>
     <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B11" s="20" t="s">
@@ -16887,134 +17018,134 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="73" t="s">
         <v>273</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
     </row>
     <row r="15" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="2:12" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="159"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="160"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="141"/>
     </row>
     <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="C18" s="161" t="s">
+      <c r="C18" s="166" t="s">
         <v>288</v>
       </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="88"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="85"/>
     </row>
     <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="121" t="s">
         <v>305</v>
       </c>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="120"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="108"/>
     </row>
     <row r="20" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="34"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="117"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="120"/>
     </row>
     <row r="21" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="33"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="120"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="108"/>
     </row>
     <row r="22" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="39"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="117"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="120"/>
     </row>
     <row r="23" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="37"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="126"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="152"/>
     </row>
     <row r="25" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="97" t="s">
+      <c r="B25" s="73" t="s">
         <v>270</v>
       </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
     </row>
     <row r="26" spans="2:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
     </row>
     <row r="28" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B28" s="20" t="s">
@@ -17038,144 +17169,144 @@
     </row>
     <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="31" spans="2:12" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="146" t="s">
+      <c r="B31" s="171" t="s">
         <v>275</v>
       </c>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="143" t="s">
+      <c r="C31" s="172"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="168" t="s">
         <v>286</v>
       </c>
-      <c r="H31" s="144"/>
-      <c r="I31" s="145"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="170"/>
     </row>
     <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="154" t="s">
+      <c r="C32" s="163" t="s">
         <v>279</v>
       </c>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="150"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="175"/>
     </row>
     <row r="33" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C33" s="118" t="s">
+      <c r="C33" s="121" t="s">
         <v>280</v>
       </c>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="150"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="175"/>
     </row>
     <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="C34" s="115" t="s">
+      <c r="C34" s="118" t="s">
         <v>281</v>
       </c>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="150"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="175"/>
     </row>
     <row r="35" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C35" s="118" t="s">
+      <c r="C35" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="150"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="175"/>
     </row>
     <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="C36" s="115" t="s">
+      <c r="C36" s="118" t="s">
         <v>284</v>
       </c>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="150"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="174"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="175"/>
     </row>
     <row r="37" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="C37" s="94" t="s">
+      <c r="C37" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="150"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="174"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="175"/>
     </row>
     <row r="38" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="81" t="s">
         <v>289</v>
       </c>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="153"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="176"/>
+      <c r="H38" s="177"/>
+      <c r="I38" s="178"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="73" t="s">
         <v>303</v>
       </c>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="97"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
     </row>
     <row r="42" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="98"/>
-      <c r="L42" s="98"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
     </row>
     <row r="43" spans="2:12" ht="28.8" x14ac:dyDescent="0.7">
       <c r="B43" s="20" t="s">
@@ -17199,119 +17330,137 @@
     </row>
     <row r="45" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="46" spans="2:12" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="146" t="s">
+      <c r="B46" s="171" t="s">
         <v>275</v>
       </c>
-      <c r="C46" s="147"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="143" t="s">
+      <c r="C46" s="172"/>
+      <c r="D46" s="172"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="168" t="s">
         <v>286</v>
       </c>
-      <c r="H46" s="144"/>
-      <c r="I46" s="145"/>
+      <c r="H46" s="169"/>
+      <c r="I46" s="170"/>
     </row>
     <row r="47" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="154" t="s">
+      <c r="C47" s="163" t="s">
         <v>292</v>
       </c>
-      <c r="D47" s="155"/>
-      <c r="E47" s="155"/>
-      <c r="F47" s="156"/>
-      <c r="G47" s="149"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="150"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="165"/>
+      <c r="G47" s="174"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="175"/>
     </row>
     <row r="48" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C48" s="118" t="s">
+      <c r="C48" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="D48" s="119"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="120"/>
-      <c r="G48" s="149"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="150"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="174"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="175"/>
     </row>
     <row r="49" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="C49" s="115" t="s">
+      <c r="C49" s="118" t="s">
         <v>284</v>
       </c>
-      <c r="D49" s="116"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="149"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="150"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="119"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="174"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="175"/>
     </row>
     <row r="50" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C50" s="118" t="s">
+      <c r="C50" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="149"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="150"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="174"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="175"/>
     </row>
     <row r="51" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="C51" s="115" t="s">
+      <c r="C51" s="118" t="s">
         <v>284</v>
       </c>
-      <c r="D51" s="116"/>
-      <c r="E51" s="116"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="149"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="150"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="174"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="175"/>
     </row>
     <row r="52" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B52" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="C52" s="94" t="s">
+      <c r="C52" s="91" t="s">
         <v>300</v>
       </c>
-      <c r="D52" s="95"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="149"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="150"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="174"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="175"/>
     </row>
     <row r="53" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="C53" s="84" t="s">
+      <c r="C53" s="81" t="s">
         <v>289</v>
       </c>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="151"/>
-      <c r="H53" s="152"/>
-      <c r="I53" s="153"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="176"/>
+      <c r="H53" s="177"/>
+      <c r="I53" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G32:I38"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I53"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B41:L42"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="B3:L4"/>
     <mergeCell ref="B8:L9"/>
@@ -17325,26 +17474,8 @@
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="B25:L26"/>
     <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C53:F53"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I53"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="B41:L42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G32:I38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>

--- a/仕様/仕様書.xlsx
+++ b/仕様/仕様書.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="483">
   <si>
     <t>オンライン利用技術</t>
     <rPh sb="5" eb="7">
@@ -3915,10 +3915,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ドス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>獣皮</t>
     <rPh sb="0" eb="2">
       <t>ケモノカワ</t>
@@ -3980,6 +3976,390 @@
   </si>
   <si>
     <t>コモン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃ヒット時に25%の確率で周囲20m以内にいる敵最大3体に電撃が連鎖し、80%のダメージを与える (範囲 +2m、ターゲット +2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>400%以上のダメージを与えられる攻撃がヒットすると発動。敵にルーンの炎の竜巻を撃ち込む。13m以内の敵に300%のダメージを与える (ダメージ +350%)。10秒のクールダウンがある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配達でアイテム2つ(79%/20%/1%)が各ステージのランダムな場所に出現する(アイテムのレアリティが上がる)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘルスが25%以下になると5秒間移動速度が40%上昇し透明になる　クールダウン30(-50%)秒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何もしない。アンコモンの3Dプリンターと同時に使うと優先される。各ステージ開始時に復活する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を倒すと周囲12mにベースダメージの350%分のダメージを与える火柱が出現する (範囲 +2.4m、 ダメージ +280%)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小判</t>
+    <rPh sb="0" eb="2">
+      <t>コバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保留</t>
+  </si>
+  <si>
+    <t>保留</t>
+    <rPh sb="0" eb="2">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列1</t>
+    <rPh sb="0" eb="2">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラスの羽</t>
+    <rPh sb="4" eb="5">
+      <t>ハネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砥石</t>
+    <rPh sb="0" eb="2">
+      <t>トイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種子</t>
+    <rPh sb="0" eb="2">
+      <t>シュシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インタラクト可能なものを使用するとイカタレットを召喚する。タレットは付近の敵を100%(+100%)の攻撃速度で攻撃し、30秒間持続する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兜を半分で
+割れてるモデル</t>
+    <rPh sb="0" eb="1">
+      <t>カブト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足枷</t>
+    <rPh sb="0" eb="2">
+      <t>アシカセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盾</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <rPh sb="0" eb="2">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひよこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草履</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄線</t>
+    <rPh sb="0" eb="2">
+      <t>テッセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火打石</t>
+    <rPh sb="0" eb="3">
+      <t>ヒウチイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>般若のお面</t>
+    <rPh sb="0" eb="2">
+      <t>ハンニャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリティカルヒットで攻撃速度が12%上昇する。最大値は36% (+24%)。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">敵を倒すと18%の確率で全てのクールダウンをリセットする弾薬箱がドロップする (+10%) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を倒した際4%の確率で金塊が出現する (+4%)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鬼面</t>
+    <rPh sb="0" eb="1">
+      <t>オニ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>メン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力が13%以下になったエリートモンスターを即死させる (+13%)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4つ以上のデバフがついた敵に死の印が付き、受けるダメージが7秒間(+7秒)50%増加する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ回数 +1 (+1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <rPh sb="0" eb="2">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列1</t>
+    <rPh sb="0" eb="2">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を倒すと装備品のクールダウンが4秒短縮される (+2秒)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を倒すと自身の周囲をアイスストームが取り囲み、600%ダメージ/秒を与える
+ストームは敵を倒すごとに範囲が1mずつ、最大6mまで広がる (ダメージ +150%、最大範囲 +6m)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのランダムな効果が+1倍の確率でいい結果が出やすくなる。 (倍率 +1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡時にこのアイテムを消費し、3秒間の無敵時間付きで復活する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復量の100%をソウルエナジーとして溜め込む。ソウルエナジーが最大体力の10%に達するとエナジー量の250%分のダメージを与えるスカルを発射する (チャージ割合 +100%)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵3体にヒットする電撃を発生させ、0.5秒毎に基礎攻撃力の250%分のダメージを与える。コイルは10秒毎に電源が落ちる (ターゲット数 +3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力の最大値を超えて回復すると、超過回復量の50%をバリアとして得る (+50%)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルのクールダウンを25%短縮する (+25%)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべての攻撃が爆発し、半径4m以内の敵に60%のダメージを与える (+1.5m)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を倒すと150%のダメージを与える追尾するダガーを3本放つ (ダメージ +150%)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプの高度が上昇する。着地時に半径5~100mの爆発を起こし、基礎攻撃力の1000~10000%のダメージを与える。ダメージは速度によって増加する。10秒のリチャージ時間あり (リチャージ時間 -50%)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を倒すと7%の確率で1500%のダメージを与えるゴーストを召喚する。30秒持続する (+30秒)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーティリティスキルのチャージ数が2増加し、クールダウンが33%短縮される (チャージ数 +2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を倒すと、5秒後に芽を出す回復フルーツの種をその場に落とす。芽は5m(+5m)以内にいる全ての仲間を0,5秒毎に最大体力の5%ずつ回復し、10秒間持続する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャージ後300%のダメージを与えながら飛んでいき、着弾後爆発し1000%のダメージを与え、戻ってくる際300%のダメージを与える (それぞれ+300% +1000% +300%)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵へ5回攻撃を当てると、敵のアーマーを8秒間60下げる (+8秒)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリートモンスターを倒すと8秒間その力を得る (+5秒)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムな装備の効果を、1(+1)回発動する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒットすると100%の確率でアーマーが2(+2)、永続的に下がる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべてのミサイル系アイテムや装備は2発の追加ミサイルを放つ。ミサイルのダメージを0%(+50%)上げる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1(スタックごとに +1)のデバフを防ぎ、代わりに最大ヘルスの10%の間一時的なバリアを付与する。5秒ごとに再チャージする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリティカルストライクが、追加で100%(+100%)のダメージを与える。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての回復効果が100%増加する (+100%)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃ヒット時に20%の確率で最大10体の敵にフックを飛ばして100%のダメージを与える (確率 +20%、ターゲット +5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリートモンスターを倒すと、4秒間逆上状態になって、スキルがクールダウンしなくなる(+4秒)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>400%以上のダメージを与えられる攻撃がヒットすると発動。敵にルーンの氷の波動を撃ち込む。敵の速度を3秒間(+3秒)80%低下させ、250%のダメージを与える (ダメージ +250%)。10秒のクールダウンがある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリティカル確率が5%上昇し、クリティカルが発生するごとに体力が8回復する (回復量 +4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点滴袋</t>
+    <rPh sb="0" eb="2">
+      <t>テンテキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フクロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を倒すごとに体力が永続的に1増える。最大100まで (最大 +100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走りながらジャンプすると前方に10m飛び出す (+10m)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を倒すと移動速度が125%上がり、1(+0.5)秒間消える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プライマリースキルを発動すると、手裏剣も投げて、400%(+100%)の基礎ダメージを与える。最大3(+1)個の手裏剣を持つことができ、10秒経つとリロードされる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃ヒット時に体力を1回復する (回復量+1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃を当てた敵の移動速度が2秒間60%減少する (秒数 +2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走っている間はアーマーが30増加する (+30)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たび</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非戦闘時の移動速度 +30% (+30%)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発火の効果で、与えるダメージが時間の経過とともに+300%(+300%)以上増える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">テレポーターイベント中近くの味方を50%回復するヒーリングノヴァを発する (+1回) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージを受けた際、周囲25m(+10m)以内にいる敵最大5体に160%のダメージを与える (+2体)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1秒以内に4体の敵を倒すと6秒間フレンジー状態になる。フレンジー発動中は移動速度が50%、攻撃速度が100%上昇する (+4秒)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3987,7 +4367,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4210,8 +4590,32 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2E2E2E"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4260,8 +4664,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -5087,12 +5509,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5194,6 +5625,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5513,6 +5950,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5521,15 +5967,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5555,12 +5992,43 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="193">
+  <dxfs count="198">
     <dxf>
       <fill>
         <patternFill>
@@ -6778,6 +7246,97 @@
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color theme="0"/>
+        </left>
+        <right style="hair">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -9502,15 +10061,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>684000</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>441</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>11647</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9533,8 +10092,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="672353" y="17687365"/>
-          <a:ext cx="684000" cy="684000"/>
+          <a:off x="694765" y="17806147"/>
+          <a:ext cx="717176" cy="684000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9547,13 +10106,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>684000</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>684000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9591,14 +10150,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>684000</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>441</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>442</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11092,48 +11651,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="テーブル6" displayName="テーブル6" ref="B29:E46" totalsRowShown="0" headerRowDxfId="192" headerRowBorderDxfId="191" tableBorderDxfId="190">
-  <autoFilter ref="B29:E46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="テーブル6" displayName="テーブル6" ref="B29:F45" totalsRowShown="0" headerRowDxfId="197" headerRowBorderDxfId="196" tableBorderDxfId="195">
+  <autoFilter ref="B29:F45"/>
   <sortState ref="B30:E45">
     <sortCondition descending="1" ref="C29:C37"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" name="画像"/>
-    <tableColumn id="2" name="名前" dataDxfId="189"/>
-    <tableColumn id="3" name="効果" dataDxfId="188"/>
-    <tableColumn id="4" name="効果タイプ" dataDxfId="187"/>
+    <tableColumn id="2" name="名前" dataDxfId="194"/>
+    <tableColumn id="3" name="効果" dataDxfId="193"/>
+    <tableColumn id="4" name="効果タイプ" dataDxfId="192"/>
+    <tableColumn id="5" name="列1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="テーブル8" displayName="テーブル8" ref="B51:E61" totalsRowShown="0" headerRowDxfId="186" headerRowBorderDxfId="185" tableBorderDxfId="184">
-  <autoFilter ref="B51:E61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="テーブル8" displayName="テーブル8" ref="B50:F77" totalsRowShown="0" headerRowDxfId="191" headerRowBorderDxfId="190" tableBorderDxfId="189">
+  <autoFilter ref="B50:F77"/>
   <sortState ref="B51:E60">
     <sortCondition descending="1" ref="C50:C60"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" name="画像"/>
-    <tableColumn id="2" name="名前" dataDxfId="183"/>
+    <tableColumn id="2" name="名前" dataDxfId="188"/>
     <tableColumn id="3" name="効果"/>
-    <tableColumn id="4" name="効果タイプ" dataDxfId="182"/>
+    <tableColumn id="4" name="効果タイプ" dataDxfId="187"/>
+    <tableColumn id="5" name="列1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B31:H44" totalsRowShown="0" dataDxfId="181" tableBorderDxfId="180">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル82" displayName="テーブル82" ref="B82:F107" totalsRowShown="0" headerRowDxfId="174" headerRowBorderDxfId="175" tableBorderDxfId="176">
+  <autoFilter ref="B82:F107"/>
+  <sortState ref="B83:E92">
+    <sortCondition descending="1" ref="C50:C60"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" name="画像"/>
+    <tableColumn id="2" name="名前" dataDxfId="178"/>
+    <tableColumn id="3" name="効果"/>
+    <tableColumn id="4" name="効果タイプ" dataDxfId="177"/>
+    <tableColumn id="5" name="列1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B31:H44" totalsRowShown="0" dataDxfId="186" tableBorderDxfId="185">
   <autoFilter ref="B31:H44"/>
   <tableColumns count="7">
     <tableColumn id="1" name="ステータス名"/>
-    <tableColumn id="2" name="合計値" dataDxfId="179"/>
-    <tableColumn id="3" name="基礎値" dataDxfId="178"/>
-    <tableColumn id="4" name="アイテム加算値" dataDxfId="177"/>
-    <tableColumn id="5" name="バフ加算値" dataDxfId="176"/>
-    <tableColumn id="6" name="アイテム乗算値" dataDxfId="175"/>
-    <tableColumn id="7" name="バフ乗算値" dataDxfId="174"/>
+    <tableColumn id="2" name="合計値" dataDxfId="184"/>
+    <tableColumn id="3" name="基礎値" dataDxfId="183"/>
+    <tableColumn id="4" name="アイテム加算値" dataDxfId="182"/>
+    <tableColumn id="5" name="バフ加算値" dataDxfId="181"/>
+    <tableColumn id="6" name="アイテム乗算値" dataDxfId="180"/>
+    <tableColumn id="7" name="バフ乗算値" dataDxfId="179"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11416,35 +11994,35 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="66" t="s">
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
       <c r="L3" t="s">
         <v>0</v>
       </c>
@@ -11453,18 +12031,18 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63" t="s">
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
       <c r="L4" t="s">
         <v>1</v>
       </c>
@@ -11473,18 +12051,18 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="63" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -11493,18 +12071,18 @@
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
       <c r="L6" t="s">
         <v>3</v>
       </c>
@@ -11513,18 +12091,18 @@
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
       <c r="L7" t="s">
         <v>4</v>
       </c>
@@ -11533,137 +12111,137 @@
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63" t="s">
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63" t="s">
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63" t="s">
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63" t="s">
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63" t="s">
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="63" t="s">
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -11724,58 +12302,58 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="129"/>
-      <c r="V1" s="129"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11799,58 +12377,58 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="129"/>
-      <c r="V1" s="129"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11874,58 +12452,58 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="129"/>
-      <c r="V1" s="129"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11986,100 +12564,100 @@
       <c r="V1" s="11"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
     </row>
     <row r="5" spans="1:22" ht="24" x14ac:dyDescent="0.5">
-      <c r="B5" s="179" t="s">
+      <c r="B5" s="181" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
     </row>
     <row r="6" spans="1:22" ht="24" x14ac:dyDescent="0.5">
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="180"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
     </row>
     <row r="7" spans="1:22" ht="24" x14ac:dyDescent="0.5">
-      <c r="B7" s="180" t="s">
+      <c r="B7" s="182" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
     </row>
     <row r="8" spans="1:22" ht="24" x14ac:dyDescent="0.5">
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="183" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
     </row>
     <row r="9" spans="1:22" ht="24" x14ac:dyDescent="0.5">
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="183" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
     </row>
     <row r="12" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
     </row>
     <row r="13" spans="1:22" ht="24" x14ac:dyDescent="0.5">
       <c r="B13" s="10" t="s">
@@ -12552,32 +13130,32 @@
       <c r="V1" s="14"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
     </row>
     <row r="5" spans="1:22" ht="24" x14ac:dyDescent="0.5">
       <c r="B5" s="16" t="s">
@@ -12590,32 +13168,32 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
     </row>
     <row r="9" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
     </row>
     <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.6">
       <c r="B11" s="20" t="s">
@@ -12667,60 +13245,60 @@
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
     </row>
     <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="104" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
     </row>
     <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="103"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
     </row>
     <row r="24" spans="1:14" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24"/>
@@ -12772,34 +13350,34 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="17"/>
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106"/>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
     </row>
     <row r="32" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="17"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
@@ -12838,65 +13416,65 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" s="17"/>
-      <c r="B47" s="104" t="s">
+      <c r="B47" s="106" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
-      <c r="I47" s="104"/>
-      <c r="J47" s="104"/>
-      <c r="K47" s="104"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+     